--- a/rasp_data/КИБ_маг_1к_21-22_осень.xlsx
+++ b/rasp_data/КИБ_маг_1к_21-22_осень.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Новая папка\Pub\Осень_21-22\Магистры\КИБ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Новая папка\Pub\Осень_21-22\Магистры\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="260">
   <si>
     <t>ВТОРНИК</t>
   </si>
@@ -284,9 +284,6 @@
 РПАС</t>
   </si>
   <si>
-    <t>Агентно-ориентированные системы автономного управления</t>
-  </si>
-  <si>
     <t>пр</t>
   </si>
   <si>
@@ -299,22 +296,10 @@
     <t>Манько С.В.</t>
   </si>
   <si>
-    <t>Теория игр в управлении интеллектуальными мобильными роботами</t>
-  </si>
-  <si>
     <t>Тягунов О.А.</t>
   </si>
   <si>
-    <t>Статистическая динамика автоматических систем</t>
-  </si>
-  <si>
     <t>Г-202</t>
-  </si>
-  <si>
-    <t>Г208</t>
-  </si>
-  <si>
-    <t>Информационные системы в мехатронике и робототехнике</t>
   </si>
   <si>
     <t>Калач Г.П.</t>
@@ -339,39 +324,21 @@
 Д</t>
   </si>
   <si>
-    <t>каф</t>
-  </si>
-  <si>
-    <t>Методы и теория оптимизации</t>
-  </si>
-  <si>
     <t>Карабутов Н.Н.</t>
   </si>
   <si>
-    <t>Системный подход в научно-проектной деятельности</t>
-  </si>
-  <si>
     <t>Батоврин В.К.</t>
   </si>
   <si>
     <t>Д</t>
   </si>
   <si>
-    <t>Автоматизированные системы научных исследований</t>
-  </si>
-  <si>
     <t>Пыльнов Ю.В.</t>
   </si>
   <si>
     <t>Г-424-4</t>
   </si>
   <si>
-    <t>Стандартизация в управлении качеством на предприятии</t>
-  </si>
-  <si>
-    <t>кр. 1н. Стандартизация в управлении качеством на предприятии</t>
-  </si>
-  <si>
     <t>Черемухина Ю.Ю.</t>
   </si>
   <si>
@@ -381,81 +348,36 @@
     <t>Ознакомительная практика</t>
   </si>
   <si>
-    <t>Проблемы управления в технических системах</t>
-  </si>
-  <si>
-    <t>Методы исследований в области системной инженерии и информационных технологий</t>
-  </si>
-  <si>
     <t>Гайдамака К.И.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Системный подход в научно-проектной деятельности</t>
-  </si>
-  <si>
-    <t>Системная инженерия</t>
-  </si>
-  <si>
     <t>Г-423</t>
   </si>
   <si>
-    <t>Методология и современные проблемы теории управления</t>
-  </si>
-  <si>
     <t>Певзнер Л.Д</t>
   </si>
   <si>
     <t>Г-403</t>
   </si>
   <si>
-    <t>Системный анализ 9-15н.</t>
-  </si>
-  <si>
     <t>Лютов А.Г.</t>
   </si>
   <si>
     <t>Г-401-1</t>
   </si>
   <si>
-    <t>Системный анализ 10-16н.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Математическое моделирование объектов и систем управления</t>
-  </si>
-  <si>
-    <t>Асанова А.З.</t>
-  </si>
-  <si>
-    <t>Диагностика в технических системах</t>
-  </si>
-  <si>
     <t>Шевцов И.К.</t>
   </si>
   <si>
-    <t>Бесплатформенные системы навигации</t>
-  </si>
-  <si>
-    <t>1н. Системный подход в научно-проектной деятельности</t>
-  </si>
-  <si>
-    <t>кр.1н. Системный подход в научно-проектной деятельности</t>
-  </si>
-  <si>
     <t>Ивченко В.Д.</t>
   </si>
   <si>
     <t>3,5,7,9,11,13 н. Ознакомительная практика</t>
   </si>
   <si>
-    <t xml:space="preserve">кр.1 Организация и проведение научных исследований </t>
-  </si>
-  <si>
-    <t>ЛК</t>
-  </si>
-  <si>
     <t>Макаров В.Н.</t>
   </si>
   <si>
@@ -465,90 +387,24 @@
     <t xml:space="preserve">Макаров В.Н. </t>
   </si>
   <si>
-    <t>кр. 18 Проектирование систем медицинского назначения</t>
-  </si>
-  <si>
     <t>Седанкин М.К.</t>
   </si>
   <si>
     <t>Г-320</t>
   </si>
   <si>
-    <t xml:space="preserve"> кр.1 Организация и проведение научных исследований </t>
-  </si>
-  <si>
-    <t>ПР</t>
-  </si>
-  <si>
-    <t>кр.1 Проектирование систем медицинского назначения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кр. 18 Организация и проведение научных исследований </t>
-  </si>
-  <si>
-    <t>кр.18 Проектирование систем медицинского назначения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кр. 18 Новые технологии в медицине </t>
-  </si>
-  <si>
     <t>Пасечник С.В,</t>
   </si>
   <si>
     <t>Пасечник С.В.</t>
   </si>
   <si>
-    <t>кр.1 Аналитические технологии и техника в лабораторной диагностике</t>
-  </si>
-  <si>
     <t>Прохоров Д.И.</t>
   </si>
   <si>
     <t>Г-322в</t>
   </si>
   <si>
-    <t>кр. 18 Аналитические технологии и техника в лабораторной диагностике</t>
-  </si>
-  <si>
-    <t>ЛАБ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> кр.1 Аналитические технологии и техника в лабораторной диагностике</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кр.1 Математическое моделирование биологических процессов и систем </t>
-  </si>
-  <si>
-    <t>Яковлев И.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кр. 18 Математическое моделирование биологических процессов и систем </t>
-  </si>
-  <si>
-    <t xml:space="preserve">кр. 18н. Математическое моделирование биологических процессов и систем </t>
-  </si>
-  <si>
-    <t>кр.1н. Бесплатформенные системы навигации</t>
-  </si>
-  <si>
-    <t>кр.1н. Диагностика в технических системах</t>
-  </si>
-  <si>
-    <t>кр.1н. Математическое моделирование объектов и систем управления</t>
-  </si>
-  <si>
-    <t>кр. 1н. Диагностика в технических системах</t>
-  </si>
-  <si>
-    <t>кр. 1н. Бесплатформенные системы навигации</t>
-  </si>
-  <si>
-    <t>кр. 1н. Методы и теория оптимизации</t>
-  </si>
-  <si>
-    <t>кр.1н. Информационные системы в мехатронике и робототехнике</t>
-  </si>
-  <si>
     <t>г-322а</t>
   </si>
   <si>
@@ -559,9 +415,6 @@
   </si>
   <si>
     <t>3-17 н. Техническое исследование технологических систем</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2, 4, 6, 8, 10, 12, 14, 16 н. Умные производственные системы </t>
   </si>
   <si>
     <t>Копытова Е.В.</t>
@@ -646,21 +499,12 @@
 ИУС</t>
   </si>
   <si>
-    <t>кр.2н. Системный подход в научно-проектной деятельности</t>
-  </si>
-  <si>
     <t>3-17 н. Стандартизация в управлении качеством на предприятии</t>
   </si>
   <si>
     <t>2-16 н. Стандартизация в управлении качеством на предприятии</t>
   </si>
   <si>
-    <t>2н. Системный подход в научно-проектной деятельности</t>
-  </si>
-  <si>
-    <t>Математические основы теории систем управления</t>
-  </si>
-  <si>
     <t>База</t>
   </si>
   <si>
@@ -670,70 +514,34 @@
     <t>2,4,6,8,10,12н. Ознакомительная практика</t>
   </si>
   <si>
-    <t>Математические модели механики</t>
-  </si>
-  <si>
-    <t>Л</t>
-  </si>
-  <si>
-    <t>Блаженнова Л. Ю.</t>
-  </si>
-  <si>
-    <t>Дискретные математические модели</t>
-  </si>
-  <si>
     <t xml:space="preserve">Парфенов Д. В. </t>
   </si>
   <si>
-    <t xml:space="preserve">Кроме 1н.Непрерывные математические модели </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Пулькин И. С.</t>
   </si>
   <si>
-    <t xml:space="preserve">Непрерывные математические модели </t>
-  </si>
-  <si>
     <t>Пулькин И. С.</t>
   </si>
   <si>
     <t>Булычев Г. Г.</t>
   </si>
   <si>
-    <t>Вычислительные методы электродинамики</t>
-  </si>
-  <si>
     <t xml:space="preserve">Пулькин И. С. </t>
   </si>
   <si>
-    <t>Планирование эксперимента</t>
-  </si>
-  <si>
     <t>Крыжановский Ю.М.</t>
   </si>
   <si>
     <t>Б-209</t>
   </si>
   <si>
-    <t>Средства тестирования программного обеспечения и его элементов</t>
-  </si>
-  <si>
     <t>Власов Е.Е.</t>
   </si>
   <si>
     <t>Технологическая (проектно-технологическая) практика</t>
   </si>
   <si>
-    <t>ПКП</t>
-  </si>
-  <si>
-    <t>Коммуникативные технологии в профессиональной сфере на иностранном языке</t>
-  </si>
-  <si>
     <t>Б-407</t>
-  </si>
-  <si>
-    <t>Г-411</t>
   </si>
   <si>
     <t>А-316</t>
@@ -780,18 +588,9 @@
     <t>каф.</t>
   </si>
   <si>
-    <t>А-205</t>
-  </si>
-  <si>
     <t>Г-424-3</t>
   </si>
   <si>
-    <t>А-206</t>
-  </si>
-  <si>
-    <t>А-208</t>
-  </si>
-  <si>
     <t>И-204-в</t>
   </si>
   <si>
@@ -801,12 +600,6 @@
     <t>А-221</t>
   </si>
   <si>
-    <t>кр. 1 н. Коммуникативные технологии в профессиональной сфере на иностранном языке</t>
-  </si>
-  <si>
-    <t>А-222</t>
-  </si>
-  <si>
     <t>Г-322-а</t>
   </si>
   <si>
@@ -819,12 +612,6 @@
     <t>https://online-edu.mirea.ru</t>
   </si>
   <si>
-    <t>кр. 1н. Вычислительные методы электродинамики</t>
-  </si>
-  <si>
-    <t>Гурьянова Е.О.</t>
-  </si>
-  <si>
     <t xml:space="preserve">3-17 н. Архитектура программно-аппаратных комплексов </t>
   </si>
   <si>
@@ -835,6 +622,244 @@
   </si>
   <si>
     <t>Руднева Л.Ю.</t>
+  </si>
+  <si>
+    <t>А-9а</t>
+  </si>
+  <si>
+    <t>Г-208</t>
+  </si>
+  <si>
+    <t>Асанов А.З.</t>
+  </si>
+  <si>
+    <t>Каданцев В.Н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 н.  Математическое моделирование биологических процессов и систем </t>
+  </si>
+  <si>
+    <t>ивц-102</t>
+  </si>
+  <si>
+    <t>ивц-101</t>
+  </si>
+  <si>
+    <t>Пистун Е.Н.</t>
+  </si>
+  <si>
+    <t>Блаженнова-Микулич Л.Ю.</t>
+  </si>
+  <si>
+    <t>2-16 н. Дискретные математические модели</t>
+  </si>
+  <si>
+    <t>3-17 н. Дискретные математические модели</t>
+  </si>
+  <si>
+    <t>3-17 н. Математические модели механики</t>
+  </si>
+  <si>
+    <t>2-16 н. Математические модели механики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-17 н. Непрерывные математические модели </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-16 н. Непрерывные математические модели </t>
+  </si>
+  <si>
+    <t>3-17  н. Вычислительные методы электродинамики</t>
+  </si>
+  <si>
+    <t>2-16 н. Вычислительные методы электродинамики</t>
+  </si>
+  <si>
+    <t>3-17 н. Коммуникативные технологии в профессиональной сфере на иностранном языке</t>
+  </si>
+  <si>
+    <t>2-16 н. Коммуникативные технологии в профессиональной сфере на иностранном языке</t>
+  </si>
+  <si>
+    <t>1-15 н. Планирование эксперимента</t>
+  </si>
+  <si>
+    <t>2-16 н. Планирование эксперимента</t>
+  </si>
+  <si>
+    <t>1-15 н. Средства тестирования программного обеспечения и его элементов</t>
+  </si>
+  <si>
+    <t>2-16 н. Средства тестирования программного обеспечения и его элементов</t>
+  </si>
+  <si>
+    <t>2-16 н. Проблемы управления в технических системах</t>
+  </si>
+  <si>
+    <t>3-17 н. Автоматизированные системы научных исследований</t>
+  </si>
+  <si>
+    <t>2-16 н. Автоматизированные системы научных исследований</t>
+  </si>
+  <si>
+    <t>1-15 н. Методы исследований в области системной инженерии и информационных технологий</t>
+  </si>
+  <si>
+    <t>2-16 н. Системная инженерия</t>
+  </si>
+  <si>
+    <t>1-15 н. Системная инженерия</t>
+  </si>
+  <si>
+    <t>2-16 н. Системный подход в научно-проектной деятельности</t>
+  </si>
+  <si>
+    <t>2-16 н.  Системный подход в научно-проектной деятельности</t>
+  </si>
+  <si>
+    <t>3-17 н. Агентно-ориентированные системы автономного управления</t>
+  </si>
+  <si>
+    <t>3-17 н. Статистическая динамика автоматических систем</t>
+  </si>
+  <si>
+    <t>2-16 н. Теория игр в управлении интеллектуальными мобильными роботами</t>
+  </si>
+  <si>
+    <t>3-17 н. Теория игр в управлении интеллектуальными мобильными роботами</t>
+  </si>
+  <si>
+    <t>2-16 н. Методы и теория оптимизации</t>
+  </si>
+  <si>
+    <t>3-17 н. Методы и теория оптимизации</t>
+  </si>
+  <si>
+    <t>2-16 н. Информационные системы в мехатронике и робототехнике</t>
+  </si>
+  <si>
+    <t>3-17 н.  Информационные системы в мехатронике и робототехнике</t>
+  </si>
+  <si>
+    <t>3-17 н. Методология и современные проблемы теории управления</t>
+  </si>
+  <si>
+    <t>2-16 н. Методология и современные проблемы теории управления</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-16 н. Системный анализ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-15 н. Системный анализ </t>
+  </si>
+  <si>
+    <t>1 н. Системный подход в научно-проектной деятельности</t>
+  </si>
+  <si>
+    <t>3-17 н. Математическое моделирование объектов и систем управления</t>
+  </si>
+  <si>
+    <t>2-16 н. Математическое моделирование объектов и систем управления</t>
+  </si>
+  <si>
+    <t>3-17 н. Диагностика в технических системах</t>
+  </si>
+  <si>
+    <t>2-16 н. Диагностика в технических системах</t>
+  </si>
+  <si>
+    <t>3-17 н. Бесплатформенные системы навигации</t>
+  </si>
+  <si>
+    <t>2-16 н. Бесплатформенные системы навигации</t>
+  </si>
+  <si>
+    <t>2 н. Системный подход в научно-проектной деятельности</t>
+  </si>
+  <si>
+    <t>1-15 н. Методология и современные проблемы теории управления</t>
+  </si>
+  <si>
+    <t>1-15 н. Диагностика в технических системах</t>
+  </si>
+  <si>
+    <t>2-16 н. Математические основы теории систем управления</t>
+  </si>
+  <si>
+    <t>1-15 н. Математические основы теории систем управления</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-17 н.  Организация и проведение научных исследований </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-16 н. Организация и проведение научных исследований </t>
+  </si>
+  <si>
+    <t>2-16 н. Проектирование систем медицинского назначения</t>
+  </si>
+  <si>
+    <t>2-16 н.  Проектирование систем медицинского назначения</t>
+  </si>
+  <si>
+    <t>3-17 н. Проектирование систем медицинского назначения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-16 н. Новые технологии в медицине </t>
+  </si>
+  <si>
+    <t>3-17 н. Аналитические технологии и техника в лабораторной диагностике</t>
+  </si>
+  <si>
+    <t>4-18 н. Аналитические технологии и техника в лабораторной диагностике</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-17 н.  Математическое моделирование биологических процессов и систем </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-16 н.  Математическое моделирование биологических процессов и систем </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-16 н. Математическое моделирование биологических процессов и систем </t>
+  </si>
+  <si>
+    <t>Проектно-конструкторская практика</t>
+  </si>
+  <si>
+    <t>4-16 н. Системный подход в научно-проектной деятельности</t>
+  </si>
+  <si>
+    <t>1н. Системный подход в научно-проектной деятельности
+3-15 н. Системный подход в научно-проектной деятельности</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2-16 н. Умные производственные системы </t>
+  </si>
+  <si>
+    <t>5-17 н. Системный подход в научно-проектной деятельности</t>
+  </si>
+  <si>
+    <t>3 н. Системный подход в научно-проектной деятельности</t>
+  </si>
+  <si>
+    <t>4 н.  Системный подход в научно-проектной деятельности</t>
+  </si>
+  <si>
+    <t>……………..</t>
+  </si>
+  <si>
+    <t>Катахова Н.В.</t>
+  </si>
+  <si>
+    <t>Богуш Н.Б.</t>
+  </si>
+  <si>
+    <t>А-107(1)</t>
+  </si>
+  <si>
+    <t>Манджиев А.А.</t>
+  </si>
+  <si>
+    <t>И-302</t>
   </si>
 </sst>
 </file>
@@ -1165,18 +1190,17 @@
       <name val="Arimo"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="14"/>
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -1309,24 +1333,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="74">
+  <borders count="75">
     <border>
       <left/>
       <right/>
@@ -2289,6 +2313,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3120,13 +3157,7 @@
     <xf numFmtId="0" fontId="37" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3210,9 +3241,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="20" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3309,9 +3337,6 @@
     <xf numFmtId="0" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3324,100 +3349,112 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="20" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="19" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="19" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="20" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3881,10 +3918,10 @@
   <dimension ref="A1:CB122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="BB4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:N1"/>
+      <selection pane="bottomRight" activeCell="BJ1" sqref="BJ1:BV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21"/>
@@ -3987,7 +4024,7 @@
       <c r="N1" s="396"/>
       <c r="O1" s="111"/>
       <c r="P1" s="397" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="Q1" s="397"/>
       <c r="R1" s="397"/>
@@ -4011,7 +4048,7 @@
       <c r="AH1" s="396"/>
       <c r="AI1" s="156"/>
       <c r="AJ1" s="397" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="AK1" s="397"/>
       <c r="AL1" s="397"/>
@@ -4035,7 +4072,7 @@
       <c r="BB1" s="396"/>
       <c r="BC1" s="156"/>
       <c r="BD1" s="397" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="BE1" s="397"/>
       <c r="BF1" s="397"/>
@@ -4059,7 +4096,7 @@
       <c r="BV1" s="396"/>
       <c r="BW1" s="156"/>
       <c r="BX1" s="397" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="BY1" s="397"/>
       <c r="BZ1" s="397"/>
@@ -4085,7 +4122,9 @@
       <c r="H2" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="96"/>
+      <c r="I2" s="96">
+        <v>10</v>
+      </c>
       <c r="J2" s="116"/>
       <c r="K2" s="68" t="s">
         <v>72</v>
@@ -4096,7 +4135,9 @@
       <c r="M2" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="96"/>
+      <c r="N2" s="96">
+        <v>11</v>
+      </c>
       <c r="O2" s="116"/>
       <c r="P2" s="69" t="s">
         <v>66</v>
@@ -4107,7 +4148,9 @@
       <c r="R2" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="S2" s="97"/>
+      <c r="S2" s="97">
+        <v>13</v>
+      </c>
       <c r="T2" s="116"/>
       <c r="U2" s="398" t="s">
         <v>18</v>
@@ -4127,7 +4170,9 @@
       <c r="AB2" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="96"/>
+      <c r="AC2" s="96">
+        <v>25</v>
+      </c>
       <c r="AD2" s="116"/>
       <c r="AE2" s="69" t="s">
         <v>68</v>
@@ -4138,7 +4183,9 @@
       <c r="AG2" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="AH2" s="97"/>
+      <c r="AH2" s="97">
+        <v>13</v>
+      </c>
       <c r="AI2" s="116"/>
       <c r="AJ2" s="69" t="s">
         <v>69</v>
@@ -4149,7 +4196,9 @@
       <c r="AL2" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="AM2" s="97"/>
+      <c r="AM2" s="97">
+        <v>3</v>
+      </c>
       <c r="AN2" s="116"/>
       <c r="AO2" s="444" t="s">
         <v>18</v>
@@ -4160,7 +4209,7 @@
       <c r="AQ2" s="401"/>
       <c r="AR2" s="401"/>
       <c r="AS2" s="401"/>
-      <c r="AT2" s="303" t="s">
+      <c r="AT2" s="301" t="s">
         <v>70</v>
       </c>
       <c r="AU2" s="95" t="s">
@@ -4169,9 +4218,11 @@
       <c r="AV2" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="AW2" s="310"/>
-      <c r="AX2" s="348"/>
-      <c r="AY2" s="303" t="s">
+      <c r="AW2" s="308">
+        <v>16</v>
+      </c>
+      <c r="AX2" s="345"/>
+      <c r="AY2" s="301" t="s">
         <v>71</v>
       </c>
       <c r="AZ2" s="95" t="s">
@@ -4180,10 +4231,12 @@
       <c r="BA2" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="BB2" s="93"/>
-      <c r="BC2" s="313"/>
-      <c r="BD2" s="314" t="s">
-        <v>227</v>
+      <c r="BB2" s="93">
+        <v>10</v>
+      </c>
+      <c r="BC2" s="311"/>
+      <c r="BD2" s="312" t="s">
+        <v>163</v>
       </c>
       <c r="BE2" s="95" t="s">
         <v>74</v>
@@ -4191,8 +4244,10 @@
       <c r="BF2" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="304"/>
+      <c r="BG2" s="43">
+        <v>21</v>
+      </c>
+      <c r="BH2" s="302"/>
       <c r="BI2" s="398" t="s">
         <v>18</v>
       </c>
@@ -4203,15 +4258,17 @@
       <c r="BL2" s="401"/>
       <c r="BM2" s="402"/>
       <c r="BN2" s="69" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="BO2" s="95" t="s">
         <v>74</v>
       </c>
       <c r="BP2" s="94" t="s">
-        <v>194</v>
-      </c>
-      <c r="BQ2" s="93"/>
+        <v>145</v>
+      </c>
+      <c r="BQ2" s="93">
+        <v>20</v>
+      </c>
       <c r="BR2" s="116"/>
       <c r="BS2" s="69"/>
       <c r="BT2" s="95"/>
@@ -4342,61 +4399,61 @@
         <v>64</v>
       </c>
       <c r="AO3" s="445"/>
-      <c r="AP3" s="311" t="s">
+      <c r="AP3" s="309" t="s">
         <v>15</v>
       </c>
-      <c r="AQ3" s="306" t="s">
+      <c r="AQ3" s="304" t="s">
         <v>4</v>
       </c>
-      <c r="AR3" s="306" t="s">
+      <c r="AR3" s="304" t="s">
         <v>5</v>
       </c>
-      <c r="AS3" s="337" t="s">
+      <c r="AS3" s="334" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="305" t="s">
+      <c r="AT3" s="303" t="s">
         <v>16</v>
       </c>
-      <c r="AU3" s="306" t="s">
+      <c r="AU3" s="304" t="s">
         <v>3</v>
       </c>
-      <c r="AV3" s="307" t="s">
+      <c r="AV3" s="305" t="s">
         <v>11</v>
       </c>
-      <c r="AW3" s="312" t="s">
+      <c r="AW3" s="310" t="s">
         <v>6</v>
       </c>
-      <c r="AX3" s="349" t="s">
+      <c r="AX3" s="346" t="s">
         <v>64</v>
       </c>
-      <c r="AY3" s="305" t="s">
+      <c r="AY3" s="303" t="s">
         <v>16</v>
       </c>
-      <c r="AZ3" s="306" t="s">
+      <c r="AZ3" s="304" t="s">
         <v>3</v>
       </c>
-      <c r="BA3" s="307" t="s">
+      <c r="BA3" s="305" t="s">
         <v>11</v>
       </c>
-      <c r="BB3" s="308" t="s">
+      <c r="BB3" s="306" t="s">
         <v>6</v>
       </c>
-      <c r="BC3" s="309" t="s">
+      <c r="BC3" s="307" t="s">
         <v>64</v>
       </c>
-      <c r="BD3" s="315" t="s">
+      <c r="BD3" s="313" t="s">
         <v>16</v>
       </c>
-      <c r="BE3" s="306" t="s">
+      <c r="BE3" s="304" t="s">
         <v>3</v>
       </c>
-      <c r="BF3" s="307" t="s">
+      <c r="BF3" s="305" t="s">
         <v>11</v>
       </c>
-      <c r="BG3" s="308" t="s">
+      <c r="BG3" s="306" t="s">
         <v>6</v>
       </c>
-      <c r="BH3" s="309" t="s">
+      <c r="BH3" s="307" t="s">
         <v>64</v>
       </c>
       <c r="BI3" s="399"/>
@@ -4505,43 +4562,27 @@
         <v>1</v>
       </c>
       <c r="Z4" s="104" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA4" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="AA4" s="100" t="s">
+      <c r="AB4" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="AB4" s="105" t="s">
-        <v>78</v>
-      </c>
       <c r="AC4" s="54" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="AD4" s="118"/>
-      <c r="AE4" s="381" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF4" s="377" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG4" s="378" t="s">
-        <v>247</v>
-      </c>
-      <c r="AH4" s="384" t="s">
-        <v>115</v>
-      </c>
+      <c r="AE4" s="288"/>
+      <c r="AF4" s="367"/>
+      <c r="AG4" s="368"/>
+      <c r="AH4" s="371"/>
       <c r="AI4" s="118"/>
-      <c r="AJ4" s="382" t="s">
-        <v>158</v>
-      </c>
-      <c r="AK4" s="377" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL4" s="378" t="s">
-        <v>247</v>
-      </c>
-      <c r="AM4" s="384" t="s">
-        <v>115</v>
-      </c>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="367"/>
+      <c r="AL4" s="368"/>
+      <c r="AM4" s="371"/>
       <c r="AN4" s="118"/>
       <c r="AO4" s="436" t="s">
         <v>19</v>
@@ -4555,30 +4596,30 @@
       <c r="AR4" s="423" t="s">
         <v>27</v>
       </c>
-      <c r="AS4" s="338" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="350"/>
+      <c r="AS4" s="335" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="347"/>
       <c r="AU4" s="284"/>
       <c r="AV4" s="289"/>
       <c r="AW4" s="283"/>
-      <c r="AX4" s="324"/>
-      <c r="AY4" s="360"/>
+      <c r="AX4" s="321"/>
+      <c r="AY4" s="356"/>
       <c r="AZ4" s="157"/>
       <c r="BA4" s="290"/>
       <c r="BB4" s="242"/>
-      <c r="BC4" s="324"/>
-      <c r="BD4" s="316" t="s">
-        <v>176</v>
+      <c r="BC4" s="321"/>
+      <c r="BD4" s="314" t="s">
+        <v>127</v>
       </c>
       <c r="BE4" s="157" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BF4" s="290" t="s">
-        <v>165</v>
-      </c>
-      <c r="BG4" s="361" t="s">
-        <v>235</v>
+        <v>117</v>
+      </c>
+      <c r="BG4" s="391" t="s">
+        <v>125</v>
       </c>
       <c r="BH4" s="267"/>
       <c r="BI4" s="436" t="s">
@@ -4647,60 +4688,44 @@
       <c r="AB5" s="103"/>
       <c r="AC5" s="291"/>
       <c r="AD5" s="119"/>
-      <c r="AE5" s="372" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF5" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG5" s="114" t="s">
-        <v>247</v>
-      </c>
-      <c r="AH5" s="279" t="s">
-        <v>115</v>
-      </c>
+      <c r="AE5" s="285"/>
+      <c r="AF5" s="115"/>
+      <c r="AG5" s="114"/>
+      <c r="AH5" s="279"/>
       <c r="AI5" s="119"/>
-      <c r="AJ5" s="372" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK5" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL5" s="114" t="s">
-        <v>247</v>
-      </c>
-      <c r="AM5" s="279" t="s">
-        <v>115</v>
-      </c>
+      <c r="AJ5" s="285"/>
+      <c r="AK5" s="115"/>
+      <c r="AL5" s="114"/>
+      <c r="AM5" s="279"/>
       <c r="AN5" s="119"/>
       <c r="AO5" s="437"/>
       <c r="AP5" s="422"/>
       <c r="AQ5" s="424"/>
       <c r="AR5" s="424"/>
-      <c r="AS5" s="339" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT5" s="351"/>
+      <c r="AS5" s="336" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="348"/>
       <c r="AU5" s="286"/>
       <c r="AV5" s="287"/>
       <c r="AW5" s="282"/>
-      <c r="AX5" s="325"/>
-      <c r="AY5" s="351"/>
+      <c r="AX5" s="322"/>
+      <c r="AY5" s="348"/>
       <c r="AZ5" s="286"/>
       <c r="BA5" s="287"/>
       <c r="BB5" s="282"/>
-      <c r="BC5" s="325"/>
+      <c r="BC5" s="322"/>
       <c r="BD5" s="171" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="BE5" s="157" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BF5" s="232" t="s">
-        <v>165</v>
-      </c>
-      <c r="BG5" s="362" t="s">
-        <v>236</v>
+        <v>117</v>
+      </c>
+      <c r="BG5" s="391" t="s">
+        <v>125</v>
       </c>
       <c r="BH5" s="262"/>
       <c r="BI5" s="437"/>
@@ -4710,17 +4735,17 @@
       <c r="BM5" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="BN5" s="235" t="s">
-        <v>167</v>
+      <c r="BN5" s="285" t="s">
+        <v>250</v>
       </c>
       <c r="BO5" s="236" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BP5" s="237" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="BQ5" s="279" t="s">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c r="BR5" s="119"/>
       <c r="BS5" s="60"/>
@@ -4777,29 +4802,29 @@
         <v>1</v>
       </c>
       <c r="Z6" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA6" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="AA6" s="102" t="s">
+      <c r="AB6" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="AB6" s="103" t="s">
+      <c r="AC6" s="242" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="285" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF6" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="AC6" s="242" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD6" s="119"/>
-      <c r="AE6" s="372" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF6" s="115" t="s">
-        <v>79</v>
-      </c>
       <c r="AG6" s="114" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AH6" s="279" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="AI6" s="119"/>
       <c r="AJ6" s="285"/>
@@ -4817,30 +4842,30 @@
       <c r="AR6" s="441" t="s">
         <v>29</v>
       </c>
-      <c r="AS6" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="351"/>
+      <c r="AS6" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="348"/>
       <c r="AU6" s="286"/>
       <c r="AV6" s="287"/>
       <c r="AW6" s="282"/>
-      <c r="AX6" s="325"/>
-      <c r="AY6" s="351"/>
+      <c r="AX6" s="322"/>
+      <c r="AY6" s="348"/>
       <c r="AZ6" s="286"/>
       <c r="BA6" s="287"/>
       <c r="BB6" s="282"/>
-      <c r="BC6" s="325"/>
+      <c r="BC6" s="322"/>
       <c r="BD6" s="171" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="BE6" s="231" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BF6" s="232" t="s">
-        <v>165</v>
-      </c>
-      <c r="BG6" s="363" t="s">
-        <v>235</v>
+        <v>117</v>
+      </c>
+      <c r="BG6" s="391" t="s">
+        <v>125</v>
       </c>
       <c r="BH6" s="262"/>
       <c r="BI6" s="437"/>
@@ -4856,17 +4881,17 @@
       <c r="BM6" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="BN6" s="235" t="s">
-        <v>170</v>
+      <c r="BN6" s="285" t="s">
+        <v>121</v>
       </c>
       <c r="BO6" s="236" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BP6" s="237" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="BQ6" s="279" t="s">
-        <v>239</v>
+        <v>172</v>
       </c>
       <c r="BR6" s="119"/>
       <c r="BS6" s="60"/>
@@ -4915,20 +4940,20 @@
       <c r="AB7" s="103"/>
       <c r="AC7" s="291"/>
       <c r="AD7" s="119"/>
-      <c r="AE7" s="372" t="s">
-        <v>113</v>
+      <c r="AE7" s="285" t="s">
+        <v>221</v>
       </c>
       <c r="AF7" s="115" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG7" s="114" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AH7" s="279" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="AI7" s="119"/>
-      <c r="AJ7" s="373"/>
+      <c r="AJ7" s="364"/>
       <c r="AK7" s="115"/>
       <c r="AL7" s="114"/>
       <c r="AM7" s="278"/>
@@ -4937,30 +4962,30 @@
       <c r="AP7" s="422"/>
       <c r="AQ7" s="424"/>
       <c r="AR7" s="424"/>
-      <c r="AS7" s="340" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT7" s="351"/>
+      <c r="AS7" s="337" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT7" s="348"/>
       <c r="AU7" s="286"/>
       <c r="AV7" s="287"/>
       <c r="AW7" s="282"/>
-      <c r="AX7" s="325"/>
-      <c r="AY7" s="351"/>
+      <c r="AX7" s="322"/>
+      <c r="AY7" s="348"/>
       <c r="AZ7" s="286"/>
       <c r="BA7" s="287"/>
       <c r="BB7" s="282"/>
-      <c r="BC7" s="325"/>
+      <c r="BC7" s="322"/>
       <c r="BD7" s="171" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="BE7" s="157" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BF7" s="232" t="s">
-        <v>165</v>
-      </c>
-      <c r="BG7" s="362" t="s">
-        <v>236</v>
+        <v>117</v>
+      </c>
+      <c r="BG7" s="391" t="s">
+        <v>125</v>
       </c>
       <c r="BH7" s="262"/>
       <c r="BI7" s="437"/>
@@ -4970,17 +4995,17 @@
       <c r="BM7" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="BN7" s="235" t="s">
-        <v>171</v>
+      <c r="BN7" s="285" t="s">
+        <v>122</v>
       </c>
       <c r="BO7" s="236" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BP7" s="237" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="BQ7" s="279" t="s">
-        <v>239</v>
+        <v>172</v>
       </c>
       <c r="BR7" s="119"/>
       <c r="BS7" s="60"/>
@@ -5037,42 +5062,42 @@
         <v>1</v>
       </c>
       <c r="Z8" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA8" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB8" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC8" s="242" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD8" s="119"/>
+      <c r="AE8" s="285" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF8" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="AA8" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB8" s="103" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC8" s="242" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD8" s="119"/>
-      <c r="AE8" s="372" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF8" s="115" t="s">
-        <v>77</v>
-      </c>
       <c r="AG8" s="114" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AH8" s="279" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AI8" s="119"/>
-      <c r="AJ8" s="383" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK8" s="379" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL8" s="380" t="s">
-        <v>117</v>
+      <c r="AJ8" s="285" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK8" s="369" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL8" s="370" t="s">
+        <v>100</v>
       </c>
       <c r="AM8" s="279" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AN8" s="119"/>
       <c r="AO8" s="437"/>
@@ -5085,30 +5110,30 @@
       <c r="AR8" s="441" t="s">
         <v>58</v>
       </c>
-      <c r="AS8" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="351"/>
+      <c r="AS8" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="348"/>
       <c r="AU8" s="286"/>
       <c r="AV8" s="287"/>
       <c r="AW8" s="282"/>
-      <c r="AX8" s="325"/>
-      <c r="AY8" s="351"/>
+      <c r="AX8" s="322"/>
+      <c r="AY8" s="348"/>
       <c r="AZ8" s="286"/>
       <c r="BA8" s="287"/>
       <c r="BB8" s="282"/>
-      <c r="BC8" s="325"/>
+      <c r="BC8" s="322"/>
       <c r="BD8" s="171" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="BE8" s="230" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BF8" s="232" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="BG8" s="279" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="BH8" s="262"/>
       <c r="BI8" s="437"/>
@@ -5124,17 +5149,17 @@
       <c r="BM8" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="BN8" s="235" t="s">
-        <v>172</v>
+      <c r="BN8" s="285" t="s">
+        <v>123</v>
       </c>
       <c r="BO8" s="235" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BP8" s="237" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="BQ8" s="279" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="BR8" s="119"/>
       <c r="BS8" s="60"/>
@@ -5179,72 +5204,72 @@
         <v>2</v>
       </c>
       <c r="Z9" s="60" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="AA9" s="102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB9" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC9" s="242" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="AD9" s="119"/>
-      <c r="AE9" s="372" t="s">
-        <v>119</v>
+      <c r="AE9" s="285" t="s">
+        <v>222</v>
       </c>
       <c r="AF9" s="115" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG9" s="114" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AH9" s="279" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AI9" s="119"/>
-      <c r="AJ9" s="372" t="s">
-        <v>119</v>
+      <c r="AJ9" s="285" t="s">
+        <v>222</v>
       </c>
       <c r="AK9" s="115" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL9" s="114" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AM9" s="279" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AN9" s="119"/>
       <c r="AO9" s="437"/>
       <c r="AP9" s="422"/>
       <c r="AQ9" s="424"/>
       <c r="AR9" s="424"/>
-      <c r="AS9" s="340" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT9" s="351"/>
+      <c r="AS9" s="337" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT9" s="348"/>
       <c r="AU9" s="286"/>
       <c r="AV9" s="287"/>
       <c r="AW9" s="282"/>
-      <c r="AX9" s="325"/>
-      <c r="AY9" s="351"/>
+      <c r="AX9" s="322"/>
+      <c r="AY9" s="348"/>
       <c r="AZ9" s="286"/>
       <c r="BA9" s="287"/>
       <c r="BB9" s="282"/>
-      <c r="BC9" s="325"/>
+      <c r="BC9" s="322"/>
       <c r="BD9" s="171" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="BE9" s="230" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BF9" s="232" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="BG9" s="279" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="BH9" s="262"/>
       <c r="BI9" s="437"/>
@@ -5254,17 +5279,17 @@
       <c r="BM9" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="BN9" s="235" t="s">
-        <v>175</v>
+      <c r="BN9" s="285" t="s">
+        <v>126</v>
       </c>
       <c r="BO9" s="235" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BP9" s="237" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="BQ9" s="279" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="BR9" s="119"/>
       <c r="BS9" s="60"/>
@@ -5320,21 +5345,29 @@
       <c r="Y10" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="102"/>
-      <c r="AB10" s="103"/>
-      <c r="AC10" s="57"/>
+      <c r="Z10" s="220" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA10" s="286" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB10" s="287" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC10" s="282" t="s">
+        <v>81</v>
+      </c>
       <c r="AD10" s="120"/>
-      <c r="AE10" s="372" t="s">
-        <v>129</v>
+      <c r="AE10" s="285" t="s">
+        <v>105</v>
       </c>
       <c r="AF10" s="115"/>
       <c r="AG10" s="114"/>
       <c r="AH10" s="280" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="AI10" s="120"/>
-      <c r="AJ10" s="60"/>
+      <c r="AJ10" s="285"/>
       <c r="AK10" s="60"/>
       <c r="AL10" s="62"/>
       <c r="AM10" s="71"/>
@@ -5349,30 +5382,30 @@
       <c r="AR10" s="441" t="s">
         <v>60</v>
       </c>
-      <c r="AS10" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT10" s="351"/>
+      <c r="AS10" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="348"/>
       <c r="AU10" s="286"/>
       <c r="AV10" s="287"/>
       <c r="AW10" s="282"/>
-      <c r="AX10" s="326"/>
-      <c r="AY10" s="351"/>
+      <c r="AX10" s="323"/>
+      <c r="AY10" s="348"/>
       <c r="AZ10" s="286"/>
       <c r="BA10" s="287"/>
       <c r="BB10" s="282"/>
-      <c r="BC10" s="326"/>
+      <c r="BC10" s="323"/>
       <c r="BD10" s="171" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="BE10" s="231" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BF10" s="232" t="s">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="BG10" s="279" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="BH10" s="263"/>
       <c r="BI10" s="437"/>
@@ -5388,17 +5421,17 @@
       <c r="BM10" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="BN10" s="235" t="s">
-        <v>177</v>
+      <c r="BN10" s="285" t="s">
+        <v>128</v>
       </c>
       <c r="BO10" s="236" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="BP10" s="237" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="BQ10" s="279" t="s">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="BR10" s="120"/>
       <c r="BS10" s="60"/>
@@ -5442,20 +5475,20 @@
       <c r="Y11" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="Z11" s="60" t="s">
-        <v>81</v>
+      <c r="Z11" s="220" t="s">
+        <v>215</v>
       </c>
       <c r="AA11" s="102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB11" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC11" s="242" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="AD11" s="120"/>
-      <c r="AE11" s="60"/>
+      <c r="AE11" s="285"/>
       <c r="AF11" s="61"/>
       <c r="AG11" s="62"/>
       <c r="AH11" s="57"/>
@@ -5469,30 +5502,30 @@
       <c r="AP11" s="422"/>
       <c r="AQ11" s="424"/>
       <c r="AR11" s="424"/>
-      <c r="AS11" s="340" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT11" s="351"/>
+      <c r="AS11" s="337" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT11" s="348"/>
       <c r="AU11" s="286"/>
       <c r="AV11" s="287"/>
       <c r="AW11" s="282"/>
-      <c r="AX11" s="326"/>
-      <c r="AY11" s="351"/>
+      <c r="AX11" s="323"/>
+      <c r="AY11" s="348"/>
       <c r="AZ11" s="286"/>
       <c r="BA11" s="287"/>
       <c r="BB11" s="282"/>
-      <c r="BC11" s="326"/>
+      <c r="BC11" s="323"/>
       <c r="BD11" s="171" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="BE11" s="231" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BF11" s="287" t="s">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="BG11" s="279" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="BH11" s="263"/>
       <c r="BI11" s="437"/>
@@ -5502,17 +5535,17 @@
       <c r="BM11" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="BN11" s="235" t="s">
-        <v>179</v>
+      <c r="BN11" s="285" t="s">
+        <v>130</v>
       </c>
       <c r="BO11" s="236" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="BP11" s="237" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="BQ11" s="279" t="s">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="BR11" s="120"/>
       <c r="BS11" s="60"/>
@@ -5568,10 +5601,18 @@
       <c r="Y12" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="102"/>
-      <c r="AB12" s="103"/>
-      <c r="AC12" s="101"/>
+      <c r="Z12" s="220" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA12" s="286" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB12" s="287" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC12" s="282" t="s">
+        <v>182</v>
+      </c>
       <c r="AD12" s="120"/>
       <c r="AE12" s="60"/>
       <c r="AF12" s="61"/>
@@ -5593,46 +5634,46 @@
       <c r="AR12" s="441" t="s">
         <v>61</v>
       </c>
-      <c r="AS12" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT12" s="351" t="s">
-        <v>130</v>
+      <c r="AS12" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="348" t="s">
+        <v>236</v>
       </c>
       <c r="AU12" s="286" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AV12" s="287" t="s">
-        <v>132</v>
-      </c>
-      <c r="AW12" s="299" t="s">
-        <v>133</v>
-      </c>
-      <c r="AX12" s="326"/>
-      <c r="AY12" s="351" t="s">
-        <v>130</v>
+        <v>106</v>
+      </c>
+      <c r="AW12" s="297" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX12" s="323"/>
+      <c r="AY12" s="348" t="s">
+        <v>236</v>
       </c>
       <c r="AZ12" s="286" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="BA12" s="287" t="s">
-        <v>134</v>
-      </c>
-      <c r="BB12" s="300" t="s">
-        <v>163</v>
-      </c>
-      <c r="BC12" s="326"/>
+        <v>108</v>
+      </c>
+      <c r="BB12" s="298" t="s">
+        <v>115</v>
+      </c>
+      <c r="BC12" s="323"/>
       <c r="BD12" s="171" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="BE12" s="231" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="BF12" s="232" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="BG12" s="279" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="BH12" s="263"/>
       <c r="BI12" s="437"/>
@@ -5648,17 +5689,17 @@
       <c r="BM12" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="BN12" s="235" t="s">
-        <v>172</v>
+      <c r="BN12" s="285" t="s">
+        <v>123</v>
       </c>
       <c r="BO12" s="235" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="BP12" s="237" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="BQ12" s="279" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="BR12" s="120"/>
       <c r="BS12" s="60"/>
@@ -5702,17 +5743,17 @@
       <c r="Y13" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="Z13" s="60" t="s">
-        <v>81</v>
+      <c r="Z13" s="220" t="s">
+        <v>215</v>
       </c>
       <c r="AA13" s="102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB13" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC13" s="242" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="AD13" s="120"/>
       <c r="AE13" s="60"/>
@@ -5729,46 +5770,46 @@
       <c r="AP13" s="422"/>
       <c r="AQ13" s="424"/>
       <c r="AR13" s="424"/>
-      <c r="AS13" s="340" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT13" s="351" t="s">
-        <v>135</v>
+      <c r="AS13" s="337" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT13" s="348" t="s">
+        <v>238</v>
       </c>
       <c r="AU13" s="286" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AV13" s="287" t="s">
-        <v>136</v>
-      </c>
-      <c r="AW13" s="299" t="s">
-        <v>137</v>
-      </c>
-      <c r="AX13" s="326"/>
-      <c r="AY13" s="351" t="s">
-        <v>142</v>
+        <v>109</v>
+      </c>
+      <c r="AW13" s="297" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX13" s="323"/>
+      <c r="AY13" s="348" t="s">
+        <v>238</v>
       </c>
       <c r="AZ13" s="286" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="BA13" s="287" t="s">
-        <v>136</v>
-      </c>
-      <c r="BB13" s="300" t="s">
-        <v>137</v>
-      </c>
-      <c r="BC13" s="326"/>
+        <v>109</v>
+      </c>
+      <c r="BB13" s="298" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC13" s="323"/>
       <c r="BD13" s="171" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="BE13" s="231" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="BF13" s="232" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="BG13" s="279" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="BH13" s="263"/>
       <c r="BI13" s="437"/>
@@ -5808,30 +5849,30 @@
       <c r="E14" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="372" t="s">
-        <v>206</v>
+      <c r="F14" s="285" t="s">
+        <v>191</v>
       </c>
       <c r="G14" s="115" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H14" s="114" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="I14" s="279" t="s">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="J14" s="263"/>
-      <c r="K14" s="372" t="s">
-        <v>206</v>
+      <c r="K14" s="285" t="s">
+        <v>191</v>
       </c>
       <c r="L14" s="115" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M14" s="114" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="N14" s="279" t="s">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="O14" s="263"/>
       <c r="P14" s="58"/>
@@ -5852,10 +5893,18 @@
       <c r="Y14" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="102"/>
-      <c r="AB14" s="103"/>
-      <c r="AC14" s="101"/>
+      <c r="Z14" s="220" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA14" s="286" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB14" s="287" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC14" s="242" t="s">
+        <v>81</v>
+      </c>
       <c r="AD14" s="120"/>
       <c r="AE14" s="60"/>
       <c r="AF14" s="102"/>
@@ -5877,35 +5926,35 @@
       <c r="AR14" s="441" t="s">
         <v>62</v>
       </c>
-      <c r="AS14" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT14" s="351" t="s">
-        <v>138</v>
+      <c r="AS14" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="348" t="s">
+        <v>236</v>
       </c>
       <c r="AU14" s="286" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AV14" s="287" t="s">
-        <v>132</v>
-      </c>
-      <c r="AW14" s="299" t="s">
-        <v>133</v>
-      </c>
-      <c r="AX14" s="326"/>
-      <c r="AY14" s="351" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="AW14" s="297" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX14" s="323"/>
+      <c r="AY14" s="348" t="s">
+        <v>240</v>
       </c>
       <c r="AZ14" s="286" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="BA14" s="287" t="s">
-        <v>136</v>
-      </c>
-      <c r="BB14" s="300" t="s">
-        <v>137</v>
-      </c>
-      <c r="BC14" s="326"/>
+        <v>109</v>
+      </c>
+      <c r="BB14" s="298" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC14" s="323"/>
       <c r="BD14" s="171"/>
       <c r="BE14" s="285"/>
       <c r="BF14" s="287"/>
@@ -5948,12 +5997,12 @@
       <c r="E15" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="220"/>
+      <c r="F15" s="285"/>
       <c r="G15" s="115"/>
       <c r="H15" s="114"/>
       <c r="I15" s="280"/>
       <c r="J15" s="263"/>
-      <c r="K15" s="220"/>
+      <c r="K15" s="285"/>
       <c r="L15" s="115"/>
       <c r="M15" s="114"/>
       <c r="N15" s="280"/>
@@ -5989,35 +6038,35 @@
       <c r="AP15" s="422"/>
       <c r="AQ15" s="424"/>
       <c r="AR15" s="424"/>
-      <c r="AS15" s="341" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT15" s="351" t="s">
-        <v>135</v>
+      <c r="AS15" s="338" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT15" s="348" t="s">
+        <v>239</v>
       </c>
       <c r="AU15" s="286" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AV15" s="287" t="s">
-        <v>136</v>
-      </c>
-      <c r="AW15" s="299" t="s">
-        <v>137</v>
-      </c>
-      <c r="AX15" s="326"/>
-      <c r="AY15" s="351" t="s">
-        <v>141</v>
+        <v>109</v>
+      </c>
+      <c r="AW15" s="297" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX15" s="323"/>
+      <c r="AY15" s="348" t="s">
+        <v>237</v>
       </c>
       <c r="AZ15" s="286" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="BA15" s="287" t="s">
-        <v>134</v>
-      </c>
-      <c r="BB15" s="300" t="s">
-        <v>133</v>
-      </c>
-      <c r="BC15" s="326"/>
+        <v>108</v>
+      </c>
+      <c r="BB15" s="298" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC15" s="323"/>
       <c r="BD15" s="171"/>
       <c r="BE15" s="286"/>
       <c r="BF15" s="287"/>
@@ -6060,30 +6109,30 @@
       <c r="E16" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="372" t="s">
-        <v>206</v>
+      <c r="F16" s="285" t="s">
+        <v>191</v>
       </c>
       <c r="G16" s="115" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H16" s="114" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="I16" s="279" t="s">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="J16" s="263"/>
-      <c r="K16" s="372" t="s">
-        <v>206</v>
+      <c r="K16" s="285" t="s">
+        <v>191</v>
       </c>
       <c r="L16" s="115" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M16" s="114" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="N16" s="279" t="s">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="O16" s="263"/>
       <c r="P16" s="106"/>
@@ -6129,27 +6178,27 @@
       <c r="AR16" s="426" t="s">
         <v>63</v>
       </c>
-      <c r="AS16" s="342" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT16" s="351"/>
+      <c r="AS16" s="339" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="348"/>
       <c r="AU16" s="286"/>
       <c r="AV16" s="287"/>
       <c r="AW16" s="242"/>
-      <c r="AX16" s="326"/>
-      <c r="AY16" s="357" t="s">
-        <v>140</v>
-      </c>
-      <c r="AZ16" s="233" t="s">
-        <v>139</v>
-      </c>
-      <c r="BA16" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="BB16" s="301" t="s">
-        <v>137</v>
-      </c>
-      <c r="BC16" s="326"/>
+      <c r="AX16" s="323"/>
+      <c r="AY16" s="348" t="s">
+        <v>240</v>
+      </c>
+      <c r="AZ16" s="286" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA16" s="290" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB16" s="299" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC16" s="323"/>
       <c r="BD16" s="171"/>
       <c r="BE16" s="286"/>
       <c r="BF16" s="287"/>
@@ -6184,7 +6233,7 @@
       <c r="CA16" s="71"/>
       <c r="CB16" s="120"/>
     </row>
-    <row r="17" spans="1:80" s="35" customFormat="1" ht="33" customHeight="1" thickBot="1">
+    <row r="17" spans="1:80" s="35" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
       <c r="A17" s="437"/>
       <c r="B17" s="438"/>
       <c r="C17" s="426"/>
@@ -6192,35 +6241,35 @@
       <c r="E17" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="372" t="s">
-        <v>206</v>
+      <c r="F17" s="220" t="s">
+        <v>190</v>
       </c>
       <c r="G17" s="115" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="H17" s="114" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="I17" s="280" t="s">
-        <v>98</v>
-      </c>
-      <c r="J17" s="371" t="s">
-        <v>245</v>
-      </c>
-      <c r="K17" s="372" t="s">
-        <v>206</v>
+        <v>90</v>
+      </c>
+      <c r="J17" s="363" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" s="220" t="s">
+        <v>190</v>
       </c>
       <c r="L17" s="115" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="M17" s="114" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="N17" s="280" t="s">
-        <v>98</v>
-      </c>
-      <c r="O17" s="371" t="s">
-        <v>245</v>
+        <v>90</v>
+      </c>
+      <c r="O17" s="363" t="s">
+        <v>176</v>
       </c>
       <c r="P17" s="76"/>
       <c r="Q17" s="141"/>
@@ -6253,23 +6302,23 @@
       <c r="AP17" s="438"/>
       <c r="AQ17" s="426"/>
       <c r="AR17" s="426"/>
-      <c r="AS17" s="343" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT17" s="352" t="s">
-        <v>142</v>
+      <c r="AS17" s="340" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT17" s="349" t="s">
+        <v>238</v>
       </c>
       <c r="AU17" s="253" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AV17" s="254" t="s">
-        <v>136</v>
-      </c>
-      <c r="AW17" s="302" t="s">
-        <v>137</v>
+        <v>109</v>
+      </c>
+      <c r="AW17" s="300" t="s">
+        <v>110</v>
       </c>
       <c r="AX17" s="140"/>
-      <c r="AY17" s="352"/>
+      <c r="AY17" s="349"/>
       <c r="AZ17" s="244"/>
       <c r="BA17" s="76"/>
       <c r="BB17" s="240"/>
@@ -6369,20 +6418,20 @@
       <c r="AR18" s="428" t="s">
         <v>31</v>
       </c>
-      <c r="AS18" s="344" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT18" s="353"/>
+      <c r="AS18" s="341" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="350"/>
       <c r="AU18" s="243"/>
       <c r="AV18" s="255"/>
       <c r="AW18" s="283"/>
-      <c r="AX18" s="327"/>
-      <c r="AY18" s="353"/>
+      <c r="AX18" s="324"/>
+      <c r="AY18" s="350"/>
       <c r="AZ18" s="243"/>
       <c r="BA18" s="255"/>
       <c r="BB18" s="283"/>
-      <c r="BC18" s="327"/>
-      <c r="BD18" s="317"/>
+      <c r="BC18" s="324"/>
+      <c r="BD18" s="315"/>
       <c r="BE18" s="187"/>
       <c r="BF18" s="188"/>
       <c r="BG18" s="189"/>
@@ -6465,20 +6514,20 @@
       <c r="AP19" s="416"/>
       <c r="AQ19" s="418"/>
       <c r="AR19" s="418"/>
-      <c r="AS19" s="345" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT19" s="354"/>
+      <c r="AS19" s="342" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT19" s="351"/>
       <c r="AU19" s="256"/>
       <c r="AV19" s="257"/>
       <c r="AW19" s="240"/>
-      <c r="AX19" s="328"/>
-      <c r="AY19" s="354"/>
+      <c r="AX19" s="325"/>
+      <c r="AY19" s="351"/>
       <c r="AZ19" s="256"/>
       <c r="BA19" s="257"/>
       <c r="BB19" s="240"/>
-      <c r="BC19" s="328"/>
-      <c r="BD19" s="318"/>
+      <c r="BC19" s="325"/>
+      <c r="BD19" s="316"/>
       <c r="BE19" s="193"/>
       <c r="BF19" s="194"/>
       <c r="BG19" s="195"/>
@@ -6573,20 +6622,20 @@
       <c r="AR20" s="417" t="s">
         <v>33</v>
       </c>
-      <c r="AS20" s="346" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT20" s="355"/>
+      <c r="AS20" s="343" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="352"/>
       <c r="AU20" s="239"/>
       <c r="AV20" s="259"/>
       <c r="AW20" s="242"/>
-      <c r="AX20" s="327"/>
-      <c r="AY20" s="355"/>
+      <c r="AX20" s="324"/>
+      <c r="AY20" s="352"/>
       <c r="AZ20" s="239"/>
       <c r="BA20" s="259"/>
       <c r="BB20" s="242"/>
-      <c r="BC20" s="327"/>
-      <c r="BD20" s="319"/>
+      <c r="BC20" s="324"/>
+      <c r="BD20" s="317"/>
       <c r="BE20" s="160"/>
       <c r="BF20" s="197"/>
       <c r="BG20" s="162"/>
@@ -6669,20 +6718,20 @@
       <c r="AP21" s="416"/>
       <c r="AQ21" s="418"/>
       <c r="AR21" s="418"/>
-      <c r="AS21" s="345" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT21" s="354"/>
+      <c r="AS21" s="342" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT21" s="351"/>
       <c r="AU21" s="256"/>
       <c r="AV21" s="258"/>
       <c r="AW21" s="260"/>
-      <c r="AX21" s="328"/>
-      <c r="AY21" s="354"/>
+      <c r="AX21" s="325"/>
+      <c r="AY21" s="351"/>
       <c r="AZ21" s="256"/>
       <c r="BA21" s="258"/>
       <c r="BB21" s="260"/>
-      <c r="BC21" s="328"/>
-      <c r="BD21" s="320"/>
+      <c r="BC21" s="325"/>
+      <c r="BD21" s="318"/>
       <c r="BE21" s="191"/>
       <c r="BF21" s="194"/>
       <c r="BG21" s="198"/>
@@ -6765,7 +6814,7 @@
       <c r="AF22" s="284"/>
       <c r="AG22" s="289"/>
       <c r="AH22" s="283"/>
-      <c r="AI22" s="375"/>
+      <c r="AI22" s="365"/>
       <c r="AJ22" s="56"/>
       <c r="AK22" s="284"/>
       <c r="AL22" s="289"/>
@@ -6783,20 +6832,20 @@
       <c r="AR22" s="423" t="s">
         <v>27</v>
       </c>
-      <c r="AS22" s="338" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT22" s="350"/>
+      <c r="AS22" s="335" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="347"/>
       <c r="AU22" s="284"/>
       <c r="AV22" s="289"/>
       <c r="AW22" s="283"/>
-      <c r="AX22" s="324"/>
-      <c r="AY22" s="350"/>
+      <c r="AX22" s="321"/>
+      <c r="AY22" s="347"/>
       <c r="AZ22" s="284"/>
       <c r="BA22" s="289"/>
       <c r="BB22" s="283"/>
-      <c r="BC22" s="324"/>
-      <c r="BD22" s="321"/>
+      <c r="BC22" s="321"/>
+      <c r="BD22" s="319"/>
       <c r="BE22" s="169"/>
       <c r="BF22" s="179"/>
       <c r="BG22" s="168"/>
@@ -6871,7 +6920,7 @@
       <c r="AF23" s="286"/>
       <c r="AG23" s="287"/>
       <c r="AH23" s="282"/>
-      <c r="AI23" s="376"/>
+      <c r="AI23" s="366"/>
       <c r="AJ23" s="285"/>
       <c r="AK23" s="286"/>
       <c r="AL23" s="287"/>
@@ -6881,19 +6930,19 @@
       <c r="AP23" s="422"/>
       <c r="AQ23" s="424"/>
       <c r="AR23" s="424"/>
-      <c r="AS23" s="339" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT23" s="351"/>
+      <c r="AS23" s="336" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT23" s="348"/>
       <c r="AU23" s="286"/>
       <c r="AV23" s="287"/>
       <c r="AW23" s="282"/>
-      <c r="AX23" s="325"/>
-      <c r="AY23" s="351"/>
+      <c r="AX23" s="322"/>
+      <c r="AY23" s="348"/>
       <c r="AZ23" s="286"/>
       <c r="BA23" s="287"/>
       <c r="BB23" s="282"/>
-      <c r="BC23" s="325"/>
+      <c r="BC23" s="322"/>
       <c r="BD23" s="171"/>
       <c r="BE23" s="174"/>
       <c r="BF23" s="175"/>
@@ -6973,7 +7022,7 @@
       <c r="AF24" s="286"/>
       <c r="AG24" s="287"/>
       <c r="AH24" s="282"/>
-      <c r="AI24" s="376"/>
+      <c r="AI24" s="366"/>
       <c r="AJ24" s="285"/>
       <c r="AK24" s="286"/>
       <c r="AL24" s="287"/>
@@ -6989,19 +7038,19 @@
       <c r="AR24" s="441" t="s">
         <v>29</v>
       </c>
-      <c r="AS24" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT24" s="351"/>
+      <c r="AS24" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT24" s="348"/>
       <c r="AU24" s="286"/>
       <c r="AV24" s="287"/>
       <c r="AW24" s="282"/>
-      <c r="AX24" s="325"/>
-      <c r="AY24" s="351"/>
+      <c r="AX24" s="322"/>
+      <c r="AY24" s="348"/>
       <c r="AZ24" s="286"/>
       <c r="BA24" s="287"/>
       <c r="BB24" s="282"/>
-      <c r="BC24" s="325"/>
+      <c r="BC24" s="322"/>
       <c r="BD24" s="171"/>
       <c r="BE24" s="174"/>
       <c r="BF24" s="175"/>
@@ -7075,7 +7124,7 @@
       <c r="AF25" s="286"/>
       <c r="AG25" s="287"/>
       <c r="AH25" s="282"/>
-      <c r="AI25" s="376"/>
+      <c r="AI25" s="366"/>
       <c r="AJ25" s="285"/>
       <c r="AK25" s="286"/>
       <c r="AL25" s="287"/>
@@ -7085,19 +7134,19 @@
       <c r="AP25" s="422"/>
       <c r="AQ25" s="424"/>
       <c r="AR25" s="424"/>
-      <c r="AS25" s="340" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT25" s="351"/>
+      <c r="AS25" s="337" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT25" s="348"/>
       <c r="AU25" s="286"/>
       <c r="AV25" s="287"/>
       <c r="AW25" s="282"/>
-      <c r="AX25" s="325"/>
-      <c r="AY25" s="351"/>
+      <c r="AX25" s="322"/>
+      <c r="AY25" s="348"/>
       <c r="AZ25" s="286"/>
       <c r="BA25" s="287"/>
       <c r="BB25" s="282"/>
-      <c r="BC25" s="325"/>
+      <c r="BC25" s="322"/>
       <c r="BD25" s="171"/>
       <c r="BE25" s="174"/>
       <c r="BF25" s="175"/>
@@ -7110,7 +7159,7 @@
       <c r="BM25" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="BN25" s="173"/>
+      <c r="BN25" s="285"/>
       <c r="BO25" s="174"/>
       <c r="BP25" s="175"/>
       <c r="BQ25" s="170"/>
@@ -7141,16 +7190,16 @@
         <v>1</v>
       </c>
       <c r="F26" s="285" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="G26" s="286" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="H26" s="287" t="s">
-        <v>205</v>
-      </c>
-      <c r="I26" s="300" t="s">
-        <v>225</v>
+        <v>189</v>
+      </c>
+      <c r="I26" s="298" t="s">
+        <v>161</v>
       </c>
       <c r="J26" s="263"/>
       <c r="K26" s="60"/>
@@ -7185,7 +7234,7 @@
       <c r="AF26" s="286"/>
       <c r="AG26" s="287"/>
       <c r="AH26" s="282"/>
-      <c r="AI26" s="376"/>
+      <c r="AI26" s="366"/>
       <c r="AJ26" s="285"/>
       <c r="AK26" s="286"/>
       <c r="AL26" s="287"/>
@@ -7201,19 +7250,19 @@
       <c r="AR26" s="441" t="s">
         <v>58</v>
       </c>
-      <c r="AS26" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT26" s="351"/>
+      <c r="AS26" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT26" s="348"/>
       <c r="AU26" s="286"/>
       <c r="AV26" s="287"/>
       <c r="AW26" s="282"/>
-      <c r="AX26" s="325"/>
-      <c r="AY26" s="351"/>
+      <c r="AX26" s="322"/>
+      <c r="AY26" s="348"/>
       <c r="AZ26" s="286"/>
       <c r="BA26" s="287"/>
       <c r="BB26" s="282"/>
-      <c r="BC26" s="325"/>
+      <c r="BC26" s="322"/>
       <c r="BD26" s="171"/>
       <c r="BE26" s="174"/>
       <c r="BF26" s="175"/>
@@ -7232,18 +7281,18 @@
       <c r="BM26" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="BN26" s="235" t="s">
-        <v>182</v>
+      <c r="BN26" s="285" t="s">
+        <v>133</v>
       </c>
       <c r="BO26" s="236" t="s">
-        <v>79</v>
-      </c>
-      <c r="BP26" s="237"/>
+        <v>78</v>
+      </c>
+      <c r="BP26" s="382"/>
       <c r="BQ26" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="BR26" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="BS26" s="60"/>
       <c r="BT26" s="102"/>
@@ -7264,17 +7313,17 @@
       <c r="E27" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="285" t="s">
-        <v>203</v>
+      <c r="F27" s="220" t="s">
+        <v>193</v>
       </c>
       <c r="G27" s="286" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H27" s="287" t="s">
-        <v>205</v>
-      </c>
-      <c r="I27" s="300" t="s">
-        <v>225</v>
+        <v>189</v>
+      </c>
+      <c r="I27" s="298" t="s">
+        <v>161</v>
       </c>
       <c r="J27" s="263"/>
       <c r="K27" s="60"/>
@@ -7283,12 +7332,12 @@
       <c r="N27" s="101"/>
       <c r="O27" s="120"/>
       <c r="P27" s="60" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="Q27" s="102"/>
       <c r="R27" s="103"/>
       <c r="S27" s="101" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="T27" s="119"/>
       <c r="U27" s="420"/>
@@ -7317,19 +7366,19 @@
       <c r="AP27" s="422"/>
       <c r="AQ27" s="424"/>
       <c r="AR27" s="424"/>
-      <c r="AS27" s="340" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT27" s="351"/>
+      <c r="AS27" s="337" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT27" s="348"/>
       <c r="AU27" s="286"/>
       <c r="AV27" s="287"/>
       <c r="AW27" s="282"/>
-      <c r="AX27" s="325"/>
-      <c r="AY27" s="351"/>
+      <c r="AX27" s="322"/>
+      <c r="AY27" s="348"/>
       <c r="AZ27" s="286"/>
       <c r="BA27" s="287"/>
       <c r="BB27" s="282"/>
-      <c r="BC27" s="325"/>
+      <c r="BC27" s="322"/>
       <c r="BD27" s="171"/>
       <c r="BE27" s="174"/>
       <c r="BF27" s="175"/>
@@ -7342,7 +7391,7 @@
       <c r="BM27" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="BN27" s="235"/>
+      <c r="BN27" s="285"/>
       <c r="BO27" s="236"/>
       <c r="BP27" s="237"/>
       <c r="BQ27" s="170"/>
@@ -7425,33 +7474,33 @@
       <c r="AR28" s="441" t="s">
         <v>60</v>
       </c>
-      <c r="AS28" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT28" s="351"/>
+      <c r="AS28" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT28" s="348"/>
       <c r="AU28" s="286"/>
       <c r="AV28" s="287"/>
       <c r="AW28" s="282"/>
-      <c r="AX28" s="325"/>
-      <c r="AY28" s="351"/>
+      <c r="AX28" s="322"/>
+      <c r="AY28" s="348"/>
       <c r="AZ28" s="286"/>
       <c r="BA28" s="287"/>
       <c r="BB28" s="282"/>
-      <c r="BC28" s="325"/>
+      <c r="BC28" s="322"/>
       <c r="BD28" s="171" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="BE28" s="230" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BF28" s="232" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="BG28" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="BH28" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="BI28" s="420"/>
       <c r="BJ28" s="425">
@@ -7466,20 +7515,20 @@
       <c r="BM28" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="BN28" s="235" t="s">
-        <v>172</v>
+      <c r="BN28" s="285" t="s">
+        <v>123</v>
       </c>
       <c r="BO28" s="235" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BP28" s="237" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="BQ28" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="BR28" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="BS28" s="60"/>
       <c r="BT28" s="102"/>
@@ -7511,16 +7560,16 @@
       <c r="N29" s="101"/>
       <c r="O29" s="120"/>
       <c r="P29" s="60" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R29" s="103" t="s">
-        <v>95</v>
-      </c>
-      <c r="S29" s="300" t="s">
-        <v>112</v>
+        <v>88</v>
+      </c>
+      <c r="S29" s="298" t="s">
+        <v>97</v>
       </c>
       <c r="T29" s="125"/>
       <c r="U29" s="420"/>
@@ -7530,18 +7579,10 @@
       <c r="Y29" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="Z29" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA29" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB29" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC29" s="101" t="s">
-        <v>84</v>
-      </c>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="102"/>
+      <c r="AB29" s="103"/>
+      <c r="AC29" s="101"/>
       <c r="AD29" s="120"/>
       <c r="AE29" s="60"/>
       <c r="AF29" s="102"/>
@@ -7557,38 +7598,38 @@
       <c r="AP29" s="422"/>
       <c r="AQ29" s="424"/>
       <c r="AR29" s="424"/>
-      <c r="AS29" s="340" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT29" s="351" t="s">
-        <v>143</v>
+      <c r="AS29" s="337" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT29" s="348" t="s">
+        <v>241</v>
       </c>
       <c r="AU29" s="286" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AV29" s="287" t="s">
-        <v>144</v>
-      </c>
-      <c r="AW29" s="300" t="s">
-        <v>137</v>
-      </c>
-      <c r="AX29" s="329"/>
-      <c r="AY29" s="351"/>
+        <v>111</v>
+      </c>
+      <c r="AW29" s="298" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX29" s="326"/>
+      <c r="AY29" s="348"/>
       <c r="AZ29" s="286"/>
       <c r="BA29" s="287"/>
       <c r="BB29" s="282"/>
-      <c r="BC29" s="329"/>
+      <c r="BC29" s="326"/>
       <c r="BD29" s="171" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="BE29" s="231" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BF29" s="232" t="s">
-        <v>184</v>
-      </c>
-      <c r="BG29" s="170" t="s">
-        <v>169</v>
+        <v>135</v>
+      </c>
+      <c r="BG29" s="280" t="s">
+        <v>125</v>
       </c>
       <c r="BH29" s="209"/>
       <c r="BI29" s="420"/>
@@ -7598,7 +7639,7 @@
       <c r="BM29" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="BN29" s="235"/>
+      <c r="BN29" s="285"/>
       <c r="BO29" s="236"/>
       <c r="BP29" s="237"/>
       <c r="BQ29" s="170"/>
@@ -7639,16 +7680,16 @@
       <c r="N30" s="101"/>
       <c r="O30" s="120"/>
       <c r="P30" s="106" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R30" s="107" t="s">
-        <v>100</v>
-      </c>
-      <c r="S30" s="300" t="s">
-        <v>226</v>
+        <v>91</v>
+      </c>
+      <c r="S30" s="298" t="s">
+        <v>162</v>
       </c>
       <c r="T30" s="120"/>
       <c r="U30" s="420"/>
@@ -7664,18 +7705,10 @@
       <c r="Y30" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="Z30" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA30" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB30" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC30" s="101" t="s">
-        <v>85</v>
-      </c>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="102"/>
+      <c r="AB30" s="103"/>
+      <c r="AC30" s="101"/>
       <c r="AD30" s="120"/>
       <c r="AE30" s="60"/>
       <c r="AF30" s="102"/>
@@ -7697,33 +7730,33 @@
       <c r="AR30" s="441" t="s">
         <v>61</v>
       </c>
-      <c r="AS30" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT30" s="351"/>
+      <c r="AS30" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT30" s="348"/>
       <c r="AU30" s="286"/>
       <c r="AV30" s="287"/>
       <c r="AW30" s="282"/>
-      <c r="AX30" s="326"/>
-      <c r="AY30" s="351"/>
+      <c r="AX30" s="323"/>
+      <c r="AY30" s="348"/>
       <c r="AZ30" s="286"/>
       <c r="BA30" s="287"/>
       <c r="BB30" s="282"/>
-      <c r="BC30" s="326"/>
+      <c r="BC30" s="323"/>
       <c r="BD30" s="171" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="BE30" s="230" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BF30" s="232" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="BG30" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="BH30" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="BI30" s="420"/>
       <c r="BJ30" s="425">
@@ -7738,20 +7771,20 @@
       <c r="BM30" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="BN30" s="235" t="s">
-        <v>172</v>
+      <c r="BN30" s="285" t="s">
+        <v>123</v>
       </c>
       <c r="BO30" s="235" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BP30" s="237" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="BQ30" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="BR30" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="BS30" s="60"/>
       <c r="BT30" s="102"/>
@@ -7783,16 +7816,16 @@
       <c r="N31" s="101"/>
       <c r="O31" s="126"/>
       <c r="P31" s="106" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="Q31" s="102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R31" s="107" t="s">
-        <v>95</v>
-      </c>
-      <c r="S31" s="300" t="s">
-        <v>226</v>
+        <v>88</v>
+      </c>
+      <c r="S31" s="298" t="s">
+        <v>162</v>
       </c>
       <c r="T31" s="120"/>
       <c r="U31" s="420"/>
@@ -7802,21 +7835,13 @@
       <c r="Y31" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="Z31" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA31" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB31" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC31" s="47" t="s">
-        <v>84</v>
-      </c>
+      <c r="Z31" s="60"/>
+      <c r="AA31" s="102"/>
+      <c r="AB31" s="103"/>
+      <c r="AC31" s="47"/>
       <c r="AD31" s="126"/>
       <c r="AE31" s="60" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="AF31" s="102"/>
       <c r="AG31" s="103"/>
@@ -7831,46 +7856,46 @@
       <c r="AP31" s="422"/>
       <c r="AQ31" s="424"/>
       <c r="AR31" s="424"/>
-      <c r="AS31" s="340" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT31" s="351" t="s">
-        <v>143</v>
+      <c r="AS31" s="337" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT31" s="348" t="s">
+        <v>241</v>
       </c>
       <c r="AU31" s="286" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AV31" s="287" t="s">
-        <v>144</v>
-      </c>
-      <c r="AW31" s="300" t="s">
-        <v>137</v>
-      </c>
-      <c r="AX31" s="326"/>
-      <c r="AY31" s="351" t="s">
-        <v>143</v>
+        <v>111</v>
+      </c>
+      <c r="AW31" s="298" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX31" s="323"/>
+      <c r="AY31" s="348" t="s">
+        <v>241</v>
       </c>
       <c r="AZ31" s="286" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="BA31" s="287" t="s">
-        <v>145</v>
-      </c>
-      <c r="BB31" s="300" t="s">
-        <v>137</v>
-      </c>
-      <c r="BC31" s="326"/>
+        <v>112</v>
+      </c>
+      <c r="BB31" s="298" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC31" s="323"/>
       <c r="BD31" s="171" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="BE31" s="231" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BF31" s="232" t="s">
-        <v>184</v>
-      </c>
-      <c r="BG31" s="170" t="s">
-        <v>169</v>
+        <v>135</v>
+      </c>
+      <c r="BG31" s="280" t="s">
+        <v>125</v>
       </c>
       <c r="BH31" s="210"/>
       <c r="BI31" s="420"/>
@@ -7880,15 +7905,15 @@
       <c r="BM31" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="BN31" s="372" t="s">
-        <v>249</v>
+      <c r="BN31" s="285" t="s">
+        <v>178</v>
       </c>
       <c r="BO31" s="115" t="s">
-        <v>88</v>
-      </c>
-      <c r="BP31" s="175"/>
-      <c r="BQ31" s="300" t="s">
-        <v>224</v>
+        <v>83</v>
+      </c>
+      <c r="BP31" s="382"/>
+      <c r="BQ31" s="282" t="s">
+        <v>148</v>
       </c>
       <c r="BR31" s="120"/>
       <c r="BS31" s="60"/>
@@ -7927,16 +7952,16 @@
       <c r="N32" s="101"/>
       <c r="O32" s="120"/>
       <c r="P32" s="106" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="Q32" s="102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R32" s="107" t="s">
-        <v>100</v>
-      </c>
-      <c r="S32" s="300" t="s">
-        <v>226</v>
+        <v>91</v>
+      </c>
+      <c r="S32" s="298" t="s">
+        <v>162</v>
       </c>
       <c r="T32" s="120"/>
       <c r="U32" s="420"/>
@@ -7977,23 +8002,23 @@
       <c r="AR32" s="441" t="s">
         <v>62</v>
       </c>
-      <c r="AS32" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT32" s="351"/>
+      <c r="AS32" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT32" s="348"/>
       <c r="AU32" s="286"/>
       <c r="AV32" s="287"/>
       <c r="AW32" s="282"/>
-      <c r="AX32" s="326"/>
-      <c r="AY32" s="351"/>
+      <c r="AX32" s="323"/>
+      <c r="AY32" s="348"/>
       <c r="AZ32" s="286"/>
       <c r="BA32" s="287"/>
       <c r="BB32" s="282"/>
-      <c r="BC32" s="326"/>
+      <c r="BC32" s="323"/>
       <c r="BD32" s="171"/>
       <c r="BE32" s="173"/>
       <c r="BF32" s="175"/>
-      <c r="BG32" s="170"/>
+      <c r="BG32" s="280"/>
       <c r="BH32" s="210"/>
       <c r="BI32" s="420"/>
       <c r="BJ32" s="425">
@@ -8008,7 +8033,7 @@
       <c r="BM32" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="BN32" s="173"/>
+      <c r="BN32" s="285"/>
       <c r="BO32" s="174"/>
       <c r="BP32" s="175"/>
       <c r="BQ32" s="170"/>
@@ -8043,16 +8068,16 @@
       <c r="N33" s="101"/>
       <c r="O33" s="120"/>
       <c r="P33" s="106" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="Q33" s="102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R33" s="107" t="s">
-        <v>95</v>
-      </c>
-      <c r="S33" s="300" t="s">
-        <v>226</v>
+        <v>88</v>
+      </c>
+      <c r="S33" s="298" t="s">
+        <v>162</v>
       </c>
       <c r="T33" s="120"/>
       <c r="U33" s="420"/>
@@ -8081,27 +8106,27 @@
       <c r="AP33" s="422"/>
       <c r="AQ33" s="424"/>
       <c r="AR33" s="424"/>
-      <c r="AS33" s="341" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT33" s="351"/>
+      <c r="AS33" s="338" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT33" s="348"/>
       <c r="AU33" s="286"/>
       <c r="AV33" s="287"/>
       <c r="AW33" s="277"/>
-      <c r="AX33" s="326"/>
-      <c r="AY33" s="351" t="s">
-        <v>143</v>
+      <c r="AX33" s="323"/>
+      <c r="AY33" s="348" t="s">
+        <v>241</v>
       </c>
       <c r="AZ33" s="286" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="BA33" s="287" t="s">
-        <v>145</v>
-      </c>
-      <c r="BB33" s="300" t="s">
-        <v>137</v>
-      </c>
-      <c r="BC33" s="326"/>
+        <v>112</v>
+      </c>
+      <c r="BB33" s="298" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC33" s="323"/>
       <c r="BD33" s="171"/>
       <c r="BE33" s="173"/>
       <c r="BF33" s="175"/>
@@ -8114,7 +8139,7 @@
       <c r="BM33" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="BN33" s="173"/>
+      <c r="BN33" s="285"/>
       <c r="BO33" s="174"/>
       <c r="BP33" s="175"/>
       <c r="BQ33" s="223"/>
@@ -8197,20 +8222,20 @@
       <c r="AR34" s="426" t="s">
         <v>63</v>
       </c>
-      <c r="AS34" s="342" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT34" s="351"/>
+      <c r="AS34" s="339" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT34" s="348"/>
       <c r="AU34" s="286"/>
       <c r="AV34" s="287"/>
       <c r="AW34" s="282"/>
-      <c r="AX34" s="326"/>
-      <c r="AY34" s="351"/>
+      <c r="AX34" s="323"/>
+      <c r="AY34" s="348"/>
       <c r="AZ34" s="286"/>
       <c r="BA34" s="287"/>
       <c r="BB34" s="282"/>
-      <c r="BC34" s="326"/>
-      <c r="BD34" s="322"/>
+      <c r="BC34" s="323"/>
+      <c r="BD34" s="320"/>
       <c r="BE34" s="181"/>
       <c r="BF34" s="182"/>
       <c r="BG34" s="180"/>
@@ -8228,7 +8253,7 @@
       <c r="BM34" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="BN34" s="173"/>
+      <c r="BN34" s="285"/>
       <c r="BO34" s="174"/>
       <c r="BP34" s="175"/>
       <c r="BQ34" s="170"/>
@@ -8293,15 +8318,15 @@
       <c r="AP35" s="438"/>
       <c r="AQ35" s="426"/>
       <c r="AR35" s="426"/>
-      <c r="AS35" s="343" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT35" s="351"/>
+      <c r="AS35" s="340" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT35" s="348"/>
       <c r="AU35" s="286"/>
       <c r="AV35" s="254"/>
       <c r="AW35" s="224"/>
       <c r="AX35" s="140"/>
-      <c r="AY35" s="352"/>
+      <c r="AY35" s="349"/>
       <c r="AZ35" s="253"/>
       <c r="BA35" s="254"/>
       <c r="BB35" s="224"/>
@@ -8334,7 +8359,7 @@
       <c r="CA35" s="77"/>
       <c r="CB35" s="123"/>
     </row>
-    <row r="36" spans="1:80" s="31" customFormat="1" ht="33" customHeight="1">
+    <row r="36" spans="1:80" s="31" customFormat="1" ht="39" customHeight="1">
       <c r="A36" s="420"/>
       <c r="B36" s="427">
         <v>7</v>
@@ -8377,19 +8402,19 @@
         <v>1</v>
       </c>
       <c r="Z36" s="48" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AA36" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB36" s="78" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="AC36" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AD36" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="AE36" s="48"/>
       <c r="AF36" s="48"/>
@@ -8411,33 +8436,33 @@
       <c r="AR36" s="428" t="s">
         <v>31</v>
       </c>
-      <c r="AS36" s="344" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT36" s="353"/>
+      <c r="AS36" s="341" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT36" s="350"/>
       <c r="AU36" s="243"/>
       <c r="AV36" s="219"/>
       <c r="AW36" s="242"/>
-      <c r="AX36" s="330"/>
-      <c r="AY36" s="355"/>
+      <c r="AX36" s="327"/>
+      <c r="AY36" s="352"/>
       <c r="AZ36" s="238"/>
       <c r="BA36" s="219"/>
       <c r="BB36" s="242"/>
-      <c r="BC36" s="330"/>
-      <c r="BD36" s="364" t="s">
-        <v>196</v>
-      </c>
-      <c r="BE36" s="365" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF36" s="366" t="s">
-        <v>104</v>
+      <c r="BC36" s="327"/>
+      <c r="BD36" s="357" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE36" s="358" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF36" s="359" t="s">
+        <v>93</v>
       </c>
       <c r="BG36" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="BH36" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="BI36" s="420"/>
       <c r="BJ36" s="427">
@@ -8452,18 +8477,18 @@
       <c r="BM36" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="BN36" s="382" t="s">
-        <v>248</v>
-      </c>
-      <c r="BO36" s="385" t="s">
-        <v>79</v>
+      <c r="BN36" s="243" t="s">
+        <v>177</v>
+      </c>
+      <c r="BO36" s="243" t="s">
+        <v>78</v>
       </c>
       <c r="BP36" s="386"/>
       <c r="BQ36" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="BR36" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="BS36" s="36"/>
       <c r="BT36" s="36"/>
@@ -8476,7 +8501,7 @@
       <c r="CA36" s="81"/>
       <c r="CB36" s="127"/>
     </row>
-    <row r="37" spans="1:80" s="31" customFormat="1" ht="33" customHeight="1" thickBot="1">
+    <row r="37" spans="1:80" s="31" customFormat="1" ht="39" customHeight="1" thickBot="1">
       <c r="A37" s="420"/>
       <c r="B37" s="416"/>
       <c r="C37" s="418"/>
@@ -8507,16 +8532,16 @@
         <v>2</v>
       </c>
       <c r="Z37" s="83" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="AA37" s="83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB37" s="84" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC37" s="302" t="s">
-        <v>233</v>
+        <v>93</v>
+      </c>
+      <c r="AC37" s="372" t="s">
+        <v>181</v>
       </c>
       <c r="AD37" s="128"/>
       <c r="AE37" s="83"/>
@@ -8533,30 +8558,30 @@
       <c r="AP37" s="416"/>
       <c r="AQ37" s="418"/>
       <c r="AR37" s="418"/>
-      <c r="AS37" s="345" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT37" s="354"/>
+      <c r="AS37" s="342" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT37" s="351"/>
       <c r="AU37" s="256"/>
       <c r="AV37" s="257"/>
       <c r="AW37" s="240"/>
-      <c r="AX37" s="331"/>
-      <c r="AY37" s="354"/>
+      <c r="AX37" s="328"/>
+      <c r="AY37" s="351"/>
       <c r="AZ37" s="256"/>
       <c r="BA37" s="257"/>
       <c r="BB37" s="240"/>
-      <c r="BC37" s="331"/>
-      <c r="BD37" s="367" t="s">
-        <v>197</v>
-      </c>
-      <c r="BE37" s="368" t="s">
-        <v>77</v>
-      </c>
-      <c r="BF37" s="369" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG37" s="302" t="s">
-        <v>233</v>
+      <c r="BC37" s="328"/>
+      <c r="BD37" s="360" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE37" s="361" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF37" s="362" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG37" s="372" t="s">
+        <v>181</v>
       </c>
       <c r="BH37" s="212"/>
       <c r="BI37" s="420"/>
@@ -8566,15 +8591,15 @@
       <c r="BM37" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="BN37" s="391" t="s">
-        <v>249</v>
-      </c>
-      <c r="BO37" s="387" t="s">
-        <v>77</v>
-      </c>
-      <c r="BP37" s="388"/>
-      <c r="BQ37" s="392" t="s">
-        <v>224</v>
+      <c r="BN37" s="256" t="s">
+        <v>178</v>
+      </c>
+      <c r="BO37" s="256" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP37" s="387"/>
+      <c r="BQ37" s="372" t="s">
+        <v>148</v>
       </c>
       <c r="BR37" s="128"/>
       <c r="BS37" s="83"/>
@@ -8588,7 +8613,7 @@
       <c r="CA37" s="88"/>
       <c r="CB37" s="128"/>
     </row>
-    <row r="38" spans="1:80" s="23" customFormat="1" ht="33" customHeight="1">
+    <row r="38" spans="1:80" s="23" customFormat="1" ht="39" customHeight="1">
       <c r="A38" s="420"/>
       <c r="B38" s="415">
         <v>8</v>
@@ -8631,19 +8656,19 @@
         <v>1</v>
       </c>
       <c r="Z38" s="36" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AA38" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB38" s="90" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="AC38" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AD38" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="AE38" s="36"/>
       <c r="AF38" s="37"/>
@@ -8665,33 +8690,33 @@
       <c r="AR38" s="417" t="s">
         <v>33</v>
       </c>
-      <c r="AS38" s="346" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT38" s="355"/>
+      <c r="AS38" s="343" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT38" s="352"/>
       <c r="AU38" s="239"/>
       <c r="AV38" s="259"/>
       <c r="AW38" s="242"/>
-      <c r="AX38" s="327"/>
-      <c r="AY38" s="355"/>
+      <c r="AX38" s="324"/>
+      <c r="AY38" s="352"/>
       <c r="AZ38" s="239"/>
       <c r="BA38" s="259"/>
       <c r="BB38" s="242"/>
-      <c r="BC38" s="327"/>
-      <c r="BD38" s="364" t="s">
-        <v>196</v>
-      </c>
-      <c r="BE38" s="365" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF38" s="366" t="s">
-        <v>104</v>
+      <c r="BC38" s="324"/>
+      <c r="BD38" s="357" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE38" s="358" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF38" s="359" t="s">
+        <v>93</v>
       </c>
       <c r="BG38" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="BH38" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="BI38" s="420"/>
       <c r="BJ38" s="415">
@@ -8706,18 +8731,18 @@
       <c r="BM38" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="BN38" s="383" t="s">
-        <v>248</v>
-      </c>
-      <c r="BO38" s="389" t="s">
-        <v>79</v>
-      </c>
-      <c r="BP38" s="369"/>
+      <c r="BN38" s="238" t="s">
+        <v>177</v>
+      </c>
+      <c r="BO38" s="239" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP38" s="388"/>
       <c r="BQ38" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="BR38" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="BS38" s="36"/>
       <c r="BT38" s="37"/>
@@ -8730,7 +8755,7 @@
       <c r="CA38" s="44"/>
       <c r="CB38" s="122"/>
     </row>
-    <row r="39" spans="1:80" s="23" customFormat="1" ht="33" customHeight="1" thickBot="1">
+    <row r="39" spans="1:80" s="23" customFormat="1" ht="39" customHeight="1" thickBot="1">
       <c r="A39" s="420"/>
       <c r="B39" s="416"/>
       <c r="C39" s="418"/>
@@ -8761,16 +8786,16 @@
         <v>2</v>
       </c>
       <c r="Z39" s="83" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="AA39" s="83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB39" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC39" s="302" t="s">
-        <v>233</v>
+        <v>93</v>
+      </c>
+      <c r="AC39" s="372" t="s">
+        <v>181</v>
       </c>
       <c r="AD39" s="123"/>
       <c r="AE39" s="83"/>
@@ -8787,30 +8812,30 @@
       <c r="AP39" s="416"/>
       <c r="AQ39" s="418"/>
       <c r="AR39" s="418"/>
-      <c r="AS39" s="345" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT39" s="354"/>
+      <c r="AS39" s="342" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT39" s="351"/>
       <c r="AU39" s="256"/>
       <c r="AV39" s="258"/>
       <c r="AW39" s="260"/>
-      <c r="AX39" s="328"/>
-      <c r="AY39" s="354"/>
+      <c r="AX39" s="325"/>
+      <c r="AY39" s="351"/>
       <c r="AZ39" s="256"/>
       <c r="BA39" s="258"/>
       <c r="BB39" s="260"/>
-      <c r="BC39" s="328"/>
-      <c r="BD39" s="364" t="s">
-        <v>197</v>
-      </c>
-      <c r="BE39" s="368" t="s">
-        <v>77</v>
-      </c>
-      <c r="BF39" s="369" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG39" s="302" t="s">
-        <v>233</v>
+      <c r="BC39" s="325"/>
+      <c r="BD39" s="357" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE39" s="361" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF39" s="362" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG39" s="372" t="s">
+        <v>181</v>
       </c>
       <c r="BH39" s="207"/>
       <c r="BI39" s="420"/>
@@ -8820,15 +8845,15 @@
       <c r="BM39" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="BN39" s="391" t="s">
-        <v>249</v>
-      </c>
-      <c r="BO39" s="387" t="s">
-        <v>77</v>
-      </c>
-      <c r="BP39" s="390"/>
-      <c r="BQ39" s="392" t="s">
-        <v>224</v>
+      <c r="BN39" s="256" t="s">
+        <v>178</v>
+      </c>
+      <c r="BO39" s="256" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP39" s="389"/>
+      <c r="BQ39" s="372" t="s">
+        <v>148</v>
       </c>
       <c r="BR39" s="123"/>
       <c r="BS39" s="83"/>
@@ -8889,16 +8914,16 @@
         <v>1</v>
       </c>
       <c r="Z40" s="104" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AA40" s="100" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB40" s="105" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AC40" s="54" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AD40" s="124"/>
       <c r="AE40" s="104"/>
@@ -8923,20 +8948,20 @@
       <c r="AR40" s="423" t="s">
         <v>27</v>
       </c>
-      <c r="AS40" s="338" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT40" s="350"/>
+      <c r="AS40" s="335" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT40" s="347"/>
       <c r="AU40" s="284"/>
       <c r="AV40" s="289"/>
       <c r="AW40" s="283"/>
-      <c r="AX40" s="324"/>
-      <c r="AY40" s="350"/>
+      <c r="AX40" s="321"/>
+      <c r="AY40" s="347"/>
       <c r="AZ40" s="284"/>
       <c r="BA40" s="289"/>
       <c r="BB40" s="283"/>
-      <c r="BC40" s="324"/>
-      <c r="BD40" s="321"/>
+      <c r="BC40" s="321"/>
+      <c r="BD40" s="319"/>
       <c r="BE40" s="169"/>
       <c r="BF40" s="179"/>
       <c r="BG40" s="168"/>
@@ -8985,7 +9010,7 @@
       <c r="H41" s="287"/>
       <c r="I41" s="282"/>
       <c r="J41" s="262"/>
-      <c r="K41" s="373"/>
+      <c r="K41" s="364"/>
       <c r="L41" s="286"/>
       <c r="M41" s="287"/>
       <c r="N41" s="291"/>
@@ -9007,33 +9032,33 @@
       <c r="AB41" s="103"/>
       <c r="AC41" s="101"/>
       <c r="AD41" s="119"/>
-      <c r="AE41" s="60"/>
-      <c r="AF41" s="102"/>
-      <c r="AG41" s="103"/>
-      <c r="AH41" s="101"/>
-      <c r="AI41" s="120"/>
-      <c r="AJ41" s="60"/>
-      <c r="AK41" s="102"/>
-      <c r="AL41" s="103"/>
-      <c r="AM41" s="146"/>
+      <c r="AE41" s="373"/>
+      <c r="AF41" s="374"/>
+      <c r="AG41" s="375"/>
+      <c r="AH41" s="376"/>
+      <c r="AI41" s="377"/>
+      <c r="AJ41" s="373"/>
+      <c r="AK41" s="374"/>
+      <c r="AL41" s="375"/>
+      <c r="AM41" s="378"/>
       <c r="AN41" s="120"/>
       <c r="AO41" s="440"/>
       <c r="AP41" s="422"/>
       <c r="AQ41" s="424"/>
       <c r="AR41" s="424"/>
-      <c r="AS41" s="339" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT41" s="351"/>
+      <c r="AS41" s="336" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT41" s="348"/>
       <c r="AU41" s="286"/>
       <c r="AV41" s="287"/>
       <c r="AW41" s="282"/>
-      <c r="AX41" s="325"/>
-      <c r="AY41" s="351"/>
+      <c r="AX41" s="322"/>
+      <c r="AY41" s="348"/>
       <c r="AZ41" s="286"/>
       <c r="BA41" s="287"/>
       <c r="BB41" s="282"/>
-      <c r="BC41" s="325"/>
+      <c r="BC41" s="322"/>
       <c r="BD41" s="171"/>
       <c r="BE41" s="174"/>
       <c r="BF41" s="175"/>
@@ -9076,22 +9101,22 @@
       <c r="E42" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F42" s="285"/>
+      <c r="F42" s="220"/>
       <c r="G42" s="286"/>
       <c r="H42" s="287"/>
       <c r="I42" s="282"/>
       <c r="J42" s="262"/>
-      <c r="K42" s="374" t="s">
-        <v>215</v>
+      <c r="K42" s="390" t="s">
+        <v>200</v>
       </c>
       <c r="L42" s="157" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M42" s="290" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="N42" s="242" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="O42" s="119"/>
       <c r="P42" s="60"/>
@@ -9117,15 +9142,31 @@
       <c r="AB42" s="103"/>
       <c r="AC42" s="101"/>
       <c r="AD42" s="120"/>
-      <c r="AE42" s="60"/>
-      <c r="AF42" s="102"/>
-      <c r="AG42" s="103"/>
-      <c r="AH42" s="282"/>
-      <c r="AI42" s="120"/>
-      <c r="AJ42" s="60"/>
-      <c r="AK42" s="102"/>
-      <c r="AL42" s="103"/>
-      <c r="AM42" s="101"/>
+      <c r="AE42" s="381" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF42" s="115" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG42" s="114" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH42" s="279" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI42" s="379"/>
+      <c r="AJ42" s="381" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK42" s="115" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL42" s="114" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM42" s="279" t="s">
+        <v>99</v>
+      </c>
       <c r="AN42" s="120"/>
       <c r="AO42" s="440"/>
       <c r="AP42" s="425">
@@ -9137,30 +9178,30 @@
       <c r="AR42" s="441" t="s">
         <v>29</v>
       </c>
-      <c r="AS42" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT42" s="351"/>
+      <c r="AS42" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT42" s="348"/>
       <c r="AU42" s="286"/>
       <c r="AV42" s="287"/>
       <c r="AW42" s="282"/>
-      <c r="AX42" s="325"/>
-      <c r="AY42" s="351"/>
+      <c r="AX42" s="322"/>
+      <c r="AY42" s="348"/>
       <c r="AZ42" s="286"/>
       <c r="BA42" s="287"/>
       <c r="BB42" s="282"/>
-      <c r="BC42" s="325"/>
-      <c r="BD42" s="171" t="s">
-        <v>89</v>
+      <c r="BC42" s="322"/>
+      <c r="BD42" s="385" t="s">
+        <v>249</v>
       </c>
       <c r="BE42" s="231" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="BF42" s="232" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="BG42" s="229" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="BH42" s="203"/>
       <c r="BI42" s="440"/>
@@ -9200,12 +9241,12 @@
       <c r="E43" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F43" s="285"/>
+      <c r="F43" s="220"/>
       <c r="G43" s="286"/>
       <c r="H43" s="287"/>
       <c r="I43" s="282"/>
       <c r="J43" s="262"/>
-      <c r="K43" s="285"/>
+      <c r="K43" s="220"/>
       <c r="L43" s="286"/>
       <c r="M43" s="287"/>
       <c r="N43" s="282"/>
@@ -9227,33 +9268,49 @@
       <c r="AB43" s="103"/>
       <c r="AC43" s="101"/>
       <c r="AD43" s="120"/>
-      <c r="AE43" s="60"/>
-      <c r="AF43" s="102"/>
-      <c r="AG43" s="103"/>
-      <c r="AH43" s="282"/>
-      <c r="AI43" s="120"/>
-      <c r="AJ43" s="285"/>
-      <c r="AK43" s="286"/>
-      <c r="AL43" s="287"/>
-      <c r="AM43" s="282"/>
+      <c r="AE43" s="220" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF43" s="115" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG43" s="114" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH43" s="279" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI43" s="262"/>
+      <c r="AJ43" s="220" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK43" s="115" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL43" s="114" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM43" s="279" t="s">
+        <v>99</v>
+      </c>
       <c r="AN43" s="120"/>
       <c r="AO43" s="440"/>
       <c r="AP43" s="422"/>
       <c r="AQ43" s="424"/>
       <c r="AR43" s="424"/>
-      <c r="AS43" s="340" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT43" s="351"/>
+      <c r="AS43" s="337" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT43" s="348"/>
       <c r="AU43" s="286"/>
       <c r="AV43" s="287"/>
       <c r="AW43" s="282"/>
-      <c r="AX43" s="325"/>
-      <c r="AY43" s="351"/>
+      <c r="AX43" s="322"/>
+      <c r="AY43" s="348"/>
       <c r="AZ43" s="286"/>
       <c r="BA43" s="287"/>
       <c r="BB43" s="282"/>
-      <c r="BC43" s="325"/>
+      <c r="BC43" s="322"/>
       <c r="BD43" s="171"/>
       <c r="BE43" s="174"/>
       <c r="BF43" s="175"/>
@@ -9266,20 +9323,20 @@
       <c r="BM43" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="BN43" s="235" t="s">
-        <v>195</v>
+      <c r="BN43" s="285" t="s">
+        <v>248</v>
       </c>
       <c r="BO43" s="236" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BP43" s="237" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="BQ43" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="BR43" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="BS43" s="60"/>
       <c r="BT43" s="102"/>
@@ -9306,30 +9363,30 @@
       <c r="E44" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F44" s="285" t="s">
-        <v>208</v>
+      <c r="F44" s="220" t="s">
+        <v>194</v>
       </c>
       <c r="G44" s="286" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="H44" s="287" t="s">
-        <v>209</v>
-      </c>
-      <c r="I44" s="300" t="s">
-        <v>230</v>
+        <v>152</v>
+      </c>
+      <c r="I44" s="298" t="s">
+        <v>166</v>
       </c>
       <c r="J44" s="262"/>
-      <c r="K44" s="285" t="s">
-        <v>208</v>
+      <c r="K44" s="220" t="s">
+        <v>194</v>
       </c>
       <c r="L44" s="286" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="M44" s="287" t="s">
-        <v>211</v>
-      </c>
-      <c r="N44" s="300" t="s">
-        <v>230</v>
+        <v>153</v>
+      </c>
+      <c r="N44" s="298" t="s">
+        <v>166</v>
       </c>
       <c r="O44" s="119"/>
       <c r="P44" s="60"/>
@@ -9356,16 +9413,16 @@
       <c r="AC44" s="101"/>
       <c r="AD44" s="120"/>
       <c r="AE44" s="60" t="s">
-        <v>159</v>
+        <v>227</v>
       </c>
       <c r="AF44" s="102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG44" s="103" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH44" s="300" t="s">
-        <v>115</v>
+        <v>103</v>
+      </c>
+      <c r="AH44" s="298" t="s">
+        <v>99</v>
       </c>
       <c r="AI44" s="120"/>
       <c r="AJ44" s="233"/>
@@ -9383,19 +9440,19 @@
       <c r="AR44" s="441" t="s">
         <v>58</v>
       </c>
-      <c r="AS44" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT44" s="351"/>
+      <c r="AS44" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT44" s="348"/>
       <c r="AU44" s="286"/>
       <c r="AV44" s="287"/>
       <c r="AW44" s="282"/>
-      <c r="AX44" s="325"/>
-      <c r="AY44" s="351"/>
+      <c r="AX44" s="322"/>
+      <c r="AY44" s="348"/>
       <c r="AZ44" s="286"/>
       <c r="BA44" s="287"/>
       <c r="BB44" s="282"/>
-      <c r="BC44" s="325"/>
+      <c r="BC44" s="322"/>
       <c r="BD44" s="171"/>
       <c r="BE44" s="174"/>
       <c r="BF44" s="175"/>
@@ -9415,16 +9472,16 @@
         <v>1</v>
       </c>
       <c r="BN44" s="235" t="s">
-        <v>126</v>
+        <v>224</v>
       </c>
       <c r="BO44" s="236" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BP44" s="237" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="BQ44" s="234" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="BR44" s="119"/>
       <c r="BS44" s="60"/>
@@ -9446,30 +9503,30 @@
       <c r="E45" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F45" s="285" t="s">
-        <v>210</v>
+      <c r="F45" s="220" t="s">
+        <v>195</v>
       </c>
       <c r="G45" s="286" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H45" s="287" t="s">
-        <v>211</v>
-      </c>
-      <c r="I45" s="300" t="s">
-        <v>230</v>
+        <v>153</v>
+      </c>
+      <c r="I45" s="298" t="s">
+        <v>166</v>
       </c>
       <c r="J45" s="262"/>
-      <c r="K45" s="285" t="s">
-        <v>210</v>
+      <c r="K45" s="220" t="s">
+        <v>195</v>
       </c>
       <c r="L45" s="286" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M45" s="287" t="s">
-        <v>214</v>
-      </c>
-      <c r="N45" s="300" t="s">
-        <v>230</v>
+        <v>155</v>
+      </c>
+      <c r="N45" s="298" t="s">
+        <v>166</v>
       </c>
       <c r="O45" s="119"/>
       <c r="P45" s="60"/>
@@ -9485,27 +9542,27 @@
         <v>2</v>
       </c>
       <c r="Z45" s="60" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="AA45" s="102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB45" s="103"/>
       <c r="AC45" s="101" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="AD45" s="120"/>
       <c r="AE45" s="60" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="AF45" s="102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG45" s="103" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH45" s="300" t="s">
-        <v>115</v>
+        <v>103</v>
+      </c>
+      <c r="AH45" s="298" t="s">
+        <v>99</v>
       </c>
       <c r="AI45" s="120"/>
       <c r="AJ45" s="285"/>
@@ -9517,19 +9574,19 @@
       <c r="AP45" s="422"/>
       <c r="AQ45" s="424"/>
       <c r="AR45" s="424"/>
-      <c r="AS45" s="340" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT45" s="351"/>
+      <c r="AS45" s="337" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT45" s="348"/>
       <c r="AU45" s="286"/>
       <c r="AV45" s="287"/>
       <c r="AW45" s="282"/>
-      <c r="AX45" s="325"/>
-      <c r="AY45" s="351"/>
+      <c r="AX45" s="322"/>
+      <c r="AY45" s="348"/>
       <c r="AZ45" s="286"/>
       <c r="BA45" s="287"/>
       <c r="BB45" s="282"/>
-      <c r="BC45" s="325"/>
+      <c r="BC45" s="322"/>
       <c r="BD45" s="171"/>
       <c r="BE45" s="174"/>
       <c r="BF45" s="175"/>
@@ -9572,22 +9629,22 @@
       <c r="E46" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="248"/>
+      <c r="F46" s="220"/>
       <c r="G46" s="249"/>
       <c r="H46" s="250"/>
       <c r="I46" s="247"/>
       <c r="J46" s="263"/>
-      <c r="K46" s="285" t="s">
-        <v>215</v>
+      <c r="K46" s="220" t="s">
+        <v>200</v>
       </c>
       <c r="L46" s="286" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M46" s="290" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="N46" s="282" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="O46" s="120"/>
       <c r="P46" s="106"/>
@@ -9614,16 +9671,16 @@
       <c r="AC46" s="101"/>
       <c r="AD46" s="120"/>
       <c r="AE46" s="60" t="s">
-        <v>160</v>
+        <v>229</v>
       </c>
       <c r="AF46" s="102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG46" s="103" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH46" s="300" t="s">
-        <v>115</v>
+        <v>103</v>
+      </c>
+      <c r="AH46" s="298" t="s">
+        <v>99</v>
       </c>
       <c r="AI46" s="120"/>
       <c r="AJ46" s="60"/>
@@ -9641,19 +9698,19 @@
       <c r="AR46" s="441" t="s">
         <v>60</v>
       </c>
-      <c r="AS46" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT46" s="351"/>
+      <c r="AS46" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT46" s="348"/>
       <c r="AU46" s="286"/>
       <c r="AV46" s="287"/>
       <c r="AW46" s="282"/>
-      <c r="AX46" s="325"/>
-      <c r="AY46" s="351"/>
+      <c r="AX46" s="322"/>
+      <c r="AY46" s="348"/>
       <c r="AZ46" s="286"/>
       <c r="BA46" s="287"/>
       <c r="BB46" s="282"/>
-      <c r="BC46" s="325"/>
+      <c r="BC46" s="322"/>
       <c r="BD46" s="171"/>
       <c r="BE46" s="173"/>
       <c r="BF46" s="175"/>
@@ -9696,24 +9753,24 @@
       <c r="E47" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F47" s="248" t="s">
-        <v>120</v>
+      <c r="F47" s="220" t="s">
+        <v>102</v>
       </c>
       <c r="G47" s="249"/>
       <c r="H47" s="250"/>
       <c r="I47" s="247"/>
       <c r="J47" s="262"/>
-      <c r="K47" s="285" t="s">
-        <v>215</v>
+      <c r="K47" s="220" t="s">
+        <v>201</v>
       </c>
       <c r="L47" s="286" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M47" s="290" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="N47" s="282" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="O47" s="119"/>
       <c r="P47" s="106"/>
@@ -9729,29 +9786,29 @@
         <v>2</v>
       </c>
       <c r="Z47" s="60" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="AA47" s="102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB47" s="103" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AC47" s="101" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD47" s="120"/>
       <c r="AE47" s="60" t="s">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="AF47" s="102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG47" s="103" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH47" s="300" t="s">
-        <v>115</v>
+        <v>103</v>
+      </c>
+      <c r="AH47" s="298" t="s">
+        <v>99</v>
       </c>
       <c r="AI47" s="120"/>
       <c r="AJ47" s="60"/>
@@ -9763,19 +9820,19 @@
       <c r="AP47" s="422"/>
       <c r="AQ47" s="424"/>
       <c r="AR47" s="424"/>
-      <c r="AS47" s="340" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT47" s="351"/>
+      <c r="AS47" s="337" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT47" s="348"/>
       <c r="AU47" s="286"/>
       <c r="AV47" s="287"/>
       <c r="AW47" s="282"/>
-      <c r="AX47" s="325"/>
-      <c r="AY47" s="351"/>
+      <c r="AX47" s="322"/>
+      <c r="AY47" s="348"/>
       <c r="AZ47" s="286"/>
       <c r="BA47" s="287"/>
       <c r="BB47" s="282"/>
-      <c r="BC47" s="325"/>
+      <c r="BC47" s="322"/>
       <c r="BD47" s="171"/>
       <c r="BE47" s="174"/>
       <c r="BF47" s="175"/>
@@ -9823,30 +9880,30 @@
       <c r="H48" s="250"/>
       <c r="I48" s="247"/>
       <c r="J48" s="262"/>
-      <c r="K48" s="285" t="s">
-        <v>218</v>
+      <c r="K48" s="220" t="s">
+        <v>202</v>
       </c>
       <c r="L48" s="286" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M48" s="287" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="N48" s="282" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="O48" s="120"/>
       <c r="P48" s="106" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q48" s="103" t="s">
-        <v>79</v>
+        <v>207</v>
+      </c>
+      <c r="Q48" s="286" t="s">
+        <v>78</v>
       </c>
       <c r="R48" s="103" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="S48" s="101" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="T48" s="120"/>
       <c r="U48" s="440"/>
@@ -9863,32 +9920,34 @@
         <v>1</v>
       </c>
       <c r="Z48" s="60" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="AA48" s="102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB48" s="103" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AC48" s="101" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD48" s="119"/>
       <c r="AE48" s="60" t="s">
-        <v>126</v>
+        <v>224</v>
       </c>
       <c r="AF48" s="102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG48" s="103" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="AH48" s="279" t="s">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="AI48" s="120"/>
-      <c r="AJ48" s="60"/>
+      <c r="AJ48" s="60" t="s">
+        <v>254</v>
+      </c>
       <c r="AK48" s="60"/>
       <c r="AL48" s="103"/>
       <c r="AM48" s="101"/>
@@ -9903,19 +9962,19 @@
       <c r="AR48" s="441" t="s">
         <v>61</v>
       </c>
-      <c r="AS48" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT48" s="351"/>
+      <c r="AS48" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT48" s="348"/>
       <c r="AU48" s="286"/>
       <c r="AV48" s="287"/>
       <c r="AW48" s="278"/>
-      <c r="AX48" s="326"/>
-      <c r="AY48" s="351"/>
+      <c r="AX48" s="323"/>
+      <c r="AY48" s="348"/>
       <c r="AZ48" s="286"/>
       <c r="BA48" s="287"/>
       <c r="BB48" s="282"/>
-      <c r="BC48" s="326"/>
+      <c r="BC48" s="323"/>
       <c r="BD48" s="171"/>
       <c r="BE48" s="173"/>
       <c r="BF48" s="175"/>
@@ -9963,21 +10022,21 @@
       <c r="H49" s="250"/>
       <c r="I49" s="242"/>
       <c r="J49" s="265"/>
-      <c r="K49" s="285" t="s">
-        <v>218</v>
+      <c r="K49" s="220" t="s">
+        <v>203</v>
       </c>
       <c r="L49" s="286" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M49" s="287" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="N49" s="282" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="O49" s="120"/>
       <c r="P49" s="106"/>
-      <c r="Q49" s="103"/>
+      <c r="Q49" s="286"/>
       <c r="R49" s="103"/>
       <c r="S49" s="101"/>
       <c r="T49" s="120"/>
@@ -9989,16 +10048,16 @@
         <v>2</v>
       </c>
       <c r="Z49" s="60" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="AA49" s="102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB49" s="103" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AC49" s="47" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD49" s="122"/>
       <c r="AE49" s="60"/>
@@ -10015,19 +10074,19 @@
       <c r="AP49" s="422"/>
       <c r="AQ49" s="424"/>
       <c r="AR49" s="424"/>
-      <c r="AS49" s="340" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT49" s="351"/>
+      <c r="AS49" s="337" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT49" s="348"/>
       <c r="AU49" s="286"/>
       <c r="AV49" s="287"/>
       <c r="AW49" s="278"/>
-      <c r="AX49" s="326"/>
-      <c r="AY49" s="351"/>
+      <c r="AX49" s="323"/>
+      <c r="AY49" s="348"/>
       <c r="AZ49" s="286"/>
       <c r="BA49" s="287"/>
       <c r="BB49" s="282"/>
-      <c r="BC49" s="326"/>
+      <c r="BC49" s="323"/>
       <c r="BD49" s="171"/>
       <c r="BE49" s="173"/>
       <c r="BF49" s="175"/>
@@ -10056,7 +10115,7 @@
       <c r="CA49" s="101"/>
       <c r="CB49" s="122"/>
     </row>
-    <row r="50" spans="1:80" s="29" customFormat="1" ht="33" customHeight="1">
+    <row r="50" spans="1:80" s="29" customFormat="1" ht="37.5" customHeight="1">
       <c r="A50" s="440"/>
       <c r="B50" s="425">
         <v>6</v>
@@ -10076,23 +10135,23 @@
       <c r="I50" s="247"/>
       <c r="J50" s="268"/>
       <c r="K50" s="60" t="s">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="L50" s="102"/>
       <c r="M50" s="103"/>
       <c r="N50" s="101"/>
       <c r="O50" s="120"/>
       <c r="P50" s="110" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q50" s="103" t="s">
-        <v>77</v>
+        <v>207</v>
+      </c>
+      <c r="Q50" s="286" t="s">
+        <v>76</v>
       </c>
       <c r="R50" s="103" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="S50" s="282" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="T50" s="120"/>
       <c r="U50" s="440"/>
@@ -10109,28 +10168,48 @@
         <v>1</v>
       </c>
       <c r="Z50" s="60" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="AA50" s="102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB50" s="103" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AC50" s="101" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD50" s="126"/>
-      <c r="AE50" s="60"/>
-      <c r="AF50" s="102"/>
-      <c r="AG50" s="103"/>
-      <c r="AH50" s="101"/>
-      <c r="AI50" s="126"/>
-      <c r="AJ50" s="58"/>
-      <c r="AK50" s="60"/>
-      <c r="AL50" s="103"/>
-      <c r="AM50" s="101"/>
-      <c r="AN50" s="126"/>
+      <c r="AE50" s="392" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF50" s="233" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG50" s="290" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH50" s="262" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI50" s="263" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ50" s="392" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK50" s="233" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL50" s="290" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM50" s="262" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN50" s="263" t="s">
+        <v>167</v>
+      </c>
       <c r="AO50" s="440"/>
       <c r="AP50" s="425">
         <v>6</v>
@@ -10141,35 +10220,35 @@
       <c r="AR50" s="441" t="s">
         <v>62</v>
       </c>
-      <c r="AS50" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT50" s="351" t="s">
-        <v>146</v>
+      <c r="AS50" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT50" s="348" t="s">
+        <v>242</v>
       </c>
       <c r="AU50" s="286" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AV50" s="287" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="AW50" s="279" t="s">
-        <v>148</v>
-      </c>
-      <c r="AX50" s="326"/>
-      <c r="AY50" s="351" t="s">
-        <v>146</v>
+        <v>114</v>
+      </c>
+      <c r="AX50" s="323"/>
+      <c r="AY50" s="348" t="s">
+        <v>242</v>
       </c>
       <c r="AZ50" s="286" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="BA50" s="287" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB50" s="300" t="s">
-        <v>148</v>
-      </c>
-      <c r="BC50" s="326"/>
+        <v>113</v>
+      </c>
+      <c r="BB50" s="298" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC50" s="323"/>
       <c r="BD50" s="171"/>
       <c r="BE50" s="173"/>
       <c r="BF50" s="175"/>
@@ -10204,7 +10283,7 @@
       <c r="CA50" s="101"/>
       <c r="CB50" s="126"/>
     </row>
-    <row r="51" spans="1:80" s="32" customFormat="1" ht="33" customHeight="1" thickBot="1">
+    <row r="51" spans="1:80" s="32" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
       <c r="A51" s="440"/>
       <c r="B51" s="422"/>
       <c r="C51" s="424"/>
@@ -10223,7 +10302,7 @@
       <c r="N51" s="101"/>
       <c r="O51" s="120"/>
       <c r="P51" s="106"/>
-      <c r="Q51" s="103"/>
+      <c r="Q51" s="286"/>
       <c r="R51" s="103"/>
       <c r="S51" s="282"/>
       <c r="T51" s="120"/>
@@ -10235,21 +10314,21 @@
         <v>2</v>
       </c>
       <c r="Z51" s="60" t="s">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="AA51" s="102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB51" s="103" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AC51" s="47" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD51" s="127"/>
       <c r="AE51" s="60"/>
       <c r="AF51" s="102" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="AG51" s="103"/>
       <c r="AH51" s="101"/>
@@ -10263,27 +10342,27 @@
       <c r="AP51" s="422"/>
       <c r="AQ51" s="424"/>
       <c r="AR51" s="424"/>
-      <c r="AS51" s="341" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT51" s="351"/>
+      <c r="AS51" s="338" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT51" s="348"/>
       <c r="AU51" s="286"/>
       <c r="AV51" s="287"/>
       <c r="AW51" s="278"/>
-      <c r="AX51" s="326"/>
-      <c r="AY51" s="351" t="s">
-        <v>149</v>
+      <c r="AX51" s="323"/>
+      <c r="AY51" s="348" t="s">
+        <v>243</v>
       </c>
       <c r="AZ51" s="286" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="BA51" s="287" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB51" s="300" t="s">
-        <v>148</v>
-      </c>
-      <c r="BC51" s="326"/>
+        <v>113</v>
+      </c>
+      <c r="BB51" s="298" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC51" s="323"/>
       <c r="BD51" s="171"/>
       <c r="BE51" s="173"/>
       <c r="BF51" s="175"/>
@@ -10312,7 +10391,7 @@
       <c r="CA51" s="71"/>
       <c r="CB51" s="127"/>
     </row>
-    <row r="52" spans="1:80" s="35" customFormat="1" ht="33" customHeight="1">
+    <row r="52" spans="1:80" s="35" customFormat="1" ht="37.5" customHeight="1">
       <c r="A52" s="440"/>
       <c r="B52" s="438">
         <v>7</v>
@@ -10337,16 +10416,16 @@
       <c r="N52" s="47"/>
       <c r="O52" s="127"/>
       <c r="P52" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q52" s="109" t="s">
-        <v>77</v>
+        <v>207</v>
+      </c>
+      <c r="Q52" s="157" t="s">
+        <v>76</v>
       </c>
       <c r="R52" s="109" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="S52" s="282" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="T52" s="120"/>
       <c r="U52" s="440"/>
@@ -10363,32 +10442,32 @@
         <v>1</v>
       </c>
       <c r="Z52" s="60" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="AA52" s="102" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="AB52" s="103" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AC52" s="47" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD52" s="127"/>
       <c r="AE52" s="64" t="s">
-        <v>127</v>
+        <v>252</v>
       </c>
       <c r="AF52" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG52" s="67" t="s">
-        <v>97</v>
+        <v>76</v>
+      </c>
+      <c r="AG52" s="290" t="s">
+        <v>89</v>
       </c>
       <c r="AH52" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AI52" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="AJ52" s="72"/>
       <c r="AK52" s="72"/>
@@ -10405,28 +10484,28 @@
       <c r="AR52" s="426" t="s">
         <v>63</v>
       </c>
-      <c r="AS52" s="342" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT52" s="351" t="s">
-        <v>151</v>
+      <c r="AS52" s="339" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT52" s="348" t="s">
+        <v>242</v>
       </c>
       <c r="AU52" s="286" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="AV52" s="287" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW52" s="300" t="s">
-        <v>148</v>
-      </c>
-      <c r="AX52" s="326"/>
-      <c r="AY52" s="351"/>
+        <v>113</v>
+      </c>
+      <c r="AW52" s="298" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX52" s="323"/>
+      <c r="AY52" s="348"/>
       <c r="AZ52" s="286"/>
       <c r="BA52" s="287"/>
       <c r="BB52" s="282"/>
-      <c r="BC52" s="326"/>
-      <c r="BD52" s="322"/>
+      <c r="BC52" s="323"/>
+      <c r="BD52" s="320"/>
       <c r="BE52" s="181"/>
       <c r="BF52" s="182"/>
       <c r="BG52" s="180"/>
@@ -10460,7 +10539,7 @@
       <c r="CA52" s="71"/>
       <c r="CB52" s="127"/>
     </row>
-    <row r="53" spans="1:80" s="35" customFormat="1" ht="33" customHeight="1" thickBot="1">
+    <row r="53" spans="1:80" s="35" customFormat="1" ht="42" customHeight="1" thickBot="1">
       <c r="A53" s="440"/>
       <c r="B53" s="438"/>
       <c r="C53" s="426"/>
@@ -10491,16 +10570,16 @@
         <v>2</v>
       </c>
       <c r="Z53" s="53" t="s">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="AA53" s="74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB53" s="75" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AC53" s="41" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD53" s="121"/>
       <c r="AE53" s="53"/>
@@ -10509,33 +10588,33 @@
       <c r="AH53" s="41"/>
       <c r="AI53" s="121"/>
       <c r="AJ53" s="53" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="AK53" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL53" s="75" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="AM53" s="292" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AN53" s="140" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="AO53" s="440"/>
       <c r="AP53" s="438"/>
       <c r="AQ53" s="426"/>
       <c r="AR53" s="426"/>
-      <c r="AS53" s="343" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT53" s="351"/>
+      <c r="AS53" s="340" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT53" s="348"/>
       <c r="AU53" s="253"/>
       <c r="AV53" s="254"/>
       <c r="AW53" s="240"/>
       <c r="AX53" s="140"/>
-      <c r="AY53" s="352"/>
+      <c r="AY53" s="349"/>
       <c r="AZ53" s="253"/>
       <c r="BA53" s="254"/>
       <c r="BB53" s="240"/>
@@ -10635,20 +10714,20 @@
       <c r="AR54" s="428" t="s">
         <v>31</v>
       </c>
-      <c r="AS54" s="344" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT54" s="353"/>
+      <c r="AS54" s="341" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT54" s="350"/>
       <c r="AU54" s="243"/>
       <c r="AV54" s="219"/>
       <c r="AW54" s="242"/>
-      <c r="AX54" s="332"/>
-      <c r="AY54" s="355"/>
+      <c r="AX54" s="329"/>
+      <c r="AY54" s="352"/>
       <c r="AZ54" s="238"/>
       <c r="BA54" s="219"/>
       <c r="BB54" s="242"/>
-      <c r="BC54" s="332"/>
-      <c r="BD54" s="319"/>
+      <c r="BC54" s="329"/>
+      <c r="BD54" s="317"/>
       <c r="BE54" s="187"/>
       <c r="BF54" s="188"/>
       <c r="BG54" s="189"/>
@@ -10731,20 +10810,20 @@
       <c r="AP55" s="416"/>
       <c r="AQ55" s="418"/>
       <c r="AR55" s="418"/>
-      <c r="AS55" s="345" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT55" s="354"/>
+      <c r="AS55" s="342" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT55" s="351"/>
       <c r="AU55" s="256"/>
       <c r="AV55" s="257"/>
       <c r="AW55" s="240"/>
-      <c r="AX55" s="328"/>
-      <c r="AY55" s="354"/>
+      <c r="AX55" s="325"/>
+      <c r="AY55" s="351"/>
       <c r="AZ55" s="256"/>
       <c r="BA55" s="257"/>
       <c r="BB55" s="240"/>
-      <c r="BC55" s="328"/>
-      <c r="BD55" s="318"/>
+      <c r="BC55" s="325"/>
+      <c r="BD55" s="316"/>
       <c r="BE55" s="193"/>
       <c r="BF55" s="194"/>
       <c r="BG55" s="195"/>
@@ -10839,20 +10918,20 @@
       <c r="AR56" s="417" t="s">
         <v>33</v>
       </c>
-      <c r="AS56" s="346" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT56" s="355"/>
+      <c r="AS56" s="343" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT56" s="352"/>
       <c r="AU56" s="239"/>
       <c r="AV56" s="259"/>
       <c r="AW56" s="242"/>
-      <c r="AX56" s="326"/>
-      <c r="AY56" s="355"/>
+      <c r="AX56" s="323"/>
+      <c r="AY56" s="352"/>
       <c r="AZ56" s="239"/>
       <c r="BA56" s="259"/>
       <c r="BB56" s="242"/>
-      <c r="BC56" s="326"/>
-      <c r="BD56" s="319"/>
+      <c r="BC56" s="323"/>
+      <c r="BD56" s="317"/>
       <c r="BE56" s="160"/>
       <c r="BF56" s="197"/>
       <c r="BG56" s="162"/>
@@ -10935,20 +11014,20 @@
       <c r="AP57" s="416"/>
       <c r="AQ57" s="418"/>
       <c r="AR57" s="418"/>
-      <c r="AS57" s="345" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT57" s="354"/>
+      <c r="AS57" s="342" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT57" s="351"/>
       <c r="AU57" s="256"/>
       <c r="AV57" s="258"/>
       <c r="AW57" s="260"/>
-      <c r="AX57" s="328"/>
-      <c r="AY57" s="354"/>
+      <c r="AX57" s="325"/>
+      <c r="AY57" s="351"/>
       <c r="AZ57" s="256"/>
       <c r="BA57" s="258"/>
       <c r="BB57" s="260"/>
-      <c r="BC57" s="328"/>
-      <c r="BD57" s="320"/>
+      <c r="BC57" s="325"/>
+      <c r="BD57" s="318"/>
       <c r="BE57" s="191"/>
       <c r="BF57" s="194"/>
       <c r="BG57" s="198"/>
@@ -11028,34 +11107,34 @@
       <c r="AC58" s="54"/>
       <c r="AD58" s="124"/>
       <c r="AE58" s="104" t="s">
-        <v>158</v>
+        <v>225</v>
       </c>
       <c r="AF58" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG58" s="105" t="s">
-        <v>122</v>
+        <v>78</v>
+      </c>
+      <c r="AG58" s="114" t="s">
+        <v>183</v>
       </c>
       <c r="AH58" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AI58" s="263" t="s">
-        <v>231</v>
-      </c>
-      <c r="AJ58" s="56" t="s">
-        <v>158</v>
+        <v>167</v>
+      </c>
+      <c r="AJ58" s="288" t="s">
+        <v>225</v>
       </c>
       <c r="AK58" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL58" s="293" t="s">
-        <v>122</v>
+        <v>78</v>
+      </c>
+      <c r="AL58" s="114" t="s">
+        <v>183</v>
       </c>
       <c r="AM58" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AN58" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="AO58" s="429" t="s">
         <v>8</v>
@@ -11069,20 +11148,20 @@
       <c r="AR58" s="423" t="s">
         <v>27</v>
       </c>
-      <c r="AS58" s="338" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT58" s="350"/>
+      <c r="AS58" s="335" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT58" s="347"/>
       <c r="AU58" s="284"/>
       <c r="AV58" s="289"/>
       <c r="AW58" s="283"/>
-      <c r="AX58" s="324"/>
-      <c r="AY58" s="350"/>
+      <c r="AX58" s="321"/>
+      <c r="AY58" s="347"/>
       <c r="AZ58" s="284"/>
       <c r="BA58" s="289"/>
       <c r="BB58" s="283"/>
-      <c r="BC58" s="324"/>
-      <c r="BD58" s="321"/>
+      <c r="BC58" s="321"/>
+      <c r="BD58" s="319"/>
       <c r="BE58" s="169"/>
       <c r="BF58" s="179"/>
       <c r="BG58" s="168"/>
@@ -11137,19 +11216,19 @@
       <c r="N59" s="57"/>
       <c r="O59" s="119"/>
       <c r="P59" s="106" t="s">
-        <v>99</v>
+        <v>206</v>
       </c>
       <c r="Q59" s="286" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R59" s="287" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="S59" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="T59" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="U59" s="430"/>
       <c r="V59" s="422"/>
@@ -11164,52 +11243,52 @@
       <c r="AC59" s="57"/>
       <c r="AD59" s="119"/>
       <c r="AE59" s="60" t="s">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="AF59" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG59" s="103" t="s">
-        <v>122</v>
+        <v>78</v>
+      </c>
+      <c r="AG59" s="114" t="s">
+        <v>183</v>
       </c>
       <c r="AH59" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AI59" s="263" t="s">
-        <v>231</v>
-      </c>
-      <c r="AJ59" s="60" t="s">
-        <v>121</v>
+        <v>167</v>
+      </c>
+      <c r="AJ59" s="285" t="s">
+        <v>226</v>
       </c>
       <c r="AK59" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL59" s="106" t="s">
-        <v>122</v>
+        <v>78</v>
+      </c>
+      <c r="AL59" s="114" t="s">
+        <v>183</v>
       </c>
       <c r="AM59" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AN59" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="AO59" s="430"/>
       <c r="AP59" s="422"/>
       <c r="AQ59" s="424"/>
       <c r="AR59" s="424"/>
-      <c r="AS59" s="339" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT59" s="351"/>
+      <c r="AS59" s="336" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT59" s="348"/>
       <c r="AU59" s="286"/>
       <c r="AV59" s="287"/>
       <c r="AW59" s="282"/>
-      <c r="AX59" s="325"/>
-      <c r="AY59" s="351"/>
+      <c r="AX59" s="322"/>
+      <c r="AY59" s="348"/>
       <c r="AZ59" s="286"/>
       <c r="BA59" s="287"/>
       <c r="BB59" s="282"/>
-      <c r="BC59" s="325"/>
+      <c r="BC59" s="322"/>
       <c r="BD59" s="171"/>
       <c r="BE59" s="174"/>
       <c r="BF59" s="175"/>
@@ -11252,7 +11331,7 @@
       <c r="E60" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F60" s="248"/>
+      <c r="F60" s="220"/>
       <c r="G60" s="249"/>
       <c r="H60" s="250"/>
       <c r="I60" s="279"/>
@@ -11264,7 +11343,7 @@
       <c r="O60" s="119"/>
       <c r="P60" s="60"/>
       <c r="Q60" s="286"/>
-      <c r="R60" s="103"/>
+      <c r="R60" s="287"/>
       <c r="S60" s="101"/>
       <c r="T60" s="119"/>
       <c r="U60" s="430"/>
@@ -11285,35 +11364,35 @@
       <c r="AB60" s="62"/>
       <c r="AC60" s="57"/>
       <c r="AD60" s="119"/>
-      <c r="AE60" s="60" t="s">
-        <v>116</v>
+      <c r="AE60" s="285" t="s">
+        <v>223</v>
       </c>
       <c r="AF60" s="102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG60" s="103" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AH60" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AI60" s="263" t="s">
-        <v>231</v>
-      </c>
-      <c r="AJ60" s="60" t="s">
-        <v>116</v>
+        <v>167</v>
+      </c>
+      <c r="AJ60" s="285" t="s">
+        <v>223</v>
       </c>
       <c r="AK60" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL60" s="106" t="s">
-        <v>117</v>
+        <v>78</v>
+      </c>
+      <c r="AL60" s="287" t="s">
+        <v>100</v>
       </c>
       <c r="AM60" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AN60" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="AO60" s="430"/>
       <c r="AP60" s="425">
@@ -11325,19 +11404,19 @@
       <c r="AR60" s="441" t="s">
         <v>29</v>
       </c>
-      <c r="AS60" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT60" s="351"/>
+      <c r="AS60" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT60" s="348"/>
       <c r="AU60" s="286"/>
       <c r="AV60" s="287"/>
       <c r="AW60" s="282"/>
-      <c r="AX60" s="325"/>
-      <c r="AY60" s="351"/>
+      <c r="AX60" s="322"/>
+      <c r="AY60" s="348"/>
       <c r="AZ60" s="286"/>
       <c r="BA60" s="287"/>
       <c r="BB60" s="282"/>
-      <c r="BC60" s="325"/>
+      <c r="BC60" s="322"/>
       <c r="BD60" s="171"/>
       <c r="BE60" s="174"/>
       <c r="BF60" s="175"/>
@@ -11380,7 +11459,7 @@
       <c r="E61" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F61" s="248"/>
+      <c r="F61" s="220"/>
       <c r="G61" s="249"/>
       <c r="H61" s="250"/>
       <c r="I61" s="279"/>
@@ -11390,20 +11469,20 @@
       <c r="M61" s="62"/>
       <c r="N61" s="150"/>
       <c r="O61" s="119"/>
-      <c r="P61" s="60" t="s">
-        <v>110</v>
+      <c r="P61" s="220" t="s">
+        <v>208</v>
       </c>
       <c r="Q61" s="286" t="s">
-        <v>77</v>
-      </c>
-      <c r="R61" s="103" t="s">
-        <v>97</v>
+        <v>78</v>
+      </c>
+      <c r="R61" s="287" t="s">
+        <v>89</v>
       </c>
       <c r="S61" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="T61" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="U61" s="430"/>
       <c r="V61" s="422"/>
@@ -11417,53 +11496,53 @@
       <c r="AB61" s="62"/>
       <c r="AC61" s="57"/>
       <c r="AD61" s="119"/>
-      <c r="AE61" s="60" t="s">
-        <v>119</v>
+      <c r="AE61" s="285" t="s">
+        <v>222</v>
       </c>
       <c r="AF61" s="102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG61" s="103" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AH61" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AI61" s="263" t="s">
-        <v>231</v>
-      </c>
-      <c r="AJ61" s="60" t="s">
-        <v>119</v>
+        <v>167</v>
+      </c>
+      <c r="AJ61" s="285" t="s">
+        <v>222</v>
       </c>
       <c r="AK61" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL61" s="106" t="s">
-        <v>117</v>
+        <v>78</v>
+      </c>
+      <c r="AL61" s="287" t="s">
+        <v>100</v>
       </c>
       <c r="AM61" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AN61" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="AO61" s="430"/>
       <c r="AP61" s="422"/>
       <c r="AQ61" s="424"/>
       <c r="AR61" s="424"/>
-      <c r="AS61" s="340" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT61" s="351"/>
+      <c r="AS61" s="337" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT61" s="348"/>
       <c r="AU61" s="286"/>
       <c r="AV61" s="287"/>
       <c r="AW61" s="282"/>
-      <c r="AX61" s="325"/>
-      <c r="AY61" s="351"/>
+      <c r="AX61" s="322"/>
+      <c r="AY61" s="348"/>
       <c r="AZ61" s="286"/>
       <c r="BA61" s="287"/>
       <c r="BB61" s="282"/>
-      <c r="BC61" s="325"/>
+      <c r="BC61" s="322"/>
       <c r="BD61" s="171"/>
       <c r="BE61" s="174"/>
       <c r="BF61" s="175"/>
@@ -11506,17 +11585,17 @@
       <c r="E62" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F62" s="372" t="s">
-        <v>246</v>
+      <c r="F62" s="220" t="s">
+        <v>196</v>
       </c>
       <c r="G62" s="115" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="H62" s="114" t="s">
-        <v>212</v>
-      </c>
-      <c r="I62" s="300" t="s">
-        <v>115</v>
+        <v>154</v>
+      </c>
+      <c r="I62" s="298" t="s">
+        <v>99</v>
       </c>
       <c r="J62" s="263"/>
       <c r="K62" s="60"/>
@@ -11524,17 +11603,17 @@
       <c r="M62" s="103"/>
       <c r="N62" s="101"/>
       <c r="O62" s="119"/>
-      <c r="P62" s="60" t="s">
-        <v>111</v>
+      <c r="P62" s="220" t="s">
+        <v>209</v>
       </c>
       <c r="Q62" s="286" t="s">
-        <v>77</v>
-      </c>
-      <c r="R62" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="R62" s="287" t="s">
+        <v>89</v>
+      </c>
+      <c r="S62" s="298" t="s">
         <v>97</v>
-      </c>
-      <c r="S62" s="300" t="s">
-        <v>112</v>
       </c>
       <c r="T62" s="119"/>
       <c r="U62" s="430"/>
@@ -11560,9 +11639,9 @@
       <c r="AG62" s="103"/>
       <c r="AH62" s="57"/>
       <c r="AI62" s="119"/>
-      <c r="AJ62" s="60"/>
+      <c r="AJ62" s="285"/>
       <c r="AK62" s="61"/>
-      <c r="AL62" s="106"/>
+      <c r="AL62" s="287"/>
       <c r="AM62" s="57"/>
       <c r="AN62" s="119"/>
       <c r="AO62" s="430"/>
@@ -11575,19 +11654,19 @@
       <c r="AR62" s="441" t="s">
         <v>58</v>
       </c>
-      <c r="AS62" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT62" s="351"/>
+      <c r="AS62" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT62" s="348"/>
       <c r="AU62" s="286"/>
       <c r="AV62" s="287"/>
       <c r="AW62" s="282"/>
-      <c r="AX62" s="325"/>
-      <c r="AY62" s="351"/>
+      <c r="AX62" s="322"/>
+      <c r="AY62" s="348"/>
       <c r="AZ62" s="286"/>
       <c r="BA62" s="287"/>
       <c r="BB62" s="282"/>
-      <c r="BC62" s="325"/>
+      <c r="BC62" s="322"/>
       <c r="BD62" s="171"/>
       <c r="BE62" s="174"/>
       <c r="BF62" s="175"/>
@@ -11630,17 +11709,17 @@
       <c r="E63" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F63" s="372" t="s">
-        <v>213</v>
+      <c r="F63" s="220" t="s">
+        <v>197</v>
       </c>
       <c r="G63" s="115" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H63" s="114" t="s">
-        <v>212</v>
-      </c>
-      <c r="I63" s="300" t="s">
-        <v>115</v>
+        <v>154</v>
+      </c>
+      <c r="I63" s="298" t="s">
+        <v>99</v>
       </c>
       <c r="J63" s="263"/>
       <c r="K63" s="60"/>
@@ -11648,20 +11727,20 @@
       <c r="M63" s="103"/>
       <c r="N63" s="101"/>
       <c r="O63" s="119"/>
-      <c r="P63" s="60" t="s">
-        <v>96</v>
+      <c r="P63" s="220" t="s">
+        <v>210</v>
       </c>
       <c r="Q63" s="286" t="s">
-        <v>79</v>
-      </c>
-      <c r="R63" s="103" t="s">
-        <v>97</v>
+        <v>78</v>
+      </c>
+      <c r="R63" s="287" t="s">
+        <v>89</v>
       </c>
       <c r="S63" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="T63" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="U63" s="430"/>
       <c r="V63" s="422"/>
@@ -11671,81 +11750,81 @@
         <v>2</v>
       </c>
       <c r="Z63" s="60" t="s">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c r="AA63" s="102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB63" s="103" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="AC63" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AD63" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="AE63" s="60" t="s">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c r="AF63" s="102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG63" s="103" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="AH63" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AI63" s="263" t="s">
-        <v>231</v>
-      </c>
-      <c r="AJ63" s="60" t="s">
-        <v>96</v>
+        <v>167</v>
+      </c>
+      <c r="AJ63" s="285" t="s">
+        <v>210</v>
       </c>
       <c r="AK63" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL63" s="106" t="s">
-        <v>97</v>
+        <v>78</v>
+      </c>
+      <c r="AL63" s="287" t="s">
+        <v>89</v>
       </c>
       <c r="AM63" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AN63" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="AO63" s="430"/>
       <c r="AP63" s="422"/>
       <c r="AQ63" s="424"/>
       <c r="AR63" s="424"/>
-      <c r="AS63" s="340" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT63" s="351"/>
+      <c r="AS63" s="337" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT63" s="348"/>
       <c r="AU63" s="286"/>
       <c r="AV63" s="287"/>
       <c r="AW63" s="282"/>
-      <c r="AX63" s="325"/>
-      <c r="AY63" s="351"/>
+      <c r="AX63" s="322"/>
+      <c r="AY63" s="348"/>
       <c r="AZ63" s="286"/>
       <c r="BA63" s="287"/>
       <c r="BB63" s="282"/>
-      <c r="BC63" s="325"/>
+      <c r="BC63" s="322"/>
       <c r="BD63" s="171" t="s">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c r="BE63" s="231" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BF63" s="232" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="BG63" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="BH63" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="BI63" s="430"/>
       <c r="BJ63" s="422"/>
@@ -11754,20 +11833,20 @@
       <c r="BM63" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="BN63" s="235" t="s">
-        <v>96</v>
+      <c r="BN63" s="171" t="s">
+        <v>210</v>
       </c>
       <c r="BO63" s="236" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BP63" s="237" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="BQ63" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="BR63" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="BS63" s="60"/>
       <c r="BT63" s="102"/>
@@ -11804,17 +11883,17 @@
       <c r="M64" s="103"/>
       <c r="N64" s="101"/>
       <c r="O64" s="119"/>
-      <c r="P64" s="60" t="s">
-        <v>111</v>
+      <c r="P64" s="220" t="s">
+        <v>209</v>
       </c>
       <c r="Q64" s="286" t="s">
-        <v>77</v>
-      </c>
-      <c r="R64" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="R64" s="287" t="s">
+        <v>89</v>
+      </c>
+      <c r="S64" s="298" t="s">
         <v>97</v>
-      </c>
-      <c r="S64" s="300" t="s">
-        <v>112</v>
       </c>
       <c r="T64" s="119"/>
       <c r="U64" s="430"/>
@@ -11855,19 +11934,19 @@
       <c r="AR64" s="441" t="s">
         <v>60</v>
       </c>
-      <c r="AS64" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT64" s="351"/>
+      <c r="AS64" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT64" s="348"/>
       <c r="AU64" s="286"/>
       <c r="AV64" s="287"/>
       <c r="AW64" s="282"/>
-      <c r="AX64" s="325"/>
-      <c r="AY64" s="351"/>
+      <c r="AX64" s="322"/>
+      <c r="AY64" s="348"/>
       <c r="AZ64" s="286"/>
       <c r="BA64" s="287"/>
       <c r="BB64" s="282"/>
-      <c r="BC64" s="325"/>
+      <c r="BC64" s="322"/>
       <c r="BD64" s="171"/>
       <c r="BE64" s="173"/>
       <c r="BF64" s="175"/>
@@ -11886,7 +11965,7 @@
       <c r="BM64" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="BN64" s="173"/>
+      <c r="BN64" s="285"/>
       <c r="BO64" s="174"/>
       <c r="BP64" s="175"/>
       <c r="BQ64" s="170"/>
@@ -11910,17 +11989,17 @@
       <c r="E65" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F65" s="372" t="s">
-        <v>213</v>
+      <c r="F65" s="285" t="s">
+        <v>197</v>
       </c>
       <c r="G65" s="115" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H65" s="114" t="s">
-        <v>212</v>
-      </c>
-      <c r="I65" s="300" t="s">
-        <v>115</v>
+        <v>154</v>
+      </c>
+      <c r="I65" s="298" t="s">
+        <v>99</v>
       </c>
       <c r="J65" s="263"/>
       <c r="K65" s="60"/>
@@ -11928,20 +12007,20 @@
       <c r="M65" s="103"/>
       <c r="N65" s="101"/>
       <c r="O65" s="122"/>
-      <c r="P65" s="60" t="s">
-        <v>111</v>
+      <c r="P65" s="220" t="s">
+        <v>211</v>
       </c>
       <c r="Q65" s="286" t="s">
-        <v>79</v>
-      </c>
-      <c r="R65" s="103" t="s">
-        <v>97</v>
+        <v>76</v>
+      </c>
+      <c r="R65" s="287" t="s">
+        <v>89</v>
       </c>
       <c r="S65" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="T65" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="U65" s="430"/>
       <c r="V65" s="422"/>
@@ -11969,19 +12048,19 @@
       <c r="AP65" s="422"/>
       <c r="AQ65" s="424"/>
       <c r="AR65" s="424"/>
-      <c r="AS65" s="340" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT65" s="351"/>
+      <c r="AS65" s="337" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT65" s="348"/>
       <c r="AU65" s="286"/>
       <c r="AV65" s="287"/>
       <c r="AW65" s="282"/>
-      <c r="AX65" s="327"/>
-      <c r="AY65" s="351"/>
+      <c r="AX65" s="324"/>
+      <c r="AY65" s="348"/>
       <c r="AZ65" s="286"/>
       <c r="BA65" s="287"/>
       <c r="BB65" s="282"/>
-      <c r="BC65" s="327"/>
+      <c r="BC65" s="324"/>
       <c r="BD65" s="171"/>
       <c r="BE65" s="174"/>
       <c r="BF65" s="175"/>
@@ -11994,8 +12073,8 @@
       <c r="BM65" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="BN65" s="173" t="s">
-        <v>243</v>
+      <c r="BN65" s="285" t="s">
+        <v>174</v>
       </c>
       <c r="BO65" s="174"/>
       <c r="BP65" s="175"/>
@@ -12036,9 +12115,9 @@
       <c r="M66" s="103"/>
       <c r="N66" s="101"/>
       <c r="O66" s="129"/>
-      <c r="P66" s="106"/>
+      <c r="P66" s="380"/>
       <c r="Q66" s="286"/>
-      <c r="R66" s="103"/>
+      <c r="R66" s="287"/>
       <c r="S66" s="101"/>
       <c r="T66" s="120"/>
       <c r="U66" s="430"/>
@@ -12079,19 +12158,19 @@
       <c r="AR66" s="441" t="s">
         <v>61</v>
       </c>
-      <c r="AS66" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT66" s="351"/>
+      <c r="AS66" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT66" s="348"/>
       <c r="AU66" s="286"/>
       <c r="AV66" s="287"/>
       <c r="AW66" s="282"/>
-      <c r="AX66" s="326"/>
-      <c r="AY66" s="351"/>
+      <c r="AX66" s="323"/>
+      <c r="AY66" s="348"/>
       <c r="AZ66" s="286"/>
       <c r="BA66" s="287"/>
       <c r="BB66" s="282"/>
-      <c r="BC66" s="326"/>
+      <c r="BC66" s="323"/>
       <c r="BD66" s="171"/>
       <c r="BE66" s="173"/>
       <c r="BF66" s="175"/>
@@ -12110,17 +12189,17 @@
       <c r="BM66" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="BN66" s="295" t="s">
-        <v>185</v>
+      <c r="BN66" s="285" t="s">
+        <v>136</v>
       </c>
       <c r="BO66" s="286" t="s">
-        <v>190</v>
-      </c>
-      <c r="BP66" s="370" t="s">
-        <v>191</v>
-      </c>
-      <c r="BQ66" s="300" t="s">
-        <v>244</v>
+        <v>141</v>
+      </c>
+      <c r="BP66" s="287" t="s">
+        <v>142</v>
+      </c>
+      <c r="BQ66" s="298" t="s">
+        <v>175</v>
       </c>
       <c r="BR66" s="120"/>
       <c r="BS66" s="60"/>
@@ -12142,13 +12221,13 @@
       <c r="E67" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F67" s="372" t="s">
-        <v>220</v>
+      <c r="F67" s="285" t="s">
+        <v>159</v>
       </c>
       <c r="G67" s="286"/>
       <c r="H67" s="287"/>
       <c r="I67" s="242" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="J67" s="265"/>
       <c r="K67" s="60"/>
@@ -12187,19 +12266,19 @@
       <c r="AP67" s="422"/>
       <c r="AQ67" s="424"/>
       <c r="AR67" s="424"/>
-      <c r="AS67" s="340" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT67" s="351"/>
+      <c r="AS67" s="337" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT67" s="348"/>
       <c r="AU67" s="286"/>
       <c r="AV67" s="287"/>
       <c r="AW67" s="226"/>
-      <c r="AX67" s="326"/>
-      <c r="AY67" s="351"/>
+      <c r="AX67" s="323"/>
+      <c r="AY67" s="348"/>
       <c r="AZ67" s="286"/>
       <c r="BA67" s="287"/>
       <c r="BB67" s="226"/>
-      <c r="BC67" s="326"/>
+      <c r="BC67" s="323"/>
       <c r="BD67" s="171"/>
       <c r="BE67" s="173"/>
       <c r="BF67" s="175"/>
@@ -12212,8 +12291,8 @@
       <c r="BM67" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="BN67" s="173" t="s">
-        <v>243</v>
+      <c r="BN67" s="285" t="s">
+        <v>174</v>
       </c>
       <c r="BO67" s="174"/>
       <c r="BP67" s="175"/>
@@ -12244,37 +12323,43 @@
       <c r="E68" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F68" s="295" t="s">
-        <v>240</v>
+      <c r="F68" s="285" t="s">
+        <v>198</v>
       </c>
       <c r="G68" s="249" t="s">
-        <v>77</v>
-      </c>
-      <c r="H68" s="250"/>
-      <c r="I68" s="247" t="s">
-        <v>223</v>
+        <v>76</v>
+      </c>
+      <c r="H68" s="114" t="s">
+        <v>256</v>
+      </c>
+      <c r="I68" s="282" t="s">
+        <v>257</v>
       </c>
       <c r="J68" s="268"/>
-      <c r="K68" s="295" t="s">
-        <v>240</v>
-      </c>
-      <c r="L68" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="M68" s="103"/>
-      <c r="N68" s="101" t="s">
-        <v>223</v>
+      <c r="K68" s="285" t="s">
+        <v>198</v>
+      </c>
+      <c r="L68" s="286" t="s">
+        <v>76</v>
+      </c>
+      <c r="M68" s="114" t="s">
+        <v>256</v>
+      </c>
+      <c r="N68" s="282" t="s">
+        <v>257</v>
       </c>
       <c r="O68" s="126"/>
-      <c r="P68" s="295" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q68" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="R68" s="114"/>
+      <c r="P68" s="285" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q68" s="286" t="s">
+        <v>76</v>
+      </c>
+      <c r="R68" s="114" t="s">
+        <v>255</v>
+      </c>
       <c r="S68" s="282" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="T68" s="126"/>
       <c r="U68" s="430"/>
@@ -12290,37 +12375,43 @@
       <c r="Y68" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="Z68" s="295" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA68" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB68" s="62"/>
-      <c r="AC68" s="57" t="s">
-        <v>223</v>
+      <c r="Z68" s="285" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA68" s="286" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB68" s="114" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC68" s="282" t="s">
+        <v>160</v>
       </c>
       <c r="AD68" s="126"/>
-      <c r="AE68" s="295" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF68" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG68" s="62"/>
-      <c r="AH68" s="57" t="s">
-        <v>223</v>
+      <c r="AE68" s="285" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF68" s="286" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG68" s="114" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH68" s="282" t="s">
+        <v>259</v>
       </c>
       <c r="AI68" s="126"/>
-      <c r="AJ68" s="295" t="s">
-        <v>240</v>
-      </c>
-      <c r="AK68" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL68" s="62"/>
-      <c r="AM68" s="57" t="s">
-        <v>223</v>
+      <c r="AJ68" s="285" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK68" s="286" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL68" s="114" t="s">
+        <v>258</v>
+      </c>
+      <c r="AM68" s="282" t="s">
+        <v>259</v>
       </c>
       <c r="AN68" s="126"/>
       <c r="AO68" s="430"/>
@@ -12333,40 +12424,46 @@
       <c r="AR68" s="441" t="s">
         <v>62</v>
       </c>
-      <c r="AS68" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT68" s="356" t="s">
-        <v>240</v>
+      <c r="AS68" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT68" s="285" t="s">
+        <v>198</v>
       </c>
       <c r="AU68" s="286" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV68" s="287"/>
-      <c r="AW68" s="280" t="s">
-        <v>223</v>
-      </c>
-      <c r="AX68" s="326"/>
-      <c r="AY68" s="356" t="s">
-        <v>240</v>
+        <v>76</v>
+      </c>
+      <c r="AV68" s="114" t="s">
+        <v>258</v>
+      </c>
+      <c r="AW68" s="282" t="s">
+        <v>259</v>
+      </c>
+      <c r="AX68" s="323"/>
+      <c r="AY68" s="285" t="s">
+        <v>198</v>
       </c>
       <c r="AZ68" s="286" t="s">
-        <v>77</v>
-      </c>
-      <c r="BA68" s="287"/>
+        <v>76</v>
+      </c>
+      <c r="BA68" s="114" t="s">
+        <v>258</v>
+      </c>
       <c r="BB68" s="280" t="s">
-        <v>223</v>
-      </c>
-      <c r="BC68" s="326"/>
-      <c r="BD68" s="323" t="s">
-        <v>240</v>
-      </c>
-      <c r="BE68" s="173" t="s">
-        <v>77</v>
-      </c>
-      <c r="BF68" s="175"/>
-      <c r="BG68" s="170" t="s">
-        <v>223</v>
+        <v>259</v>
+      </c>
+      <c r="BC68" s="323"/>
+      <c r="BD68" s="285" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE68" s="286" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF68" s="114" t="s">
+        <v>255</v>
+      </c>
+      <c r="BG68" s="282" t="s">
+        <v>160</v>
       </c>
       <c r="BH68" s="210"/>
       <c r="BI68" s="430"/>
@@ -12382,15 +12479,17 @@
       <c r="BM68" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="BN68" s="295" t="s">
-        <v>240</v>
-      </c>
-      <c r="BO68" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="BP68" s="175"/>
-      <c r="BQ68" s="227" t="s">
-        <v>223</v>
+      <c r="BN68" s="285" t="s">
+        <v>198</v>
+      </c>
+      <c r="BO68" s="286" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP68" s="114" t="s">
+        <v>255</v>
+      </c>
+      <c r="BQ68" s="282" t="s">
+        <v>160</v>
       </c>
       <c r="BR68" s="120"/>
       <c r="BS68" s="60"/>
@@ -12413,36 +12512,42 @@
         <v>2</v>
       </c>
       <c r="F69" s="248" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="G69" s="249" t="s">
-        <v>77</v>
-      </c>
-      <c r="H69" s="250"/>
+        <v>76</v>
+      </c>
+      <c r="H69" s="114" t="s">
+        <v>256</v>
+      </c>
       <c r="I69" s="242" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="J69" s="263"/>
-      <c r="K69" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="L69" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="M69" s="103"/>
-      <c r="N69" s="101" t="s">
-        <v>223</v>
+      <c r="K69" s="285" t="s">
+        <v>199</v>
+      </c>
+      <c r="L69" s="286" t="s">
+        <v>76</v>
+      </c>
+      <c r="M69" s="114" t="s">
+        <v>256</v>
+      </c>
+      <c r="N69" s="242" t="s">
+        <v>257</v>
       </c>
       <c r="O69" s="120"/>
-      <c r="P69" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q69" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="R69" s="114"/>
+      <c r="P69" s="285" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q69" s="286" t="s">
+        <v>76</v>
+      </c>
+      <c r="R69" s="114" t="s">
+        <v>255</v>
+      </c>
       <c r="S69" s="282" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="T69" s="120"/>
       <c r="U69" s="430"/>
@@ -12452,77 +12557,89 @@
       <c r="Y69" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="Z69" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA69" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB69" s="62"/>
-      <c r="AC69" s="47" t="s">
-        <v>223</v>
+      <c r="Z69" s="285" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA69" s="286" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB69" s="114" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC69" s="282" t="s">
+        <v>160</v>
       </c>
       <c r="AD69" s="120"/>
-      <c r="AE69" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="AF69" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG69" s="62"/>
-      <c r="AH69" s="57" t="s">
-        <v>223</v>
+      <c r="AE69" s="285" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF69" s="286" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG69" s="114" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH69" s="282" t="s">
+        <v>259</v>
       </c>
       <c r="AI69" s="120"/>
-      <c r="AJ69" s="58" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK69" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL69" s="62"/>
+      <c r="AJ69" s="285" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK69" s="286" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL69" s="114" t="s">
+        <v>258</v>
+      </c>
       <c r="AM69" s="282" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="AN69" s="120"/>
       <c r="AO69" s="430"/>
       <c r="AP69" s="422"/>
       <c r="AQ69" s="424"/>
       <c r="AR69" s="424"/>
-      <c r="AS69" s="341" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT69" s="351" t="s">
-        <v>222</v>
+      <c r="AS69" s="338" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT69" s="285" t="s">
+        <v>199</v>
       </c>
       <c r="AU69" s="286" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV69" s="287"/>
-      <c r="AW69" s="294" t="s">
-        <v>223</v>
-      </c>
-      <c r="AX69" s="326"/>
-      <c r="AY69" s="351" t="s">
-        <v>222</v>
+        <v>76</v>
+      </c>
+      <c r="AV69" s="114" t="s">
+        <v>258</v>
+      </c>
+      <c r="AW69" s="282" t="s">
+        <v>259</v>
+      </c>
+      <c r="AX69" s="323"/>
+      <c r="AY69" s="285" t="s">
+        <v>199</v>
       </c>
       <c r="AZ69" s="286" t="s">
-        <v>77</v>
-      </c>
-      <c r="BA69" s="287"/>
-      <c r="BB69" s="294" t="s">
-        <v>223</v>
-      </c>
-      <c r="BC69" s="326"/>
-      <c r="BD69" s="171" t="s">
-        <v>222</v>
-      </c>
-      <c r="BE69" s="173" t="s">
-        <v>77</v>
-      </c>
-      <c r="BF69" s="175"/>
+        <v>76</v>
+      </c>
+      <c r="BA69" s="114" t="s">
+        <v>258</v>
+      </c>
+      <c r="BB69" s="293" t="s">
+        <v>259</v>
+      </c>
+      <c r="BC69" s="323"/>
+      <c r="BD69" s="285" t="s">
+        <v>199</v>
+      </c>
+      <c r="BE69" s="286" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF69" s="114" t="s">
+        <v>255</v>
+      </c>
       <c r="BG69" s="282" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="BH69" s="204"/>
       <c r="BI69" s="430"/>
@@ -12532,15 +12649,17 @@
       <c r="BM69" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="BN69" s="173" t="s">
-        <v>222</v>
-      </c>
-      <c r="BO69" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="BP69" s="175"/>
-      <c r="BQ69" s="294" t="s">
-        <v>223</v>
+      <c r="BN69" s="285" t="s">
+        <v>199</v>
+      </c>
+      <c r="BO69" s="286" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP69" s="114" t="s">
+        <v>255</v>
+      </c>
+      <c r="BQ69" s="282" t="s">
+        <v>160</v>
       </c>
       <c r="BR69" s="120"/>
       <c r="BS69" s="60"/>
@@ -12621,30 +12740,30 @@
       <c r="AR70" s="426" t="s">
         <v>63</v>
       </c>
-      <c r="AS70" s="342" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT70" s="351"/>
+      <c r="AS70" s="339" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT70" s="348"/>
       <c r="AU70" s="286"/>
       <c r="AV70" s="287"/>
       <c r="AW70" s="280"/>
-      <c r="AX70" s="326"/>
-      <c r="AY70" s="351"/>
+      <c r="AX70" s="323"/>
+      <c r="AY70" s="348"/>
       <c r="AZ70" s="233"/>
       <c r="BA70" s="67"/>
       <c r="BB70" s="280"/>
-      <c r="BC70" s="326"/>
-      <c r="BD70" s="372" t="s">
-        <v>172</v>
+      <c r="BC70" s="323"/>
+      <c r="BD70" s="285" t="s">
+        <v>123</v>
       </c>
       <c r="BE70" s="285" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="BF70" s="287" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="BG70" s="279" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="BH70" s="204"/>
       <c r="BI70" s="430"/>
@@ -12717,35 +12836,35 @@
       <c r="AH71" s="41"/>
       <c r="AI71" s="123"/>
       <c r="AJ71" s="53" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="AK71" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL71" s="75" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="AM71" s="240" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AN71" s="123"/>
       <c r="AO71" s="430"/>
       <c r="AP71" s="438"/>
       <c r="AQ71" s="426"/>
       <c r="AR71" s="426"/>
-      <c r="AS71" s="343" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT71" s="351"/>
+      <c r="AS71" s="340" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT71" s="348"/>
       <c r="AU71" s="253"/>
       <c r="AV71" s="254"/>
       <c r="AW71" s="228"/>
-      <c r="AX71" s="326"/>
-      <c r="AY71" s="351"/>
+      <c r="AX71" s="323"/>
+      <c r="AY71" s="348"/>
       <c r="AZ71" s="286"/>
       <c r="BA71" s="76"/>
       <c r="BB71" s="228"/>
-      <c r="BC71" s="326"/>
+      <c r="BC71" s="323"/>
       <c r="BD71" s="199"/>
       <c r="BE71" s="167"/>
       <c r="BF71" s="184"/>
@@ -12841,20 +12960,20 @@
       <c r="AR72" s="428" t="s">
         <v>31</v>
       </c>
-      <c r="AS72" s="344" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT72" s="353"/>
+      <c r="AS72" s="341" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT72" s="350"/>
       <c r="AU72" s="243"/>
       <c r="AV72" s="255"/>
       <c r="AW72" s="283"/>
-      <c r="AX72" s="333"/>
-      <c r="AY72" s="353"/>
+      <c r="AX72" s="330"/>
+      <c r="AY72" s="350"/>
       <c r="AZ72" s="243"/>
       <c r="BA72" s="255"/>
       <c r="BB72" s="283"/>
-      <c r="BC72" s="333"/>
-      <c r="BD72" s="317"/>
+      <c r="BC72" s="330"/>
+      <c r="BD72" s="315"/>
       <c r="BE72" s="187"/>
       <c r="BF72" s="188"/>
       <c r="BG72" s="189"/>
@@ -12937,20 +13056,20 @@
       <c r="AP73" s="416"/>
       <c r="AQ73" s="418"/>
       <c r="AR73" s="418"/>
-      <c r="AS73" s="345" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT73" s="354"/>
+      <c r="AS73" s="342" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT73" s="351"/>
       <c r="AU73" s="256"/>
       <c r="AV73" s="257"/>
       <c r="AW73" s="240"/>
-      <c r="AX73" s="334"/>
-      <c r="AY73" s="354"/>
+      <c r="AX73" s="331"/>
+      <c r="AY73" s="351"/>
       <c r="AZ73" s="256"/>
       <c r="BA73" s="257"/>
       <c r="BB73" s="240"/>
-      <c r="BC73" s="334"/>
-      <c r="BD73" s="318"/>
+      <c r="BC73" s="331"/>
+      <c r="BD73" s="316"/>
       <c r="BE73" s="193"/>
       <c r="BF73" s="194"/>
       <c r="BG73" s="195"/>
@@ -13045,20 +13164,20 @@
       <c r="AR74" s="417" t="s">
         <v>33</v>
       </c>
-      <c r="AS74" s="346" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT74" s="355"/>
+      <c r="AS74" s="343" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT74" s="352"/>
       <c r="AU74" s="239"/>
       <c r="AV74" s="259"/>
       <c r="AW74" s="242"/>
-      <c r="AX74" s="327"/>
-      <c r="AY74" s="355"/>
+      <c r="AX74" s="324"/>
+      <c r="AY74" s="352"/>
       <c r="AZ74" s="239"/>
       <c r="BA74" s="259"/>
       <c r="BB74" s="242"/>
-      <c r="BC74" s="327"/>
-      <c r="BD74" s="319"/>
+      <c r="BC74" s="324"/>
+      <c r="BD74" s="317"/>
       <c r="BE74" s="160"/>
       <c r="BF74" s="197"/>
       <c r="BG74" s="162"/>
@@ -13141,20 +13260,20 @@
       <c r="AP75" s="416"/>
       <c r="AQ75" s="418"/>
       <c r="AR75" s="418"/>
-      <c r="AS75" s="345" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT75" s="354"/>
+      <c r="AS75" s="342" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT75" s="351"/>
       <c r="AU75" s="256"/>
       <c r="AV75" s="258"/>
       <c r="AW75" s="260"/>
-      <c r="AX75" s="328"/>
-      <c r="AY75" s="354"/>
+      <c r="AX75" s="325"/>
+      <c r="AY75" s="351"/>
       <c r="AZ75" s="256"/>
       <c r="BA75" s="258"/>
       <c r="BB75" s="260"/>
-      <c r="BC75" s="328"/>
-      <c r="BD75" s="320"/>
+      <c r="BC75" s="325"/>
+      <c r="BD75" s="318"/>
       <c r="BE75" s="191"/>
       <c r="BF75" s="194"/>
       <c r="BG75" s="198"/>
@@ -13239,14 +13358,14 @@
       <c r="AH76" s="54"/>
       <c r="AI76" s="118"/>
       <c r="AJ76" s="56" t="s">
-        <v>123</v>
+        <v>233</v>
       </c>
       <c r="AK76" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL76" s="105"/>
+        <v>78</v>
+      </c>
+      <c r="AL76" s="383"/>
       <c r="AM76" s="101" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="AN76" s="120"/>
       <c r="AO76" s="431" t="s">
@@ -13261,20 +13380,20 @@
       <c r="AR76" s="423" t="s">
         <v>27</v>
       </c>
-      <c r="AS76" s="338" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT76" s="350"/>
+      <c r="AS76" s="335" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT76" s="347"/>
       <c r="AU76" s="284"/>
       <c r="AV76" s="289"/>
       <c r="AW76" s="283"/>
-      <c r="AX76" s="335"/>
-      <c r="AY76" s="350"/>
+      <c r="AX76" s="332"/>
+      <c r="AY76" s="347"/>
       <c r="AZ76" s="284"/>
       <c r="BA76" s="289"/>
       <c r="BB76" s="283"/>
-      <c r="BC76" s="335"/>
-      <c r="BD76" s="321"/>
+      <c r="BC76" s="332"/>
+      <c r="BD76" s="319"/>
       <c r="BE76" s="169"/>
       <c r="BF76" s="179"/>
       <c r="BG76" s="168"/>
@@ -13351,33 +13470,33 @@
       <c r="AH77" s="101"/>
       <c r="AI77" s="119"/>
       <c r="AJ77" s="60" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="AK77" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL77" s="103"/>
+        <v>78</v>
+      </c>
+      <c r="AL77" s="382"/>
       <c r="AM77" s="101" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="AN77" s="120"/>
       <c r="AO77" s="432"/>
       <c r="AP77" s="422"/>
       <c r="AQ77" s="424"/>
       <c r="AR77" s="424"/>
-      <c r="AS77" s="339" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT77" s="351"/>
+      <c r="AS77" s="336" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT77" s="348"/>
       <c r="AU77" s="286"/>
       <c r="AV77" s="287"/>
       <c r="AW77" s="282"/>
-      <c r="AX77" s="325"/>
-      <c r="AY77" s="351"/>
+      <c r="AX77" s="322"/>
+      <c r="AY77" s="348"/>
       <c r="AZ77" s="286"/>
       <c r="BA77" s="287"/>
       <c r="BB77" s="282"/>
-      <c r="BC77" s="325"/>
+      <c r="BC77" s="322"/>
       <c r="BD77" s="171"/>
       <c r="BE77" s="174"/>
       <c r="BF77" s="175"/>
@@ -13453,30 +13572,30 @@
       <c r="AB78" s="62"/>
       <c r="AC78" s="57"/>
       <c r="AD78" s="119"/>
-      <c r="AE78" s="60" t="s">
-        <v>156</v>
+      <c r="AE78" s="285" t="s">
+        <v>229</v>
       </c>
       <c r="AF78" s="102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG78" s="103" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="AH78" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AI78" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="AJ78" s="60" t="s">
-        <v>123</v>
+        <v>233</v>
       </c>
       <c r="AK78" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL78" s="103"/>
+        <v>76</v>
+      </c>
+      <c r="AL78" s="382"/>
       <c r="AM78" s="101" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="AN78" s="120"/>
       <c r="AO78" s="432"/>
@@ -13489,19 +13608,19 @@
       <c r="AR78" s="441" t="s">
         <v>29</v>
       </c>
-      <c r="AS78" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT78" s="351"/>
+      <c r="AS78" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT78" s="348"/>
       <c r="AU78" s="286"/>
       <c r="AV78" s="287"/>
       <c r="AW78" s="282"/>
-      <c r="AX78" s="325"/>
-      <c r="AY78" s="351"/>
+      <c r="AX78" s="322"/>
+      <c r="AY78" s="348"/>
       <c r="AZ78" s="286"/>
       <c r="BA78" s="287"/>
       <c r="BB78" s="282"/>
-      <c r="BC78" s="325"/>
+      <c r="BC78" s="322"/>
       <c r="BD78" s="171"/>
       <c r="BE78" s="174"/>
       <c r="BF78" s="175"/>
@@ -13571,49 +13690,49 @@
       <c r="AB79" s="62"/>
       <c r="AC79" s="57"/>
       <c r="AD79" s="119"/>
-      <c r="AE79" s="60" t="s">
-        <v>125</v>
+      <c r="AE79" s="285" t="s">
+        <v>230</v>
       </c>
       <c r="AF79" s="102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG79" s="103" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="AH79" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AI79" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="AJ79" s="60" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="AK79" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL79" s="103"/>
+        <v>76</v>
+      </c>
+      <c r="AL79" s="382"/>
       <c r="AM79" s="101" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="AN79" s="120"/>
       <c r="AO79" s="432"/>
       <c r="AP79" s="422"/>
       <c r="AQ79" s="424"/>
       <c r="AR79" s="424"/>
-      <c r="AS79" s="340" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT79" s="351"/>
+      <c r="AS79" s="337" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT79" s="348"/>
       <c r="AU79" s="286"/>
       <c r="AV79" s="287"/>
       <c r="AW79" s="282"/>
-      <c r="AX79" s="325"/>
-      <c r="AY79" s="351"/>
+      <c r="AX79" s="322"/>
+      <c r="AY79" s="348"/>
       <c r="AZ79" s="286"/>
       <c r="BA79" s="287"/>
       <c r="BB79" s="282"/>
-      <c r="BC79" s="325"/>
+      <c r="BC79" s="322"/>
       <c r="BD79" s="171"/>
       <c r="BE79" s="174"/>
       <c r="BF79" s="175"/>
@@ -13689,30 +13808,30 @@
       <c r="AB80" s="62"/>
       <c r="AC80" s="57"/>
       <c r="AD80" s="119"/>
-      <c r="AE80" s="60" t="s">
-        <v>157</v>
+      <c r="AE80" s="285" t="s">
+        <v>227</v>
       </c>
       <c r="AF80" s="102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG80" s="103" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="AH80" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AI80" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="AJ80" s="60" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="AK80" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL80" s="103"/>
+        <v>78</v>
+      </c>
+      <c r="AL80" s="382"/>
       <c r="AM80" s="101" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="AN80" s="119"/>
       <c r="AO80" s="432"/>
@@ -13725,19 +13844,19 @@
       <c r="AR80" s="441" t="s">
         <v>58</v>
       </c>
-      <c r="AS80" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT80" s="351"/>
+      <c r="AS80" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT80" s="348"/>
       <c r="AU80" s="286"/>
       <c r="AV80" s="287"/>
       <c r="AW80" s="282"/>
-      <c r="AX80" s="325"/>
-      <c r="AY80" s="351"/>
+      <c r="AX80" s="322"/>
+      <c r="AY80" s="348"/>
       <c r="AZ80" s="286"/>
       <c r="BA80" s="287"/>
       <c r="BB80" s="280"/>
-      <c r="BC80" s="325"/>
+      <c r="BC80" s="322"/>
       <c r="BD80" s="171"/>
       <c r="BE80" s="174"/>
       <c r="BF80" s="175"/>
@@ -13807,49 +13926,49 @@
       <c r="AB81" s="62"/>
       <c r="AC81" s="57"/>
       <c r="AD81" s="119"/>
-      <c r="AE81" s="60" t="s">
-        <v>123</v>
+      <c r="AE81" s="285" t="s">
+        <v>228</v>
       </c>
       <c r="AF81" s="102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG81" s="103" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="AH81" s="262" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AI81" s="263" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="AJ81" s="60" t="s">
-        <v>113</v>
+        <v>221</v>
       </c>
       <c r="AK81" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL81" s="103"/>
+        <v>76</v>
+      </c>
+      <c r="AL81" s="382"/>
       <c r="AM81" s="101" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="AN81" s="119"/>
       <c r="AO81" s="432"/>
       <c r="AP81" s="422"/>
       <c r="AQ81" s="424"/>
       <c r="AR81" s="424"/>
-      <c r="AS81" s="340" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT81" s="351"/>
+      <c r="AS81" s="337" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT81" s="348"/>
       <c r="AU81" s="286"/>
       <c r="AV81" s="287"/>
       <c r="AW81" s="282"/>
-      <c r="AX81" s="325"/>
-      <c r="AY81" s="351"/>
+      <c r="AX81" s="322"/>
+      <c r="AY81" s="348"/>
       <c r="AZ81" s="286"/>
       <c r="BA81" s="287"/>
       <c r="BB81" s="280"/>
-      <c r="BC81" s="325"/>
+      <c r="BC81" s="322"/>
       <c r="BD81" s="171"/>
       <c r="BE81" s="174"/>
       <c r="BF81" s="175"/>
@@ -13931,16 +14050,16 @@
       <c r="AH82" s="101"/>
       <c r="AI82" s="119"/>
       <c r="AJ82" s="60" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="AK82" s="102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL82" s="103" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="AM82" s="101" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="AN82" s="119"/>
       <c r="AO82" s="432"/>
@@ -13953,27 +14072,27 @@
       <c r="AR82" s="441" t="s">
         <v>60</v>
       </c>
-      <c r="AS82" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT82" s="351"/>
+      <c r="AS82" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT82" s="348"/>
       <c r="AU82" s="286"/>
       <c r="AV82" s="287"/>
       <c r="AW82" s="280"/>
-      <c r="AX82" s="325"/>
-      <c r="AY82" s="351" t="s">
-        <v>152</v>
+      <c r="AX82" s="322"/>
+      <c r="AY82" s="348" t="s">
+        <v>244</v>
       </c>
       <c r="AZ82" s="286" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="BA82" s="287" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="BB82" s="279" t="s">
-        <v>242</v>
-      </c>
-      <c r="BC82" s="325"/>
+        <v>173</v>
+      </c>
+      <c r="BC82" s="322"/>
       <c r="BD82" s="171"/>
       <c r="BE82" s="174"/>
       <c r="BF82" s="175"/>
@@ -14049,43 +14168,43 @@
       <c r="AH83" s="101"/>
       <c r="AI83" s="119"/>
       <c r="AJ83" s="60" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="AK83" s="102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL83" s="103" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="AM83" s="101" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="AN83" s="119"/>
       <c r="AO83" s="432"/>
       <c r="AP83" s="422"/>
       <c r="AQ83" s="424"/>
       <c r="AR83" s="424"/>
-      <c r="AS83" s="340" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT83" s="351"/>
+      <c r="AS83" s="337" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT83" s="348"/>
       <c r="AU83" s="286"/>
       <c r="AV83" s="287"/>
       <c r="AW83" s="280"/>
-      <c r="AX83" s="325"/>
-      <c r="AY83" s="351" t="s">
-        <v>154</v>
+      <c r="AX83" s="322"/>
+      <c r="AY83" s="348" t="s">
+        <v>185</v>
       </c>
       <c r="AZ83" s="286" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="BA83" s="287" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="BB83" s="279" t="s">
-        <v>242</v>
-      </c>
-      <c r="BC83" s="325"/>
+        <v>173</v>
+      </c>
+      <c r="BC83" s="322"/>
       <c r="BD83" s="171"/>
       <c r="BE83" s="174"/>
       <c r="BF83" s="175"/>
@@ -14167,16 +14286,16 @@
       <c r="AH84" s="101"/>
       <c r="AI84" s="129"/>
       <c r="AJ84" s="60" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="AK84" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL84" s="103" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="AM84" s="282" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="AN84" s="129"/>
       <c r="AO84" s="432"/>
@@ -14189,35 +14308,35 @@
       <c r="AR84" s="441" t="s">
         <v>61</v>
       </c>
-      <c r="AS84" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT84" s="351" t="s">
-        <v>152</v>
+      <c r="AS84" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT84" s="348" t="s">
+        <v>244</v>
       </c>
       <c r="AU84" s="286" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AV84" s="287" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="AW84" s="279" t="s">
-        <v>242</v>
-      </c>
-      <c r="AX84" s="326"/>
-      <c r="AY84" s="351" t="s">
-        <v>152</v>
+        <v>173</v>
+      </c>
+      <c r="AX84" s="323"/>
+      <c r="AY84" s="348" t="s">
+        <v>244</v>
       </c>
       <c r="AZ84" s="286" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="BA84" s="287" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="BB84" s="279" t="s">
-        <v>242</v>
-      </c>
-      <c r="BC84" s="326"/>
+        <v>173</v>
+      </c>
+      <c r="BC84" s="323"/>
       <c r="BD84" s="171"/>
       <c r="BE84" s="174"/>
       <c r="BF84" s="175"/>
@@ -14236,17 +14355,17 @@
       <c r="BM84" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="BN84" s="235" t="s">
-        <v>185</v>
+      <c r="BN84" s="285" t="s">
+        <v>136</v>
       </c>
       <c r="BO84" s="236" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="BP84" s="237" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="BQ84" s="279" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="BR84" s="263"/>
       <c r="BS84" s="60"/>
@@ -14301,31 +14420,39 @@
       <c r="AH85" s="101"/>
       <c r="AI85" s="120"/>
       <c r="AJ85" s="60" t="s">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="AK85" s="60"/>
       <c r="AL85" s="103"/>
       <c r="AM85" s="101" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="AN85" s="132"/>
       <c r="AO85" s="432"/>
       <c r="AP85" s="422"/>
       <c r="AQ85" s="424"/>
       <c r="AR85" s="424"/>
-      <c r="AS85" s="340" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT85" s="351"/>
+      <c r="AS85" s="337" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT85" s="348"/>
       <c r="AU85" s="286"/>
       <c r="AV85" s="287"/>
       <c r="AW85" s="278"/>
-      <c r="AX85" s="326"/>
-      <c r="AY85" s="351"/>
-      <c r="AZ85" s="286"/>
-      <c r="BA85" s="287"/>
-      <c r="BB85" s="278"/>
-      <c r="BC85" s="326"/>
+      <c r="AX85" s="323"/>
+      <c r="AY85" s="354" t="s">
+        <v>245</v>
+      </c>
+      <c r="AZ85" s="286" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA85" s="287" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB85" s="279" t="s">
+        <v>173</v>
+      </c>
+      <c r="BC85" s="323"/>
       <c r="BD85" s="171"/>
       <c r="BE85" s="173"/>
       <c r="BF85" s="175"/>
@@ -14338,7 +14465,7 @@
       <c r="BM85" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="BN85" s="235"/>
+      <c r="BN85" s="285"/>
       <c r="BO85" s="236"/>
       <c r="BP85" s="237"/>
       <c r="BQ85" s="281"/>
@@ -14421,27 +14548,27 @@
       <c r="AR86" s="441" t="s">
         <v>62</v>
       </c>
-      <c r="AS86" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT86" s="351" t="s">
-        <v>152</v>
+      <c r="AS86" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT86" s="348" t="s">
+        <v>244</v>
       </c>
       <c r="AU86" s="286" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AV86" s="287" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="AW86" s="279" t="s">
-        <v>242</v>
-      </c>
-      <c r="AX86" s="326"/>
-      <c r="AY86" s="351"/>
+        <v>173</v>
+      </c>
+      <c r="AX86" s="323"/>
+      <c r="AY86" s="348"/>
       <c r="AZ86" s="286"/>
       <c r="BA86" s="287"/>
       <c r="BB86" s="282"/>
-      <c r="BC86" s="326"/>
+      <c r="BC86" s="323"/>
       <c r="BD86" s="171"/>
       <c r="BE86" s="173"/>
       <c r="BF86" s="175"/>
@@ -14460,17 +14587,17 @@
       <c r="BM86" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="BN86" s="235" t="s">
-        <v>185</v>
+      <c r="BN86" s="285" t="s">
+        <v>136</v>
       </c>
       <c r="BO86" s="236" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BP86" s="237" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="BQ86" s="279" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="BR86" s="263"/>
       <c r="BS86" s="60"/>
@@ -14533,27 +14660,27 @@
       <c r="AP87" s="422"/>
       <c r="AQ87" s="424"/>
       <c r="AR87" s="424"/>
-      <c r="AS87" s="341" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT87" s="351" t="s">
-        <v>155</v>
+      <c r="AS87" s="338" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT87" s="348" t="s">
+        <v>246</v>
       </c>
       <c r="AU87" s="286" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AV87" s="287" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="AW87" s="279" t="s">
-        <v>242</v>
-      </c>
-      <c r="AX87" s="326"/>
-      <c r="AY87" s="351"/>
+        <v>173</v>
+      </c>
+      <c r="AX87" s="323"/>
+      <c r="AY87" s="348"/>
       <c r="AZ87" s="286"/>
       <c r="BA87" s="287"/>
       <c r="BB87" s="277"/>
-      <c r="BC87" s="326"/>
+      <c r="BC87" s="323"/>
       <c r="BD87" s="171"/>
       <c r="BE87" s="173"/>
       <c r="BF87" s="175"/>
@@ -14566,17 +14693,17 @@
       <c r="BM87" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="BN87" s="235" t="s">
-        <v>187</v>
+      <c r="BN87" s="285" t="s">
+        <v>138</v>
       </c>
       <c r="BO87" s="235" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="BP87" s="237" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="BQ87" s="279" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="BR87" s="263"/>
       <c r="BS87" s="60"/>
@@ -14657,20 +14784,20 @@
       <c r="AR88" s="426" t="s">
         <v>63</v>
       </c>
-      <c r="AS88" s="342" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT88" s="357"/>
+      <c r="AS88" s="339" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT88" s="353"/>
       <c r="AU88" s="233"/>
       <c r="AV88" s="67"/>
       <c r="AW88" s="281"/>
-      <c r="AX88" s="330"/>
-      <c r="AY88" s="357"/>
+      <c r="AX88" s="327"/>
+      <c r="AY88" s="353"/>
       <c r="AZ88" s="233"/>
       <c r="BA88" s="67"/>
       <c r="BB88" s="242"/>
-      <c r="BC88" s="330"/>
-      <c r="BD88" s="322"/>
+      <c r="BC88" s="327"/>
+      <c r="BD88" s="320"/>
       <c r="BE88" s="181"/>
       <c r="BF88" s="182"/>
       <c r="BG88" s="180"/>
@@ -14688,17 +14815,17 @@
       <c r="BM88" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="BN88" s="235" t="s">
-        <v>185</v>
+      <c r="BN88" s="285" t="s">
+        <v>136</v>
       </c>
       <c r="BO88" s="236" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BP88" s="237" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="BQ88" s="279" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="BR88" s="269"/>
       <c r="BS88" s="64"/>
@@ -14712,7 +14839,7 @@
       <c r="CA88" s="71"/>
       <c r="CB88" s="127"/>
     </row>
-    <row r="89" spans="1:80" s="31" customFormat="1" ht="33" customHeight="1" thickBot="1">
+    <row r="89" spans="1:80" s="31" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
       <c r="A89" s="432"/>
       <c r="B89" s="438"/>
       <c r="C89" s="426"/>
@@ -14761,19 +14888,19 @@
       <c r="AP89" s="438"/>
       <c r="AQ89" s="426"/>
       <c r="AR89" s="426"/>
-      <c r="AS89" s="343" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT89" s="352"/>
+      <c r="AS89" s="340" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT89" s="349"/>
       <c r="AU89" s="244"/>
       <c r="AV89" s="76"/>
       <c r="AW89" s="240"/>
-      <c r="AX89" s="328"/>
-      <c r="AY89" s="352"/>
+      <c r="AX89" s="325"/>
+      <c r="AY89" s="349"/>
       <c r="AZ89" s="244"/>
       <c r="BA89" s="76"/>
       <c r="BB89" s="149"/>
-      <c r="BC89" s="328"/>
+      <c r="BC89" s="325"/>
       <c r="BD89" s="199"/>
       <c r="BE89" s="167"/>
       <c r="BF89" s="184"/>
@@ -14786,17 +14913,17 @@
       <c r="BM89" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="BN89" s="235" t="s">
-        <v>187</v>
+      <c r="BN89" s="285" t="s">
+        <v>138</v>
       </c>
       <c r="BO89" s="235" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="BP89" s="237" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="BQ89" s="279" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="BR89" s="266"/>
       <c r="BS89" s="53"/>
@@ -14877,20 +15004,20 @@
       <c r="AR90" s="428" t="s">
         <v>31</v>
       </c>
-      <c r="AS90" s="344" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT90" s="353"/>
+      <c r="AS90" s="341" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT90" s="350"/>
       <c r="AU90" s="243"/>
       <c r="AV90" s="255"/>
       <c r="AW90" s="283"/>
-      <c r="AX90" s="326"/>
-      <c r="AY90" s="353"/>
+      <c r="AX90" s="323"/>
+      <c r="AY90" s="350"/>
       <c r="AZ90" s="243"/>
       <c r="BA90" s="255"/>
       <c r="BB90" s="283"/>
-      <c r="BC90" s="326"/>
-      <c r="BD90" s="317"/>
+      <c r="BC90" s="323"/>
+      <c r="BD90" s="315"/>
       <c r="BE90" s="187"/>
       <c r="BF90" s="188"/>
       <c r="BG90" s="189"/>
@@ -14908,10 +15035,10 @@
       <c r="BM90" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="BN90" s="166"/>
+      <c r="BN90" s="243"/>
       <c r="BO90" s="166"/>
       <c r="BP90" s="186"/>
-      <c r="BQ90" s="296"/>
+      <c r="BQ90" s="294"/>
       <c r="BR90" s="263"/>
       <c r="BS90" s="48"/>
       <c r="BT90" s="48"/>
@@ -14973,20 +15100,20 @@
       <c r="AP91" s="416"/>
       <c r="AQ91" s="418"/>
       <c r="AR91" s="418"/>
-      <c r="AS91" s="345" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT91" s="354"/>
+      <c r="AS91" s="342" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT91" s="351"/>
       <c r="AU91" s="256"/>
       <c r="AV91" s="257"/>
       <c r="AW91" s="240"/>
       <c r="AX91" s="140"/>
-      <c r="AY91" s="354"/>
+      <c r="AY91" s="351"/>
       <c r="AZ91" s="256"/>
       <c r="BA91" s="257"/>
       <c r="BB91" s="240"/>
       <c r="BC91" s="140"/>
-      <c r="BD91" s="318"/>
+      <c r="BD91" s="316"/>
       <c r="BE91" s="193"/>
       <c r="BF91" s="194"/>
       <c r="BG91" s="195"/>
@@ -15001,7 +15128,7 @@
       <c r="BN91" s="191"/>
       <c r="BO91" s="191"/>
       <c r="BP91" s="192"/>
-      <c r="BQ91" s="297"/>
+      <c r="BQ91" s="295"/>
       <c r="BR91" s="264"/>
       <c r="BS91" s="83"/>
       <c r="BT91" s="83"/>
@@ -15081,20 +15208,20 @@
       <c r="AR92" s="428" t="s">
         <v>33</v>
       </c>
-      <c r="AS92" s="346" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT92" s="355"/>
+      <c r="AS92" s="343" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT92" s="352"/>
       <c r="AU92" s="239"/>
       <c r="AV92" s="259"/>
       <c r="AW92" s="242"/>
-      <c r="AX92" s="332"/>
-      <c r="AY92" s="355"/>
+      <c r="AX92" s="329"/>
+      <c r="AY92" s="352"/>
       <c r="AZ92" s="239"/>
       <c r="BA92" s="259"/>
       <c r="BB92" s="242"/>
-      <c r="BC92" s="332"/>
-      <c r="BD92" s="319"/>
+      <c r="BC92" s="329"/>
+      <c r="BD92" s="317"/>
       <c r="BE92" s="160"/>
       <c r="BF92" s="197"/>
       <c r="BG92" s="162"/>
@@ -15177,20 +15304,20 @@
       <c r="AP93" s="416"/>
       <c r="AQ93" s="418"/>
       <c r="AR93" s="418"/>
-      <c r="AS93" s="345" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT93" s="354"/>
+      <c r="AS93" s="342" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT93" s="351"/>
       <c r="AU93" s="256"/>
       <c r="AV93" s="258"/>
       <c r="AW93" s="260"/>
       <c r="AX93" s="140"/>
-      <c r="AY93" s="354"/>
+      <c r="AY93" s="351"/>
       <c r="AZ93" s="256"/>
       <c r="BA93" s="258"/>
       <c r="BB93" s="260"/>
       <c r="BC93" s="140"/>
-      <c r="BD93" s="320"/>
+      <c r="BD93" s="318"/>
       <c r="BE93" s="191"/>
       <c r="BF93" s="194"/>
       <c r="BG93" s="198"/>
@@ -15205,7 +15332,7 @@
       <c r="BN93" s="191"/>
       <c r="BO93" s="191"/>
       <c r="BP93" s="194"/>
-      <c r="BQ93" s="298"/>
+      <c r="BQ93" s="296"/>
       <c r="BR93" s="264"/>
       <c r="BS93" s="83"/>
       <c r="BT93" s="83"/>
@@ -15291,30 +15418,38 @@
       <c r="AR94" s="423" t="s">
         <v>27</v>
       </c>
-      <c r="AS94" s="338" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT94" s="350"/>
-      <c r="AU94" s="284"/>
-      <c r="AV94" s="289"/>
-      <c r="AW94" s="283"/>
-      <c r="AX94" s="327"/>
-      <c r="AY94" s="350"/>
-      <c r="AZ94" s="284"/>
-      <c r="BA94" s="289"/>
-      <c r="BB94" s="277"/>
-      <c r="BC94" s="327"/>
+      <c r="AS94" s="335" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT94" s="348" t="s">
+        <v>247</v>
+      </c>
+      <c r="AU94" s="286"/>
+      <c r="AV94" s="287"/>
+      <c r="AW94" s="282" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX94" s="324"/>
+      <c r="AY94" s="348" t="s">
+        <v>247</v>
+      </c>
+      <c r="AZ94" s="286"/>
+      <c r="BA94" s="287"/>
+      <c r="BB94" s="282" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC94" s="324"/>
       <c r="BD94" s="171" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="BE94" s="231" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="BF94" s="232" t="s">
-        <v>178</v>
-      </c>
-      <c r="BG94" s="300" t="s">
-        <v>174</v>
+        <v>129</v>
+      </c>
+      <c r="BG94" s="298" t="s">
+        <v>120</v>
       </c>
       <c r="BH94" s="206"/>
       <c r="BI94" s="433" t="s">
@@ -15335,7 +15470,7 @@
       <c r="BN94" s="176"/>
       <c r="BO94" s="169"/>
       <c r="BP94" s="179"/>
-      <c r="BQ94" s="296"/>
+      <c r="BQ94" s="294"/>
       <c r="BR94" s="265"/>
       <c r="BS94" s="104"/>
       <c r="BT94" s="100"/>
@@ -15397,34 +15532,38 @@
       <c r="AP95" s="422"/>
       <c r="AQ95" s="424"/>
       <c r="AR95" s="424"/>
-      <c r="AS95" s="339" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT95" s="351" t="s">
-        <v>221</v>
+      <c r="AS95" s="336" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT95" s="348" t="s">
+        <v>247</v>
       </c>
       <c r="AU95" s="286"/>
       <c r="AV95" s="287"/>
-      <c r="AW95" s="282"/>
-      <c r="AX95" s="336"/>
-      <c r="AY95" s="351" t="s">
-        <v>221</v>
+      <c r="AW95" s="282" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX95" s="333"/>
+      <c r="AY95" s="348" t="s">
+        <v>247</v>
       </c>
       <c r="AZ95" s="286"/>
       <c r="BA95" s="287"/>
-      <c r="BB95" s="277"/>
-      <c r="BC95" s="336"/>
-      <c r="BD95" s="372" t="s">
-        <v>164</v>
+      <c r="BB95" s="282" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC95" s="333"/>
+      <c r="BD95" s="285" t="s">
+        <v>116</v>
       </c>
       <c r="BE95" s="115" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="BF95" s="114" t="s">
-        <v>250</v>
-      </c>
-      <c r="BG95" s="300" t="s">
-        <v>174</v>
+        <v>179</v>
+      </c>
+      <c r="BG95" s="279" t="s">
+        <v>120</v>
       </c>
       <c r="BH95" s="213"/>
       <c r="BI95" s="434"/>
@@ -15517,30 +15656,38 @@
       <c r="AR96" s="441" t="s">
         <v>29</v>
       </c>
-      <c r="AS96" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT96" s="351"/>
+      <c r="AS96" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT96" s="348" t="s">
+        <v>247</v>
+      </c>
       <c r="AU96" s="286"/>
       <c r="AV96" s="287"/>
-      <c r="AW96" s="282"/>
-      <c r="AX96" s="326"/>
-      <c r="AY96" s="351"/>
+      <c r="AW96" s="282" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX96" s="323"/>
+      <c r="AY96" s="348" t="s">
+        <v>247</v>
+      </c>
       <c r="AZ96" s="286"/>
       <c r="BA96" s="287"/>
-      <c r="BB96" s="277"/>
-      <c r="BC96" s="326"/>
+      <c r="BB96" s="282" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC96" s="323"/>
       <c r="BD96" s="171" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="BE96" s="231" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="BF96" s="232" t="s">
-        <v>178</v>
-      </c>
-      <c r="BG96" s="300" t="s">
-        <v>174</v>
+        <v>129</v>
+      </c>
+      <c r="BG96" s="279" t="s">
+        <v>120</v>
       </c>
       <c r="BH96" s="204"/>
       <c r="BI96" s="434"/>
@@ -15572,7 +15719,7 @@
       <c r="CA96" s="101"/>
       <c r="CB96" s="120"/>
     </row>
-    <row r="97" spans="1:80" ht="33" customHeight="1">
+    <row r="97" spans="1:80" ht="39" customHeight="1">
       <c r="A97" s="434"/>
       <c r="B97" s="422"/>
       <c r="C97" s="424"/>
@@ -15621,30 +15768,38 @@
       <c r="AP97" s="422"/>
       <c r="AQ97" s="424"/>
       <c r="AR97" s="424"/>
-      <c r="AS97" s="340" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT97" s="351"/>
+      <c r="AS97" s="337" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT97" s="348" t="s">
+        <v>247</v>
+      </c>
       <c r="AU97" s="286"/>
       <c r="AV97" s="287"/>
-      <c r="AW97" s="282"/>
-      <c r="AX97" s="326"/>
-      <c r="AY97" s="351"/>
+      <c r="AW97" s="282" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX97" s="323"/>
+      <c r="AY97" s="348" t="s">
+        <v>247</v>
+      </c>
       <c r="AZ97" s="286"/>
       <c r="BA97" s="287"/>
-      <c r="BB97" s="277"/>
-      <c r="BC97" s="326"/>
-      <c r="BD97" s="372" t="s">
-        <v>164</v>
+      <c r="BB97" s="282" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC97" s="323"/>
+      <c r="BD97" s="285" t="s">
+        <v>116</v>
       </c>
       <c r="BE97" s="115" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="BF97" s="114" t="s">
-        <v>250</v>
-      </c>
-      <c r="BG97" s="300" t="s">
-        <v>174</v>
+        <v>179</v>
+      </c>
+      <c r="BG97" s="279" t="s">
+        <v>120</v>
       </c>
       <c r="BH97" s="204"/>
       <c r="BI97" s="434"/>
@@ -15670,7 +15825,7 @@
       <c r="CA97" s="101"/>
       <c r="CB97" s="120"/>
     </row>
-    <row r="98" spans="1:80" ht="33" customHeight="1">
+    <row r="98" spans="1:80" ht="39" customHeight="1">
       <c r="A98" s="434"/>
       <c r="B98" s="425">
         <v>3</v>
@@ -15737,30 +15892,38 @@
       <c r="AR98" s="441" t="s">
         <v>58</v>
       </c>
-      <c r="AS98" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT98" s="351"/>
+      <c r="AS98" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT98" s="348" t="s">
+        <v>247</v>
+      </c>
       <c r="AU98" s="286"/>
       <c r="AV98" s="287"/>
-      <c r="AW98" s="282"/>
-      <c r="AX98" s="326"/>
-      <c r="AY98" s="351"/>
+      <c r="AW98" s="282" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX98" s="323"/>
+      <c r="AY98" s="348" t="s">
+        <v>247</v>
+      </c>
       <c r="AZ98" s="286"/>
       <c r="BA98" s="287"/>
-      <c r="BB98" s="282"/>
-      <c r="BC98" s="326"/>
+      <c r="BB98" s="282" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC98" s="323"/>
       <c r="BD98" s="171" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="BE98" s="230" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BF98" s="232" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="BG98" s="279" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="BH98" s="204"/>
       <c r="BI98" s="434"/>
@@ -15776,17 +15939,17 @@
       <c r="BM98" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="BN98" s="235" t="s">
-        <v>189</v>
+      <c r="BN98" s="285" t="s">
+        <v>140</v>
       </c>
       <c r="BO98" s="235" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BP98" s="237" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="BQ98" s="279" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="BR98" s="263"/>
       <c r="BS98" s="60"/>
@@ -15800,7 +15963,7 @@
       <c r="CA98" s="101"/>
       <c r="CB98" s="120"/>
     </row>
-    <row r="99" spans="1:80" ht="33" customHeight="1">
+    <row r="99" spans="1:80" ht="39" customHeight="1">
       <c r="A99" s="434"/>
       <c r="B99" s="422"/>
       <c r="C99" s="424"/>
@@ -15849,19 +16012,27 @@
       <c r="AP99" s="422"/>
       <c r="AQ99" s="424"/>
       <c r="AR99" s="424"/>
-      <c r="AS99" s="340" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT99" s="351"/>
+      <c r="AS99" s="337" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT99" s="348" t="s">
+        <v>247</v>
+      </c>
       <c r="AU99" s="286"/>
       <c r="AV99" s="287"/>
-      <c r="AW99" s="282"/>
-      <c r="AX99" s="326"/>
-      <c r="AY99" s="351"/>
+      <c r="AW99" s="282" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX99" s="323"/>
+      <c r="AY99" s="348" t="s">
+        <v>247</v>
+      </c>
       <c r="AZ99" s="286"/>
       <c r="BA99" s="287"/>
-      <c r="BB99" s="277"/>
-      <c r="BC99" s="326"/>
+      <c r="BB99" s="282" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC99" s="323"/>
       <c r="BD99" s="171"/>
       <c r="BE99" s="230"/>
       <c r="BF99" s="232"/>
@@ -15874,7 +16045,7 @@
       <c r="BM99" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="BN99" s="235"/>
+      <c r="BN99" s="285"/>
       <c r="BO99" s="235"/>
       <c r="BP99" s="237"/>
       <c r="BQ99" s="280"/>
@@ -15890,7 +16061,7 @@
       <c r="CA99" s="101"/>
       <c r="CB99" s="120"/>
     </row>
-    <row r="100" spans="1:80" ht="33" customHeight="1">
+    <row r="100" spans="1:80" ht="39" customHeight="1">
       <c r="A100" s="434"/>
       <c r="B100" s="425">
         <v>4</v>
@@ -15957,30 +16128,38 @@
       <c r="AR100" s="441" t="s">
         <v>60</v>
       </c>
-      <c r="AS100" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT100" s="358"/>
+      <c r="AS100" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT100" s="348" t="s">
+        <v>247</v>
+      </c>
       <c r="AU100" s="286"/>
       <c r="AV100" s="287"/>
-      <c r="AW100" s="282"/>
-      <c r="AX100" s="326"/>
-      <c r="AY100" s="351"/>
+      <c r="AW100" s="282" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX100" s="323"/>
+      <c r="AY100" s="348" t="s">
+        <v>247</v>
+      </c>
       <c r="AZ100" s="286"/>
       <c r="BA100" s="287"/>
-      <c r="BB100" s="282"/>
-      <c r="BC100" s="326"/>
+      <c r="BB100" s="282" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC100" s="323"/>
       <c r="BD100" s="171" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="BE100" s="230" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BF100" s="232" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="BG100" s="279" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="BH100" s="204"/>
       <c r="BI100" s="434"/>
@@ -15996,17 +16175,17 @@
       <c r="BM100" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="BN100" s="235" t="s">
-        <v>189</v>
+      <c r="BN100" s="285" t="s">
+        <v>140</v>
       </c>
       <c r="BO100" s="235" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BP100" s="237" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="BQ100" s="279" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="BR100" s="263"/>
       <c r="BS100" s="60"/>
@@ -16020,7 +16199,7 @@
       <c r="CA100" s="71"/>
       <c r="CB100" s="120"/>
     </row>
-    <row r="101" spans="1:80" ht="33" customHeight="1">
+    <row r="101" spans="1:80" ht="39" customHeight="1">
       <c r="A101" s="434"/>
       <c r="B101" s="422"/>
       <c r="C101" s="424"/>
@@ -16069,19 +16248,27 @@
       <c r="AP101" s="422"/>
       <c r="AQ101" s="424"/>
       <c r="AR101" s="424"/>
-      <c r="AS101" s="340" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT101" s="358"/>
+      <c r="AS101" s="337" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT101" s="348" t="s">
+        <v>247</v>
+      </c>
       <c r="AU101" s="286"/>
       <c r="AV101" s="287"/>
-      <c r="AW101" s="282"/>
-      <c r="AX101" s="326"/>
-      <c r="AY101" s="351"/>
+      <c r="AW101" s="282" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX101" s="323"/>
+      <c r="AY101" s="348" t="s">
+        <v>247</v>
+      </c>
       <c r="AZ101" s="286"/>
       <c r="BA101" s="287"/>
-      <c r="BB101" s="277"/>
-      <c r="BC101" s="326"/>
+      <c r="BB101" s="282" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC101" s="323"/>
       <c r="BD101" s="171"/>
       <c r="BE101" s="231"/>
       <c r="BF101" s="232"/>
@@ -16094,17 +16281,17 @@
       <c r="BM101" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="BN101" s="235" t="s">
-        <v>187</v>
+      <c r="BN101" s="285" t="s">
+        <v>138</v>
       </c>
       <c r="BO101" s="235" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BP101" s="237" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="BQ101" s="279" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="BR101" s="263"/>
       <c r="BS101" s="60"/>
@@ -16118,7 +16305,7 @@
       <c r="CA101" s="101"/>
       <c r="CB101" s="120"/>
     </row>
-    <row r="102" spans="1:80" ht="33" customHeight="1">
+    <row r="102" spans="1:80" ht="39" customHeight="1">
       <c r="A102" s="434"/>
       <c r="B102" s="425">
         <v>5</v>
@@ -16185,30 +16372,38 @@
       <c r="AR102" s="441" t="s">
         <v>61</v>
       </c>
-      <c r="AS102" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT102" s="358"/>
+      <c r="AS102" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT102" s="348" t="s">
+        <v>247</v>
+      </c>
       <c r="AU102" s="286"/>
       <c r="AV102" s="287"/>
-      <c r="AW102" s="282"/>
-      <c r="AX102" s="326"/>
-      <c r="AY102" s="351"/>
+      <c r="AW102" s="282" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX102" s="323"/>
+      <c r="AY102" s="348" t="s">
+        <v>247</v>
+      </c>
       <c r="AZ102" s="286"/>
       <c r="BA102" s="287"/>
-      <c r="BB102" s="282"/>
-      <c r="BC102" s="326"/>
+      <c r="BB102" s="282" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC102" s="323"/>
       <c r="BD102" s="171" t="s">
-        <v>189</v>
-      </c>
-      <c r="BE102" s="231" t="s">
-        <v>79</v>
+        <v>140</v>
+      </c>
+      <c r="BE102" s="384" t="s">
+        <v>78</v>
       </c>
       <c r="BF102" s="232" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="BG102" s="279" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="BH102" s="206"/>
       <c r="BI102" s="434"/>
@@ -16224,17 +16419,17 @@
       <c r="BM102" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="BN102" s="235" t="s">
-        <v>189</v>
+      <c r="BN102" s="285" t="s">
+        <v>140</v>
       </c>
       <c r="BO102" s="236" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BP102" s="237" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="BQ102" s="279" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="BR102" s="263"/>
       <c r="BS102" s="60"/>
@@ -16248,7 +16443,7 @@
       <c r="CA102" s="71"/>
       <c r="CB102" s="122"/>
     </row>
-    <row r="103" spans="1:80" ht="33" customHeight="1">
+    <row r="103" spans="1:80" ht="39" customHeight="1">
       <c r="A103" s="434"/>
       <c r="B103" s="422"/>
       <c r="C103" s="424"/>
@@ -16297,19 +16492,27 @@
       <c r="AP103" s="422"/>
       <c r="AQ103" s="424"/>
       <c r="AR103" s="424"/>
-      <c r="AS103" s="340" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT103" s="358"/>
+      <c r="AS103" s="337" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT103" s="348" t="s">
+        <v>247</v>
+      </c>
       <c r="AU103" s="286"/>
       <c r="AV103" s="287"/>
-      <c r="AW103" s="282"/>
-      <c r="AX103" s="326"/>
-      <c r="AY103" s="351"/>
+      <c r="AW103" s="282" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX103" s="323"/>
+      <c r="AY103" s="348" t="s">
+        <v>247</v>
+      </c>
       <c r="AZ103" s="286"/>
       <c r="BA103" s="287"/>
-      <c r="BB103" s="277"/>
-      <c r="BC103" s="326"/>
+      <c r="BB103" s="282" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC103" s="323"/>
       <c r="BD103" s="171"/>
       <c r="BE103" s="173"/>
       <c r="BF103" s="175"/>
@@ -16322,17 +16525,17 @@
       <c r="BM103" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="BN103" s="235" t="s">
-        <v>187</v>
+      <c r="BN103" s="285" t="s">
+        <v>138</v>
       </c>
       <c r="BO103" s="235" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BP103" s="237" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="BQ103" s="279" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="BR103" s="263"/>
       <c r="BS103" s="60"/>
@@ -16413,19 +16616,19 @@
       <c r="AR104" s="441" t="s">
         <v>62</v>
       </c>
-      <c r="AS104" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT104" s="358"/>
+      <c r="AS104" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT104" s="354"/>
       <c r="AU104" s="286"/>
       <c r="AV104" s="287"/>
       <c r="AW104" s="282"/>
-      <c r="AX104" s="326"/>
-      <c r="AY104" s="358"/>
+      <c r="AX104" s="323"/>
+      <c r="AY104" s="354"/>
       <c r="AZ104" s="286"/>
       <c r="BA104" s="287"/>
       <c r="BB104" s="282"/>
-      <c r="BC104" s="326"/>
+      <c r="BC104" s="323"/>
       <c r="BD104" s="171"/>
       <c r="BE104" s="174"/>
       <c r="BF104" s="175"/>
@@ -16509,15 +16712,15 @@
       <c r="AP105" s="442"/>
       <c r="AQ105" s="443"/>
       <c r="AR105" s="443"/>
-      <c r="AS105" s="347" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT105" s="359"/>
+      <c r="AS105" s="344" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT105" s="355"/>
       <c r="AU105" s="253"/>
       <c r="AV105" s="254"/>
       <c r="AW105" s="240"/>
       <c r="AX105" s="140"/>
-      <c r="AY105" s="359"/>
+      <c r="AY105" s="355"/>
       <c r="AZ105" s="253"/>
       <c r="BA105" s="254"/>
       <c r="BB105" s="240"/>
@@ -18490,8 +18693,10 @@
     <hyperlink ref="J17" r:id="rId35"/>
     <hyperlink ref="BR36" r:id="rId36" display="https://online-edu.mirea.ru/"/>
     <hyperlink ref="BR38" r:id="rId37" display="https://online-edu.mirea.ru/"/>
+    <hyperlink ref="AI50" r:id="rId38" display="https://online-edu.mirea.ru/"/>
+    <hyperlink ref="AN50" r:id="rId39" display="https://online-edu.mirea.ru/"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="8" scale="13" orientation="portrait" r:id="rId38"/>
+  <pageSetup paperSize="8" scale="13" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>